--- a/QuantLibXL/Data2/XLS/USD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="25875" windowHeight="11250" tabRatio="879"/>
+    <workbookView xWindow="10185" yWindow="-15" windowWidth="10200" windowHeight="7995" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -1784,7 +1784,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2775,6 +2775,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="5"/>
@@ -3080,130 +3083,130 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
         <stp/>
-        <stp>{E3DFECB1-DF5F-4AB5-A5C3-680BD84845E4}</stp>
+        <stp>{13629C36-E5F9-4845-B2C4-05C04679F5E3}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:39:39</v>
+        <stp/>
+        <stp>{D27A12AC-16E6-4F7D-812B-0AE6CAA40738}</stp>
+        <tr r="O5" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:13:10</v>
+        <stp/>
+        <stp>{1A37B9DF-FE9E-4048-A164-D06775C27DA4}</stp>
+        <tr r="D3" s="60"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:22:07</v>
+        <stp/>
+        <stp>{D2F102A2-504F-480A-A77F-D3E66AE321B9}</stp>
+        <tr r="U27" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:13:08</v>
+        <stp/>
+        <stp>{800052B8-E7B7-4780-8DF5-9C0FC9BC2A20}</stp>
+        <tr r="O5" s="17"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:22:28</v>
+        <stp/>
+        <stp>{F1A56E93-E350-48CE-A87A-735C7A79086C}</stp>
+        <tr r="O4" s="23"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:13:10</v>
+        <stp/>
+        <stp>{078BFEE3-D2D8-4A44-9ACD-4C2383304A55}</stp>
+        <tr r="M6" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:08:18</v>
+        <stp/>
+        <stp>{02AD7B51-3632-42C9-B6B0-B8B60F38D693}</stp>
+        <tr r="R5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:13:10</v>
+        <stp/>
+        <stp>{EB344FC4-BDB3-4DBA-89CB-F6E747E8711E}</stp>
+        <tr r="M6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:00:43</v>
+        <stp/>
+        <stp>{E86417C7-FBD5-4CFF-B6E3-01FF937E2920}</stp>
+        <tr r="N6" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:39:39</v>
+        <stp/>
+        <stp>{C3066B69-15D1-4E64-B85D-2E49C3779115}</stp>
+        <tr r="H4" s="20"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:39:22</v>
+        <stp/>
+        <stp>{10EDA299-C929-4E0F-800F-9B539D4FB1AB}</stp>
+        <tr r="S4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:00:42</v>
+        <stp/>
+        <stp>{F0FCE5CF-E95E-4CC0-B17B-AE98340F6871}</stp>
+        <tr r="S4" s="13"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:13:10</v>
+        <stp/>
+        <stp>{07D51B1F-DCBD-488F-AF8E-C425D602CF15}</stp>
+        <tr r="D3" s="62"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:00:48</v>
+        <stp/>
+        <stp>{BD8A9A82-4123-4B31-9ADC-C9CA2EE5DE5C}</stp>
+        <tr r="S4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:18:16</v>
+        <stp/>
+        <stp>{CA5BDA64-8C34-4D3B-9207-D5B25F87F9C1}</stp>
+        <tr r="S4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:13:10</v>
+        <stp/>
+        <stp>{AC45396B-E0FF-4A64-A89F-D67EC09F7862}</stp>
         <tr r="S4" s="26"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
         <stp/>
-        <stp>{88E6D182-3BF6-4B8F-B0D1-8C0D0D852746}</stp>
-        <tr r="O4" s="23"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{B77910E4-E009-46F4-8321-696B3F1736F7}</stp>
-        <tr r="D3" s="60"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{AA76D43B-C9C7-46A8-BE76-2C7D7E96AA67}</stp>
+        <stp>{853FC204-EC15-4FFB-9BBD-789DC22F18BA}</stp>
         <tr r="D3" s="61"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
         <stp/>
-        <stp>{4E928496-A5DA-4BC5-B0FD-61D408224340}</stp>
-        <tr r="S4" s="25"/>
+        <stp>{B7E1DD76-F57A-4D6A-A7B7-682E81733C89}</stp>
+        <tr r="F4" s="55"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:22:30</v>
         <stp/>
-        <stp>{E4CBA4DB-86CD-4B35-8C3E-FABAF22C7C47}</stp>
-        <tr r="H4" s="20"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{1CF031FF-226D-4CA4-92BB-892C93AE172B}</stp>
-        <tr r="S4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{B6691C94-9614-47EE-AC7E-62F6B0D41FA4}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{0A4F9CA9-8CA2-401F-BDC8-84B5404DDBB7}</stp>
-        <tr r="M6" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{0388977B-EC11-42C1-AE46-57102C5602E2}</stp>
+        <stp>{997B6969-89A6-4500-800B-79F67C44A1EC}</stp>
         <tr r="O4" s="24"/>
       </tp>
       <tp t="s">
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:39:28</v>
         <stp/>
-        <stp>{FA122F7D-3A92-4304-BB4B-D83D6A680F99}</stp>
-        <tr r="S4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{6FBF5320-B17E-4A68-B978-21724A98EE56}</stp>
-        <tr r="D3" s="62"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{A0A75D3F-0273-4A00-B461-A5BFF2A2860B}</stp>
-        <tr r="S4" s="13"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{431980A1-69F9-4F12-AB58-B6F68618ABEE}</stp>
-        <tr r="N6" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{D2221BFA-D69E-4AAA-B5E8-F1C19AAE9B89}</stp>
-        <tr r="R5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{DA2045BB-1CA1-4AFD-BE3D-997D50D4CAEA}</stp>
-        <tr r="U27" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{DA73DCFB-3BEB-4BD5-BCD5-48A2A8C0EDEA}</stp>
-        <tr r="O5" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{ADD0C642-7941-4B6C-8131-01CE9DAE9213}</stp>
+        <stp>{8D6D7334-C7A0-46EE-9169-55A351050822}</stp>
         <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{F78D5274-D8A0-41BB-B103-BEBD987A6693}</stp>
-        <tr r="F4" s="55"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{96E094B8-50E9-4188-B0A7-C9E10D80D54C}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 15:28:02</v>
-        <stp/>
-        <stp>{CA92FE8E-5647-44D9-B258-1C040AC9255F}</stp>
-        <tr r="M6" s="7"/>
       </tp>
     </main>
   </volType>
@@ -3567,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="449">
-        <v>41753.624444444446</v>
+        <v>41757.467106481483</v>
       </c>
       <c r="K4" s="13"/>
     </row>
@@ -3576,9 +3579,7 @@
       <c r="C5" s="366" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="368">
-        <v>41621.603217592594</v>
-      </c>
+      <c r="D5" s="368"/>
       <c r="E5" s="360"/>
       <c r="F5" s="354"/>
       <c r="H5" s="9"/>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="D7" s="365">
         <f>_xll.ohTrigger(Deposits!P3,FRA!X5,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!AC3,SwapsIMMDated!Y3,Swap6M!AC3,BasisSwap1MxM!AC3,BasisSwap3M6M!AC3,BasisSwapxM12M!AC3,OIS!Y3)</f>
-        <v>1292</v>
+        <v>2525</v>
       </c>
       <c r="E7" s="360"/>
       <c r="F7" s="354"/>
@@ -3757,7 +3758,7 @@
       </c>
       <c r="J14" s="453">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41753</v>
+        <v>41757</v>
       </c>
       <c r="K14" s="446"/>
     </row>
@@ -3972,8 +3973,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4159,7 +4160,7 @@
       <c r="W5" s="131"/>
       <c r="X5" s="253">
         <f>_xll.ohTrigger(X7:X21)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="189"/>
       <c r="Z5" s="19"/>
@@ -4193,7 +4194,7 @@
       <c r="M6" s="165"/>
       <c r="N6" s="218" t="str">
         <f>_xll.RData(N7:N21,O6:R6,"RTFEED:IDN",ReutersRtMode,,O7)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:00:43</v>
       </c>
       <c r="O6" s="284" t="s">
         <v>207</v>
@@ -4265,10 +4266,10 @@
         <v>USD1X4F=ICAP</v>
       </c>
       <c r="O7" s="275">
-        <v>0.20399999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="P7" s="275">
-        <v>0.254</v>
+        <v>0.255</v>
       </c>
       <c r="Q7" s="274">
         <v>0</v>
@@ -4278,7 +4279,7 @@
       </c>
       <c r="S7" s="225">
         <f>_xll.qlMidSafe($O7,$P7)</f>
-        <v>0.22899999999999998</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="T7" s="223"/>
       <c r="U7" s="278">
@@ -4287,7 +4288,7 @@
       <c r="V7" s="223"/>
       <c r="W7" s="303">
         <f t="array" ref="W7:W21">QuoteLive</f>
-        <v>0.22899999999999998</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="X7" s="240">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
@@ -4829,10 +4830,10 @@
         <v>USD3X9F=ICAP</v>
       </c>
       <c r="O15" s="275">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="P15" s="275">
-        <v>0.36299999999999999</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="Q15" s="274">
         <v>0</v>
@@ -4842,7 +4843,7 @@
       </c>
       <c r="S15" s="225">
         <f>_xll.qlMidSafe($O15,$P15)</f>
-        <v>0.33799999999999997</v>
+        <v>0.33899999999999997</v>
       </c>
       <c r="T15" s="223"/>
       <c r="U15" s="273">
@@ -4850,7 +4851,7 @@
       </c>
       <c r="V15" s="223"/>
       <c r="W15" s="296">
-        <v>0.33799999999999997</v>
+        <v>0.33899999999999997</v>
       </c>
       <c r="X15" s="220">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
@@ -4971,10 +4972,10 @@
         <v>USD5X11F=ICAP</v>
       </c>
       <c r="O17" s="275">
-        <v>0.33600000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="P17" s="275">
-        <v>0.38600000000000001</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="Q17" s="274">
         <v>0</v>
@@ -4984,7 +4985,7 @@
       </c>
       <c r="S17" s="225">
         <f>_xll.qlMidSafe($O17,$P17)</f>
-        <v>0.36099999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="T17" s="223"/>
       <c r="U17" s="273">
@@ -4992,7 +4993,7 @@
       </c>
       <c r="V17" s="223"/>
       <c r="W17" s="296">
-        <v>0.36099999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="X17" s="220">
         <f>_xll.qlSimpleQuoteSetValue(E17,W17/100,Trigger)</f>
@@ -5042,10 +5043,10 @@
         <v>USD6X12F=ICAP</v>
       </c>
       <c r="O18" s="275">
-        <v>0.35399999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="P18" s="275">
-        <v>0.40400000000000003</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="Q18" s="274">
         <v>0</v>
@@ -5055,7 +5056,7 @@
       </c>
       <c r="S18" s="225">
         <f>_xll.qlMidSafe($O18,$P18)</f>
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="T18" s="223"/>
       <c r="U18" s="273">
@@ -5063,7 +5064,7 @@
       </c>
       <c r="V18" s="223"/>
       <c r="W18" s="296">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="X18" s="220">
         <f>_xll.qlSimpleQuoteSetValue(E18,W18/100,Trigger)</f>
@@ -5500,7 +5501,7 @@
       <c r="Y4" s="131"/>
       <c r="Z4" s="253">
         <f>_xll.ohTrigger(Z6:Z17)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="310"/>
       <c r="AB4" s="19"/>
@@ -5560,7 +5561,7 @@
       </c>
       <c r="O5" s="218" t="str">
         <f>_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:08</v>
       </c>
       <c r="P5" s="284" t="s">
         <v>247</v>
@@ -5654,10 +5655,10 @@
         <v>41778</v>
       </c>
       <c r="Q6" s="241">
-        <v>99.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="R6" s="241">
-        <v>99.85</v>
+        <v>0</v>
       </c>
       <c r="S6" s="241">
         <v>0</v>
@@ -5665,22 +5666,22 @@
       <c r="T6" s="241">
         <v>99.847499999999997</v>
       </c>
-      <c r="U6" s="243">
+      <c r="U6" s="243" t="e">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
-        <v>99.847499999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="V6" s="223"/>
       <c r="W6" s="304">
         <v>99.828749999999999</v>
       </c>
       <c r="X6" s="223"/>
-      <c r="Y6" s="303">
+      <c r="Y6" s="303" t="e">
         <f t="array" ref="Y6:Y17">QuoteLive</f>
-        <v>99.847499999999997</v>
-      </c>
-      <c r="Z6" s="243">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z6" s="243" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA6" s="42"/>
       <c r="AB6" s="19"/>
@@ -5689,9 +5690,9 @@
       </c>
       <c r="AD6" s="77"/>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="258">
+      <c r="AF6" s="258" t="e">
         <f t="shared" ref="AF6:AF17" si="1">(R6-U6)/50</f>
-        <v>4.9999999999954527E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH6" s="147"/>
       <c r="AI6" s="86" t="s">
@@ -5767,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="R7" s="221">
-        <v>99.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="S7" s="221">
-        <v>99.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="T7" s="221">
         <v>99.847499999999997</v>
@@ -5875,10 +5876,10 @@
         <v>41834</v>
       </c>
       <c r="Q8" s="221">
-        <v>99.842500000000001</v>
+        <v>0</v>
       </c>
       <c r="R8" s="221">
-        <v>99.85</v>
+        <v>0</v>
       </c>
       <c r="S8" s="221">
         <v>0</v>
@@ -5886,21 +5887,21 @@
       <c r="T8" s="221">
         <v>99.842500000000001</v>
       </c>
-      <c r="U8" s="225">
+      <c r="U8" s="225" t="e">
         <f>_xll.qlMidSafe($Q8,$R8)</f>
-        <v>99.846249999999998</v>
+        <v>#NUM!</v>
       </c>
       <c r="V8" s="223"/>
       <c r="W8" s="302">
         <v>99.818749999999994</v>
       </c>
       <c r="X8" s="223"/>
-      <c r="Y8" s="296">
-        <v>99.846249999999998</v>
-      </c>
-      <c r="Z8" s="225">
+      <c r="Y8" s="296" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z8" s="225" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA8" s="42"/>
       <c r="AB8" s="19"/>
@@ -5909,9 +5910,9 @@
       </c>
       <c r="AD8" s="77"/>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="258">
+      <c r="AF8" s="258" t="e">
         <f t="shared" si="1"/>
-        <v>7.4999999999931784E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH8" s="141"/>
       <c r="AI8" s="140">
@@ -6433,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="221">
-        <v>99.802499999999995</v>
+        <v>99.797499999999999</v>
       </c>
       <c r="U13" s="225" t="e">
         <f>_xll.qlMidSafe($Q13,$R13)</f>
@@ -6541,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="221">
-        <v>99.784999999999997</v>
+        <v>99.782499999999999</v>
       </c>
       <c r="U14" s="225" t="e">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
@@ -6649,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="221">
-        <v>99.78</v>
+        <v>99.772499999999994</v>
       </c>
       <c r="U15" s="225" t="e">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
@@ -6757,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="221">
-        <v>99.742500000000007</v>
+        <v>99.737499999999997</v>
       </c>
       <c r="U16" s="225" t="e">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
@@ -6865,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="234">
-        <v>99.707499999999996</v>
+        <v>99.702500000000001</v>
       </c>
       <c r="U17" s="237" t="e">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
@@ -7015,7 +7016,7 @@
   <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7181,7 +7182,7 @@
       <c r="Y4" s="131"/>
       <c r="Z4" s="253">
         <f>_xll.ohTrigger(Z6:Z47)</f>
-        <v>938</v>
+        <v>1960</v>
       </c>
       <c r="AA4" s="310"/>
       <c r="AB4" s="19"/>
@@ -7241,7 +7242,7 @@
       </c>
       <c r="O5" s="317" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:39:39</v>
       </c>
       <c r="P5" s="314" t="s">
         <v>247</v>
@@ -7414,7 +7415,7 @@
       </c>
       <c r="AM6" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL6,IborIndex,AK6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>USDFUT3MK4ConvAdj_Quote#1107</v>
+        <v>USDFUT3MK4ConvAdj_Quote#2133</v>
       </c>
       <c r="AN6" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM6)</f>
@@ -7522,7 +7523,7 @@
       </c>
       <c r="AM7" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL7,IborIndex,AK7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>USDFUT3MM4ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM4ConvAdj_Quote#1961</v>
       </c>
       <c r="AN7" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM7)</f>
@@ -7574,7 +7575,7 @@
         <v>41834</v>
       </c>
       <c r="Q8" s="221">
-        <v>99.76</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="R8" s="221">
         <v>99.77</v>
@@ -7587,7 +7588,7 @@
       </c>
       <c r="U8" s="225">
         <f>_xll.qlMidSafe($Q8,$R8)</f>
-        <v>99.765000000000001</v>
+        <v>99.762499999999989</v>
       </c>
       <c r="V8" s="223"/>
       <c r="W8" s="302">
@@ -7595,7 +7596,7 @@
       </c>
       <c r="X8" s="223"/>
       <c r="Y8" s="296">
-        <v>99.765000000000001</v>
+        <v>99.762499999999989</v>
       </c>
       <c r="Z8" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8,Trigger)</f>
@@ -7612,7 +7613,7 @@
       <c r="AE8" s="19"/>
       <c r="AF8" s="258">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>1.5000000000014779E-4</v>
       </c>
       <c r="AH8" s="141"/>
       <c r="AI8" s="140">
@@ -7630,7 +7631,7 @@
       </c>
       <c r="AM8" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL8,IborIndex,AK8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>USDFUT3MN4ConvAdj_Quote#0937</v>
+        <v>USDFUT3MN4ConvAdj_Quote#1961</v>
       </c>
       <c r="AN8" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM8)</f>
@@ -7682,32 +7683,32 @@
         <v>41869</v>
       </c>
       <c r="Q9" s="221">
-        <v>99.754999999999995</v>
+        <v>0</v>
       </c>
       <c r="R9" s="221">
-        <v>99.765000000000001</v>
+        <v>0</v>
       </c>
       <c r="S9" s="221">
-        <v>99.765000000000001</v>
+        <v>0</v>
       </c>
       <c r="T9" s="221">
         <v>99.76</v>
       </c>
-      <c r="U9" s="225">
+      <c r="U9" s="225" t="e">
         <f>_xll.qlMidSafe($Q9,$R9)</f>
-        <v>99.759999999999991</v>
+        <v>#NUM!</v>
       </c>
       <c r="V9" s="223"/>
       <c r="W9" s="302">
         <v>99.74</v>
       </c>
       <c r="X9" s="223"/>
-      <c r="Y9" s="296">
-        <v>99.759999999999991</v>
-      </c>
-      <c r="Z9" s="225">
+      <c r="Y9" s="296" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z9" s="225" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA9" s="42"/>
       <c r="AB9" s="19"/>
@@ -7716,9 +7717,9 @@
       </c>
       <c r="AD9" s="77"/>
       <c r="AE9" s="19"/>
-      <c r="AF9" s="258">
+      <c r="AF9" s="258" t="e">
         <f t="shared" si="1"/>
-        <v>1.0000000000019326E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH9" s="141"/>
       <c r="AI9" s="140">
@@ -7736,7 +7737,7 @@
       </c>
       <c r="AM9" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL9,IborIndex,AK9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>USDFUT3MQ4ConvAdj_Quote#0937</v>
+        <v>USDFUT3MQ4ConvAdj_Quote#1961</v>
       </c>
       <c r="AN9" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM9)</f>
@@ -7798,7 +7799,7 @@
         <v>99.75</v>
       </c>
       <c r="T10" s="221">
-        <v>99.75</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="U10" s="225">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
@@ -7845,7 +7846,7 @@
       </c>
       <c r="AM10" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL10,IborIndex,AK10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>USDFUT3MU4ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU4ConvAdj_Quote#1961</v>
       </c>
       <c r="AN10" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM10)</f>
@@ -7897,10 +7898,10 @@
         <v>41925</v>
       </c>
       <c r="Q11" s="221">
-        <v>99.745000000000005</v>
+        <v>0</v>
       </c>
       <c r="R11" s="221">
-        <v>99.75</v>
+        <v>0</v>
       </c>
       <c r="S11" s="221">
         <v>0</v>
@@ -7908,30 +7909,30 @@
       <c r="T11" s="221">
         <v>99.745000000000005</v>
       </c>
-      <c r="U11" s="225">
+      <c r="U11" s="225" t="e">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>99.747500000000002</v>
+        <v>#NUM!</v>
       </c>
       <c r="V11" s="223"/>
       <c r="W11" s="297">
         <v>99.707499999999996</v>
       </c>
       <c r="X11" s="223"/>
-      <c r="Y11" s="296">
-        <v>99.747500000000002</v>
-      </c>
-      <c r="Z11" s="225">
+      <c r="Y11" s="296" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z11" s="225" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA11" s="42"/>
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
-      <c r="AF11" s="258">
+      <c r="AF11" s="258" t="e">
         <f t="shared" si="1"/>
-        <v>4.9999999999954527E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH11" s="141"/>
       <c r="AI11" s="140">
@@ -7949,7 +7950,7 @@
       </c>
       <c r="AM11" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL11,IborIndex,AK11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>USDFUT3MV4ConvAdj_Quote#0937</v>
+        <v>USDFUT3MV4ConvAdj_Quote#1961</v>
       </c>
       <c r="AN11" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM11)</f>
@@ -8053,7 +8054,7 @@
       </c>
       <c r="AM12" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL12,IborIndex,AK12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>USDFUT3MX4ConvAdj_Quote#0937</v>
+        <v>USDFUT3MX4ConvAdj_Quote#1961</v>
       </c>
       <c r="AN12" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM12)</f>
@@ -8111,7 +8112,7 @@
         <v>99.715000000000003</v>
       </c>
       <c r="S13" s="221">
-        <v>99.71</v>
+        <v>99.715000000000003</v>
       </c>
       <c r="T13" s="221">
         <v>99.715000000000003</v>
@@ -8157,7 +8158,7 @@
       </c>
       <c r="AM13" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL13,IborIndex,AK13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ4ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ4ConvAdj_Quote#1961</v>
       </c>
       <c r="AN13" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM13)</f>
@@ -8261,7 +8262,7 @@
       </c>
       <c r="AM14" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL14,IborIndex,AK14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>USDFUT3MF5ConvAdj_Quote#0937</v>
+        <v>USDFUT3MF5ConvAdj_Quote#1961</v>
       </c>
       <c r="AN14" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM14)</f>
@@ -8365,7 +8366,7 @@
       </c>
       <c r="AM15" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL15,IborIndex,AK15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>USDFUT3MG5ConvAdj_Quote#0937</v>
+        <v>USDFUT3MG5ConvAdj_Quote#1961</v>
       </c>
       <c r="AN15" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM15)</f>
@@ -8423,10 +8424,10 @@
         <v>99.62</v>
       </c>
       <c r="S16" s="221">
-        <v>99.614999999999995</v>
+        <v>99.62</v>
       </c>
       <c r="T16" s="221">
-        <v>99.625</v>
+        <v>99.62</v>
       </c>
       <c r="U16" s="225">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
@@ -8469,7 +8470,7 @@
       </c>
       <c r="AM16" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL16,IborIndex,AK16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>USDFUT3MH5ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH5ConvAdj_Quote#1961</v>
       </c>
       <c r="AN16" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM16)</f>
@@ -8573,7 +8574,7 @@
       </c>
       <c r="AM17" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL17,IborIndex,AK17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>USDFUT3MJ5ConvAdj_Quote#0937</v>
+        <v>USDFUT3MJ5ConvAdj_Quote#1961</v>
       </c>
       <c r="AN17" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM17)</f>
@@ -8625,20 +8626,20 @@
         <v>42170</v>
       </c>
       <c r="Q18" s="221">
-        <v>99.43</v>
+        <v>99.435000000000002</v>
       </c>
       <c r="R18" s="221">
-        <v>99.435000000000002</v>
+        <v>99.44</v>
       </c>
       <c r="S18" s="221">
         <v>99.435000000000002</v>
       </c>
       <c r="T18" s="221">
-        <v>99.444999999999993</v>
+        <v>99.44</v>
       </c>
       <c r="U18" s="225">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>99.432500000000005</v>
+        <v>99.4375</v>
       </c>
       <c r="V18" s="223"/>
       <c r="W18" s="297">
@@ -8646,7 +8647,7 @@
       </c>
       <c r="X18" s="223"/>
       <c r="Y18" s="296">
-        <v>99.432500000000005</v>
+        <v>99.4375</v>
       </c>
       <c r="Z18" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
@@ -8677,7 +8678,7 @@
       </c>
       <c r="AM18" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL18,IborIndex,AK18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>USDFUT3MM5ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM5ConvAdj_Quote#1961</v>
       </c>
       <c r="AN18" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM18)</f>
@@ -8729,20 +8730,20 @@
         <v>42261</v>
       </c>
       <c r="Q19" s="221">
-        <v>99.185000000000002</v>
+        <v>99.2</v>
       </c>
       <c r="R19" s="221">
-        <v>99.19</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="S19" s="221">
-        <v>99.185000000000002</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="T19" s="221">
         <v>99.204999999999998</v>
       </c>
       <c r="U19" s="225">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>99.1875</v>
+        <v>99.202500000000001</v>
       </c>
       <c r="V19" s="223"/>
       <c r="W19" s="297">
@@ -8750,7 +8751,7 @@
       </c>
       <c r="X19" s="223"/>
       <c r="Y19" s="296">
-        <v>99.1875</v>
+        <v>99.202500000000001</v>
       </c>
       <c r="Z19" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
@@ -8781,7 +8782,7 @@
       </c>
       <c r="AM19" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL19,IborIndex,AK19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>USDFUT3MU5ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU5ConvAdj_Quote#1961</v>
       </c>
       <c r="AN19" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM19)</f>
@@ -8833,20 +8834,20 @@
         <v>42352</v>
       </c>
       <c r="Q20" s="221">
-        <v>98.89</v>
+        <v>98.92</v>
       </c>
       <c r="R20" s="221">
-        <v>98.894999999999996</v>
+        <v>98.924999999999997</v>
       </c>
       <c r="S20" s="221">
-        <v>98.89</v>
+        <v>98.92</v>
       </c>
       <c r="T20" s="221">
-        <v>98.915000000000006</v>
+        <v>98.92</v>
       </c>
       <c r="U20" s="225">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>98.892499999999998</v>
+        <v>98.922499999999999</v>
       </c>
       <c r="V20" s="223"/>
       <c r="W20" s="297">
@@ -8854,7 +8855,7 @@
       </c>
       <c r="X20" s="223"/>
       <c r="Y20" s="296">
-        <v>98.892499999999998</v>
+        <v>98.922499999999999</v>
       </c>
       <c r="Z20" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
@@ -8885,7 +8886,7 @@
       </c>
       <c r="AM20" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL20,IborIndex,AK20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ5ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ5ConvAdj_Quote#1961</v>
       </c>
       <c r="AN20" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM20)</f>
@@ -8937,20 +8938,20 @@
         <v>42443</v>
       </c>
       <c r="Q21" s="221">
-        <v>98.58</v>
+        <v>98.614999999999995</v>
       </c>
       <c r="R21" s="221">
-        <v>98.584999999999994</v>
+        <v>98.62</v>
       </c>
       <c r="S21" s="221">
-        <v>98.584999999999994</v>
+        <v>98.614999999999995</v>
       </c>
       <c r="T21" s="221">
-        <v>98.605000000000004</v>
+        <v>98.614999999999995</v>
       </c>
       <c r="U21" s="225">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>98.582499999999996</v>
+        <v>98.617500000000007</v>
       </c>
       <c r="V21" s="223"/>
       <c r="W21" s="297">
@@ -8958,7 +8959,7 @@
       </c>
       <c r="X21" s="223"/>
       <c r="Y21" s="296">
-        <v>98.582499999999996</v>
+        <v>98.617500000000007</v>
       </c>
       <c r="Z21" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
@@ -8989,7 +8990,7 @@
       </c>
       <c r="AM21" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL21,IborIndex,AK21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>USDFUT3MH6ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH6ConvAdj_Quote#1961</v>
       </c>
       <c r="AN21" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM21)</f>
@@ -9041,20 +9042,20 @@
         <v>42534</v>
       </c>
       <c r="Q22" s="221">
-        <v>98.27</v>
+        <v>98.305000000000007</v>
       </c>
       <c r="R22" s="221">
-        <v>98.275000000000006</v>
+        <v>98.31</v>
       </c>
       <c r="S22" s="221">
-        <v>98.27</v>
+        <v>98.305000000000007</v>
       </c>
       <c r="T22" s="221">
-        <v>98.295000000000002</v>
+        <v>98.31</v>
       </c>
       <c r="U22" s="225">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>98.272500000000008</v>
+        <v>98.307500000000005</v>
       </c>
       <c r="V22" s="223"/>
       <c r="W22" s="297">
@@ -9062,7 +9063,7 @@
       </c>
       <c r="X22" s="223"/>
       <c r="Y22" s="296">
-        <v>98.272500000000008</v>
+        <v>98.307500000000005</v>
       </c>
       <c r="Z22" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
@@ -9093,7 +9094,7 @@
       </c>
       <c r="AM22" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL22,IborIndex,AK22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>USDFUT3MM6ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM6ConvAdj_Quote#1961</v>
       </c>
       <c r="AN22" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM22)</f>
@@ -9145,20 +9146,20 @@
         <v>42632</v>
       </c>
       <c r="Q23" s="221">
-        <v>97.974999999999994</v>
+        <v>98.015000000000001</v>
       </c>
       <c r="R23" s="221">
-        <v>97.98</v>
+        <v>98.02</v>
       </c>
       <c r="S23" s="221">
-        <v>97.98</v>
+        <v>98.015000000000001</v>
       </c>
       <c r="T23" s="221">
-        <v>98.004999999999995</v>
+        <v>98.02</v>
       </c>
       <c r="U23" s="225">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>97.977499999999992</v>
+        <v>98.017499999999998</v>
       </c>
       <c r="V23" s="223"/>
       <c r="W23" s="297">
@@ -9166,7 +9167,7 @@
       </c>
       <c r="X23" s="223"/>
       <c r="Y23" s="296">
-        <v>97.977499999999992</v>
+        <v>98.017499999999998</v>
       </c>
       <c r="Z23" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
@@ -9179,7 +9180,7 @@
       <c r="AE23" s="19"/>
       <c r="AF23" s="258">
         <f t="shared" si="1"/>
-        <v>5.0000000000238744E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH23" s="141"/>
       <c r="AI23" s="140">
@@ -9197,7 +9198,7 @@
       </c>
       <c r="AM23" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL23,IborIndex,AK23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>USDFUT3MU6ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU6ConvAdj_Quote#1961</v>
       </c>
       <c r="AN23" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM23)</f>
@@ -9249,20 +9250,20 @@
         <v>42723</v>
       </c>
       <c r="Q24" s="221">
-        <v>97.704999999999998</v>
+        <v>97.74</v>
       </c>
       <c r="R24" s="221">
-        <v>97.71</v>
+        <v>97.745000000000005</v>
       </c>
       <c r="S24" s="221">
-        <v>97.71</v>
+        <v>97.745000000000005</v>
       </c>
       <c r="T24" s="221">
-        <v>97.734999999999999</v>
+        <v>97.75</v>
       </c>
       <c r="U24" s="225">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>97.707499999999996</v>
+        <v>97.742500000000007</v>
       </c>
       <c r="V24" s="223"/>
       <c r="W24" s="297">
@@ -9270,7 +9271,7 @@
       </c>
       <c r="X24" s="223"/>
       <c r="Y24" s="296">
-        <v>97.707499999999996</v>
+        <v>97.742500000000007</v>
       </c>
       <c r="Z24" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
@@ -9301,7 +9302,7 @@
       </c>
       <c r="AM24" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL24,IborIndex,AK24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ6ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ6ConvAdj_Quote#1961</v>
       </c>
       <c r="AN24" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM24)</f>
@@ -9353,20 +9354,20 @@
         <v>42807</v>
       </c>
       <c r="Q25" s="221">
-        <v>97.474999999999994</v>
+        <v>97.51</v>
       </c>
       <c r="R25" s="221">
-        <v>97.48</v>
+        <v>97.515000000000001</v>
       </c>
       <c r="S25" s="221">
-        <v>97.48</v>
+        <v>97.51</v>
       </c>
       <c r="T25" s="221">
-        <v>97.504999999999995</v>
+        <v>97.52</v>
       </c>
       <c r="U25" s="225">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>97.477499999999992</v>
+        <v>97.512500000000003</v>
       </c>
       <c r="V25" s="223"/>
       <c r="W25" s="297">
@@ -9374,7 +9375,7 @@
       </c>
       <c r="X25" s="223"/>
       <c r="Y25" s="296">
-        <v>97.477499999999992</v>
+        <v>97.512500000000003</v>
       </c>
       <c r="Z25" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
@@ -9387,7 +9388,7 @@
       <c r="AE25" s="19"/>
       <c r="AF25" s="258">
         <f t="shared" si="1"/>
-        <v>5.0000000000238744E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH25" s="141"/>
       <c r="AI25" s="140">
@@ -9405,7 +9406,7 @@
       </c>
       <c r="AM25" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL25,IborIndex,AK25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>USDFUT3MH7ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH7ConvAdj_Quote#1961</v>
       </c>
       <c r="AN25" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM25)</f>
@@ -9457,20 +9458,20 @@
         <v>42905</v>
       </c>
       <c r="Q26" s="221">
-        <v>97.254999999999995</v>
+        <v>97.284999999999997</v>
       </c>
       <c r="R26" s="221">
-        <v>97.26</v>
+        <v>97.295000000000002</v>
       </c>
       <c r="S26" s="221">
-        <v>97.26</v>
+        <v>97.29</v>
       </c>
       <c r="T26" s="221">
-        <v>97.284999999999997</v>
+        <v>97.3</v>
       </c>
       <c r="U26" s="225">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
-        <v>97.257499999999993</v>
+        <v>97.289999999999992</v>
       </c>
       <c r="V26" s="223"/>
       <c r="W26" s="297">
@@ -9478,7 +9479,7 @@
       </c>
       <c r="X26" s="223"/>
       <c r="Y26" s="296">
-        <v>97.257499999999993</v>
+        <v>97.289999999999992</v>
       </c>
       <c r="Z26" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F26,Y26,Trigger)</f>
@@ -9491,7 +9492,7 @@
       <c r="AE26" s="19"/>
       <c r="AF26" s="258">
         <f t="shared" si="1"/>
-        <v>5.0000000000238744E-5</v>
+        <v>1.0000000000019326E-4</v>
       </c>
       <c r="AH26" s="141"/>
       <c r="AI26" s="140">
@@ -9509,7 +9510,7 @@
       </c>
       <c r="AM26" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL26,IborIndex,AK26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>USDFUT3MM7ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM7ConvAdj_Quote#1961</v>
       </c>
       <c r="AN26" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM26)</f>
@@ -9561,20 +9562,20 @@
         <v>42996</v>
       </c>
       <c r="Q27" s="221">
-        <v>97.06</v>
+        <v>97.094999999999999</v>
       </c>
       <c r="R27" s="221">
-        <v>97.064999999999998</v>
+        <v>97.1</v>
       </c>
       <c r="S27" s="221">
-        <v>97.064999999999998</v>
+        <v>97.094999999999999</v>
       </c>
       <c r="T27" s="221">
-        <v>97.094999999999999</v>
+        <v>97.11</v>
       </c>
       <c r="U27" s="225">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
-        <v>97.0625</v>
+        <v>97.097499999999997</v>
       </c>
       <c r="V27" s="223"/>
       <c r="W27" s="297">
@@ -9582,7 +9583,7 @@
       </c>
       <c r="X27" s="223"/>
       <c r="Y27" s="296">
-        <v>97.0625</v>
+        <v>97.097499999999997</v>
       </c>
       <c r="Z27" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F27,Y27,Trigger)</f>
@@ -9613,7 +9614,7 @@
       </c>
       <c r="AM27" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL27,IborIndex,AK27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>USDFUT3MU7ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU7ConvAdj_Quote#1961</v>
       </c>
       <c r="AN27" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM27)</f>
@@ -9665,20 +9666,20 @@
         <v>43087</v>
       </c>
       <c r="Q28" s="221">
-        <v>96.875</v>
+        <v>96.91</v>
       </c>
       <c r="R28" s="221">
-        <v>96.88</v>
+        <v>96.915000000000006</v>
       </c>
       <c r="S28" s="221">
-        <v>96.88</v>
+        <v>96.91</v>
       </c>
       <c r="T28" s="221">
-        <v>96.91</v>
+        <v>96.924999999999997</v>
       </c>
       <c r="U28" s="225">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
-        <v>96.877499999999998</v>
+        <v>96.912499999999994</v>
       </c>
       <c r="V28" s="223"/>
       <c r="W28" s="297">
@@ -9686,7 +9687,7 @@
       </c>
       <c r="X28" s="223"/>
       <c r="Y28" s="296">
-        <v>96.877499999999998</v>
+        <v>96.912499999999994</v>
       </c>
       <c r="Z28" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28,Trigger)</f>
@@ -9699,7 +9700,7 @@
       <c r="AE28" s="19"/>
       <c r="AF28" s="258">
         <f t="shared" si="1"/>
-        <v>4.9999999999954527E-5</v>
+        <v>5.0000000000238744E-5</v>
       </c>
       <c r="AH28" s="141"/>
       <c r="AI28" s="140">
@@ -9717,7 +9718,7 @@
       </c>
       <c r="AM28" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL28,IborIndex,AK28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ7ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ7ConvAdj_Quote#1961</v>
       </c>
       <c r="AN28" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM28)</f>
@@ -9769,20 +9770,20 @@
         <v>43178</v>
       </c>
       <c r="Q29" s="221">
-        <v>96.715000000000003</v>
+        <v>96.75</v>
       </c>
       <c r="R29" s="221">
-        <v>96.724999999999994</v>
+        <v>96.754999999999995</v>
       </c>
       <c r="S29" s="221">
-        <v>96.724999999999994</v>
+        <v>96.75</v>
       </c>
       <c r="T29" s="221">
-        <v>96.754999999999995</v>
+        <v>96.77</v>
       </c>
       <c r="U29" s="225">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
-        <v>96.72</v>
+        <v>96.752499999999998</v>
       </c>
       <c r="V29" s="223"/>
       <c r="W29" s="297">
@@ -9790,7 +9791,7 @@
       </c>
       <c r="X29" s="223"/>
       <c r="Y29" s="296">
-        <v>96.72</v>
+        <v>96.752499999999998</v>
       </c>
       <c r="Z29" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F29,Y29,Trigger)</f>
@@ -9803,7 +9804,7 @@
       <c r="AE29" s="19"/>
       <c r="AF29" s="258">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH29" s="141"/>
       <c r="AI29" s="140">
@@ -9821,7 +9822,7 @@
       </c>
       <c r="AM29" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL29,IborIndex,AK29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>USDFUT3MH8ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH8ConvAdj_Quote#1961</v>
       </c>
       <c r="AN29" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM29)</f>
@@ -9873,20 +9874,20 @@
         <v>43269</v>
       </c>
       <c r="Q30" s="221">
-        <v>96.57</v>
+        <v>96.605000000000004</v>
       </c>
       <c r="R30" s="221">
-        <v>96.575000000000003</v>
+        <v>96.61</v>
       </c>
       <c r="S30" s="221">
-        <v>96.57</v>
+        <v>96.605000000000004</v>
       </c>
       <c r="T30" s="221">
-        <v>96.605000000000004</v>
+        <v>96.625</v>
       </c>
       <c r="U30" s="225">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
-        <v>96.572499999999991</v>
+        <v>96.607500000000002</v>
       </c>
       <c r="V30" s="223"/>
       <c r="W30" s="297">
@@ -9894,7 +9895,7 @@
       </c>
       <c r="X30" s="223"/>
       <c r="Y30" s="296">
-        <v>96.572499999999991</v>
+        <v>96.607500000000002</v>
       </c>
       <c r="Z30" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F30,Y30,Trigger)</f>
@@ -9907,7 +9908,7 @@
       <c r="AE30" s="19"/>
       <c r="AF30" s="258">
         <f t="shared" si="1"/>
-        <v>5.0000000000238744E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH30" s="141"/>
       <c r="AI30" s="140">
@@ -9925,7 +9926,7 @@
       </c>
       <c r="AM30" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL30,IborIndex,AK30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>USDFUT3MM8ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM8ConvAdj_Quote#1961</v>
       </c>
       <c r="AN30" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM30)</f>
@@ -9977,20 +9978,20 @@
         <v>43360</v>
       </c>
       <c r="Q31" s="221">
-        <v>96.44</v>
+        <v>96.474999999999994</v>
       </c>
       <c r="R31" s="221">
-        <v>96.444999999999993</v>
+        <v>96.484999999999999</v>
       </c>
       <c r="S31" s="221">
-        <v>96.44</v>
+        <v>96.48</v>
       </c>
       <c r="T31" s="221">
-        <v>96.474999999999994</v>
+        <v>96.5</v>
       </c>
       <c r="U31" s="225">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
-        <v>96.442499999999995</v>
+        <v>96.47999999999999</v>
       </c>
       <c r="V31" s="223"/>
       <c r="W31" s="297">
@@ -9998,7 +9999,7 @@
       </c>
       <c r="X31" s="223"/>
       <c r="Y31" s="296">
-        <v>96.442499999999995</v>
+        <v>96.47999999999999</v>
       </c>
       <c r="Z31" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31,Trigger)</f>
@@ -10011,7 +10012,7 @@
       <c r="AE31" s="19"/>
       <c r="AF31" s="258">
         <f t="shared" si="1"/>
-        <v>4.9999999999954527E-5</v>
+        <v>1.0000000000019326E-4</v>
       </c>
       <c r="AH31" s="141"/>
       <c r="AI31" s="140">
@@ -10029,7 +10030,7 @@
       </c>
       <c r="AM31" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL31,IborIndex,AK31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>USDFUT3MU8ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU8ConvAdj_Quote#1961</v>
       </c>
       <c r="AN31" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM31)</f>
@@ -10081,20 +10082,20 @@
         <v>43451</v>
       </c>
       <c r="Q32" s="221">
-        <v>96.32</v>
+        <v>96.36</v>
       </c>
       <c r="R32" s="221">
-        <v>96.33</v>
+        <v>96.37</v>
       </c>
       <c r="S32" s="221">
-        <v>96.33</v>
+        <v>96.364999999999995</v>
       </c>
       <c r="T32" s="221">
-        <v>96.36</v>
+        <v>96.385000000000005</v>
       </c>
       <c r="U32" s="225">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
-        <v>96.324999999999989</v>
+        <v>96.365000000000009</v>
       </c>
       <c r="V32" s="223"/>
       <c r="W32" s="297">
@@ -10102,7 +10103,7 @@
       </c>
       <c r="X32" s="223"/>
       <c r="Y32" s="296">
-        <v>96.324999999999989</v>
+        <v>96.365000000000009</v>
       </c>
       <c r="Z32" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F32,Y32,Trigger)</f>
@@ -10115,7 +10116,7 @@
       <c r="AE32" s="19"/>
       <c r="AF32" s="258">
         <f t="shared" si="1"/>
-        <v>1.0000000000019326E-4</v>
+        <v>9.9999999999909054E-5</v>
       </c>
       <c r="AH32" s="141"/>
       <c r="AI32" s="140">
@@ -10133,7 +10134,7 @@
       </c>
       <c r="AM32" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL32,IborIndex,AK32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ8ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ8ConvAdj_Quote#1961</v>
       </c>
       <c r="AN32" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM32)</f>
@@ -10185,20 +10186,20 @@
         <v>43542</v>
       </c>
       <c r="Q33" s="221">
-        <v>96.22</v>
+        <v>96.265000000000001</v>
       </c>
       <c r="R33" s="221">
-        <v>96.23</v>
+        <v>96.27</v>
       </c>
       <c r="S33" s="221">
-        <v>96.22</v>
+        <v>96.265000000000001</v>
       </c>
       <c r="T33" s="221">
-        <v>96.26</v>
+        <v>96.284999999999997</v>
       </c>
       <c r="U33" s="225">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
-        <v>96.224999999999994</v>
+        <v>96.267499999999998</v>
       </c>
       <c r="V33" s="223"/>
       <c r="W33" s="297">
@@ -10206,11 +10207,11 @@
       </c>
       <c r="X33" s="223"/>
       <c r="Y33" s="296">
-        <v>96.224999999999994</v>
+        <v>96.267499999999998</v>
       </c>
       <c r="Z33" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33,Trigger)</f>
-        <v>2.4999999999977263E-3</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="42"/>
       <c r="AB33" s="19"/>
@@ -10219,7 +10220,7 @@
       <c r="AE33" s="19"/>
       <c r="AF33" s="258">
         <f t="shared" si="1"/>
-        <v>1.0000000000019326E-4</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH33" s="141"/>
       <c r="AI33" s="140">
@@ -10237,7 +10238,7 @@
       </c>
       <c r="AM33" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL33,IborIndex,AK33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>USDFUT3MH9ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH9ConvAdj_Quote#1961</v>
       </c>
       <c r="AN33" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM33)</f>
@@ -10289,20 +10290,20 @@
         <v>43633</v>
       </c>
       <c r="Q34" s="221">
-        <v>96.13</v>
+        <v>96.174999999999997</v>
       </c>
       <c r="R34" s="221">
-        <v>96.135000000000005</v>
+        <v>96.18</v>
       </c>
       <c r="S34" s="221">
-        <v>96.13</v>
+        <v>96.18</v>
       </c>
       <c r="T34" s="221">
-        <v>96.165000000000006</v>
+        <v>96.194999999999993</v>
       </c>
       <c r="U34" s="225">
         <f>_xll.qlMidSafe($Q34,$R34)</f>
-        <v>96.132499999999993</v>
+        <v>96.177500000000009</v>
       </c>
       <c r="V34" s="223"/>
       <c r="W34" s="297">
@@ -10310,7 +10311,7 @@
       </c>
       <c r="X34" s="223"/>
       <c r="Y34" s="296">
-        <v>96.132499999999993</v>
+        <v>96.177500000000009</v>
       </c>
       <c r="Z34" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F34,Y34,Trigger)</f>
@@ -10323,7 +10324,7 @@
       <c r="AE34" s="19"/>
       <c r="AF34" s="258">
         <f t="shared" si="1"/>
-        <v>5.0000000000238744E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH34" s="141"/>
       <c r="AI34" s="140">
@@ -10341,7 +10342,7 @@
       </c>
       <c r="AM34" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL34,IborIndex,AK34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>USDFUT3MM9ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM9ConvAdj_Quote#1961</v>
       </c>
       <c r="AN34" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM34)</f>
@@ -10393,20 +10394,20 @@
         <v>43724</v>
       </c>
       <c r="Q35" s="221">
-        <v>96.045000000000002</v>
+        <v>96.09</v>
       </c>
       <c r="R35" s="221">
-        <v>96.05</v>
+        <v>96.1</v>
       </c>
       <c r="S35" s="221">
-        <v>96.05</v>
+        <v>96.105000000000004</v>
       </c>
       <c r="T35" s="221">
-        <v>96.08</v>
+        <v>96.114999999999995</v>
       </c>
       <c r="U35" s="225">
         <f>_xll.qlMidSafe($Q35,$R35)</f>
-        <v>96.047499999999999</v>
+        <v>96.094999999999999</v>
       </c>
       <c r="V35" s="223"/>
       <c r="W35" s="297">
@@ -10414,7 +10415,7 @@
       </c>
       <c r="X35" s="223"/>
       <c r="Y35" s="296">
-        <v>96.047499999999999</v>
+        <v>96.094999999999999</v>
       </c>
       <c r="Z35" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35,Trigger)</f>
@@ -10427,7 +10428,7 @@
       <c r="AE35" s="19"/>
       <c r="AF35" s="258">
         <f t="shared" si="1"/>
-        <v>4.9999999999954527E-5</v>
+        <v>9.9999999999909054E-5</v>
       </c>
       <c r="AH35" s="141"/>
       <c r="AI35" s="140">
@@ -10445,7 +10446,7 @@
       </c>
       <c r="AM35" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL35,IborIndex,AK35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>USDFUT3MU9ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU9ConvAdj_Quote#1961</v>
       </c>
       <c r="AN35" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM35)</f>
@@ -10497,20 +10498,20 @@
         <v>43815</v>
       </c>
       <c r="Q36" s="221">
-        <v>95.96</v>
+        <v>96.015000000000001</v>
       </c>
       <c r="R36" s="221">
-        <v>95.97</v>
+        <v>96.02</v>
       </c>
       <c r="S36" s="221">
-        <v>95.965000000000003</v>
+        <v>0</v>
       </c>
       <c r="T36" s="221">
-        <v>95.995000000000005</v>
+        <v>96.034999999999997</v>
       </c>
       <c r="U36" s="225">
         <f>_xll.qlMidSafe($Q36,$R36)</f>
-        <v>95.965000000000003</v>
+        <v>96.017499999999998</v>
       </c>
       <c r="V36" s="223"/>
       <c r="W36" s="297">
@@ -10518,7 +10519,7 @@
       </c>
       <c r="X36" s="223"/>
       <c r="Y36" s="296">
-        <v>95.965000000000003</v>
+        <v>96.017499999999998</v>
       </c>
       <c r="Z36" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F36,Y36,Trigger)</f>
@@ -10531,7 +10532,7 @@
       <c r="AE36" s="19"/>
       <c r="AF36" s="258">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH36" s="141"/>
       <c r="AI36" s="140">
@@ -10549,7 +10550,7 @@
       </c>
       <c r="AM36" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL36,IborIndex,AK36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ9ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ9ConvAdj_Quote#1961</v>
       </c>
       <c r="AN36" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM36)</f>
@@ -10601,20 +10602,20 @@
         <v>43906</v>
       </c>
       <c r="Q37" s="221">
-        <v>95.894999999999996</v>
+        <v>95.95</v>
       </c>
       <c r="R37" s="221">
-        <v>95.905000000000001</v>
+        <v>95.96</v>
       </c>
       <c r="S37" s="221">
-        <v>95.885000000000005</v>
+        <v>0</v>
       </c>
       <c r="T37" s="221">
-        <v>95.93</v>
+        <v>95.97</v>
       </c>
       <c r="U37" s="225">
         <f>_xll.qlMidSafe($Q37,$R37)</f>
-        <v>95.9</v>
+        <v>95.954999999999998</v>
       </c>
       <c r="V37" s="223"/>
       <c r="W37" s="297">
@@ -10622,7 +10623,7 @@
       </c>
       <c r="X37" s="223"/>
       <c r="Y37" s="296">
-        <v>95.9</v>
+        <v>95.954999999999998</v>
       </c>
       <c r="Z37" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F37,Y37,Trigger)</f>
@@ -10653,7 +10654,7 @@
       </c>
       <c r="AM37" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL37,IborIndex,AK37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>USDFUT3MH0ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH0ConvAdj_Quote#1961</v>
       </c>
       <c r="AN37" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM37)</f>
@@ -10705,20 +10706,20 @@
         <v>43997</v>
       </c>
       <c r="Q38" s="221">
-        <v>95.84</v>
+        <v>95.89</v>
       </c>
       <c r="R38" s="221">
-        <v>95.85</v>
+        <v>95.905000000000001</v>
       </c>
       <c r="S38" s="221">
-        <v>95.855000000000004</v>
+        <v>0</v>
       </c>
       <c r="T38" s="221">
-        <v>95.87</v>
+        <v>95.915000000000006</v>
       </c>
       <c r="U38" s="225">
         <f>_xll.qlMidSafe($Q38,$R38)</f>
-        <v>95.844999999999999</v>
+        <v>95.897500000000008</v>
       </c>
       <c r="V38" s="223"/>
       <c r="W38" s="297">
@@ -10726,11 +10727,11 @@
       </c>
       <c r="X38" s="223"/>
       <c r="Y38" s="296">
-        <v>95.844999999999999</v>
+        <v>95.897500000000008</v>
       </c>
       <c r="Z38" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38,Trigger)</f>
-        <v>2.4999999999977263E-3</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="42"/>
       <c r="AB38" s="19"/>
@@ -10739,7 +10740,7 @@
       <c r="AE38" s="19"/>
       <c r="AF38" s="258">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>1.4999999999986357E-4</v>
       </c>
       <c r="AH38" s="141"/>
       <c r="AI38" s="140">
@@ -10757,7 +10758,7 @@
       </c>
       <c r="AM38" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL38,IborIndex,AK38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>USDFUT3MM0ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM0ConvAdj_Quote#1961</v>
       </c>
       <c r="AN38" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM38)</f>
@@ -10809,20 +10810,20 @@
         <v>44088</v>
       </c>
       <c r="Q39" s="221">
-        <v>95.784999999999997</v>
+        <v>95.84</v>
       </c>
       <c r="R39" s="221">
-        <v>95.795000000000002</v>
+        <v>95.864999999999995</v>
       </c>
       <c r="S39" s="221">
-        <v>95.79</v>
+        <v>0</v>
       </c>
       <c r="T39" s="221">
-        <v>95.82</v>
+        <v>95.864999999999995</v>
       </c>
       <c r="U39" s="225">
         <f>_xll.qlMidSafe($Q39,$R39)</f>
-        <v>95.789999999999992</v>
+        <v>95.852499999999992</v>
       </c>
       <c r="V39" s="223"/>
       <c r="W39" s="297">
@@ -10830,11 +10831,11 @@
       </c>
       <c r="X39" s="223"/>
       <c r="Y39" s="296">
-        <v>95.789999999999992</v>
+        <v>95.852499999999992</v>
       </c>
       <c r="Z39" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F39,Y39,Trigger)</f>
-        <v>0</v>
+        <v>7.4999999999931788E-3</v>
       </c>
       <c r="AA39" s="42"/>
       <c r="AB39" s="19"/>
@@ -10843,7 +10844,7 @@
       <c r="AE39" s="19"/>
       <c r="AF39" s="258">
         <f t="shared" si="1"/>
-        <v>1.0000000000019326E-4</v>
+        <v>2.5000000000005682E-4</v>
       </c>
       <c r="AH39" s="141"/>
       <c r="AI39" s="140">
@@ -10861,7 +10862,7 @@
       </c>
       <c r="AM39" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL39,IborIndex,AK39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>USDFUT3MU0ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU0ConvAdj_Quote#1961</v>
       </c>
       <c r="AN39" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM39)</f>
@@ -10913,20 +10914,20 @@
         <v>44179</v>
       </c>
       <c r="Q40" s="221">
-        <v>95.73</v>
+        <v>95.784999999999997</v>
       </c>
       <c r="R40" s="221">
-        <v>95.745000000000005</v>
+        <v>95.81</v>
       </c>
       <c r="S40" s="221">
         <v>0</v>
       </c>
       <c r="T40" s="221">
-        <v>95.765000000000001</v>
+        <v>95.81</v>
       </c>
       <c r="U40" s="225">
         <f>_xll.qlMidSafe($Q40,$R40)</f>
-        <v>95.737500000000011</v>
+        <v>95.797499999999999</v>
       </c>
       <c r="V40" s="223"/>
       <c r="W40" s="297">
@@ -10934,11 +10935,11 @@
       </c>
       <c r="X40" s="223"/>
       <c r="Y40" s="296">
-        <v>95.737500000000011</v>
+        <v>95.797499999999999</v>
       </c>
       <c r="Z40" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000096634E-3</v>
       </c>
       <c r="AA40" s="42"/>
       <c r="AB40" s="19"/>
@@ -10947,7 +10948,7 @@
       <c r="AE40" s="19"/>
       <c r="AF40" s="258">
         <f t="shared" si="1"/>
-        <v>1.4999999999986357E-4</v>
+        <v>2.5000000000005682E-4</v>
       </c>
       <c r="AH40" s="141"/>
       <c r="AI40" s="140">
@@ -10965,7 +10966,7 @@
       </c>
       <c r="AM40" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL40,IborIndex,AK40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ0ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ0ConvAdj_Quote#1961</v>
       </c>
       <c r="AN40" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM40)</f>
@@ -11017,20 +11018,20 @@
         <v>44270</v>
       </c>
       <c r="Q41" s="221">
-        <v>95.694999999999993</v>
+        <v>95.745000000000005</v>
       </c>
       <c r="R41" s="221">
-        <v>95.734999999999999</v>
+        <v>95.775000000000006</v>
       </c>
       <c r="S41" s="221">
-        <v>95.694999999999993</v>
+        <v>0</v>
       </c>
       <c r="T41" s="221">
-        <v>95.73</v>
+        <v>95.775000000000006</v>
       </c>
       <c r="U41" s="225">
         <f>_xll.qlMidSafe($Q41,$R41)</f>
-        <v>95.715000000000003</v>
+        <v>95.76</v>
       </c>
       <c r="V41" s="223"/>
       <c r="W41" s="297">
@@ -11038,11 +11039,11 @@
       </c>
       <c r="X41" s="223"/>
       <c r="Y41" s="296">
-        <v>95.715000000000003</v>
+        <v>95.76</v>
       </c>
       <c r="Z41" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F41,Y41,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000119371E-3</v>
       </c>
       <c r="AA41" s="42"/>
       <c r="AB41" s="19"/>
@@ -11051,7 +11052,7 @@
       <c r="AE41" s="19"/>
       <c r="AF41" s="258">
         <f t="shared" si="1"/>
-        <v>3.9999999999992044E-4</v>
+        <v>3.0000000000001136E-4</v>
       </c>
       <c r="AH41" s="141"/>
       <c r="AI41" s="140">
@@ -11069,7 +11070,7 @@
       </c>
       <c r="AM41" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL41,IborIndex,AK41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>USDFUT3MH1ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH1ConvAdj_Quote#1961</v>
       </c>
       <c r="AN41" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM41)</f>
@@ -11121,20 +11122,20 @@
         <v>44361</v>
       </c>
       <c r="Q42" s="221">
-        <v>95.644999999999996</v>
+        <v>95.68</v>
       </c>
       <c r="R42" s="221">
-        <v>95.7</v>
+        <v>95.75</v>
       </c>
       <c r="S42" s="221">
-        <v>95.655000000000001</v>
+        <v>0</v>
       </c>
       <c r="T42" s="221">
-        <v>95.69</v>
+        <v>95.734999999999999</v>
       </c>
       <c r="U42" s="225">
         <f>_xll.qlMidSafe($Q42,$R42)</f>
-        <v>95.672499999999999</v>
+        <v>95.715000000000003</v>
       </c>
       <c r="V42" s="223"/>
       <c r="W42" s="297">
@@ -11142,7 +11143,7 @@
       </c>
       <c r="X42" s="223"/>
       <c r="Y42" s="296">
-        <v>95.672499999999999</v>
+        <v>95.715000000000003</v>
       </c>
       <c r="Z42" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F42,Y42,Trigger)</f>
@@ -11155,7 +11156,7 @@
       <c r="AE42" s="19"/>
       <c r="AF42" s="258">
         <f t="shared" si="1"/>
-        <v>5.5000000000006823E-4</v>
+        <v>6.999999999999318E-4</v>
       </c>
       <c r="AH42" s="141"/>
       <c r="AI42" s="140">
@@ -11173,7 +11174,7 @@
       </c>
       <c r="AM42" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL42,IborIndex,AK42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>USDFUT3MM1ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM1ConvAdj_Quote#1961</v>
       </c>
       <c r="AN42" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM42)</f>
@@ -11225,20 +11226,20 @@
         <v>44452</v>
       </c>
       <c r="Q43" s="221">
-        <v>95.594999999999999</v>
+        <v>95.65</v>
       </c>
       <c r="R43" s="221">
-        <v>95.665000000000006</v>
+        <v>95.72</v>
       </c>
       <c r="S43" s="221">
         <v>0</v>
       </c>
       <c r="T43" s="221">
-        <v>95.66</v>
+        <v>95.704999999999998</v>
       </c>
       <c r="U43" s="225">
         <f>_xll.qlMidSafe($Q43,$R43)</f>
-        <v>95.63</v>
+        <v>95.685000000000002</v>
       </c>
       <c r="V43" s="223"/>
       <c r="W43" s="297">
@@ -11246,11 +11247,11 @@
       </c>
       <c r="X43" s="223"/>
       <c r="Y43" s="296">
-        <v>95.63</v>
+        <v>95.685000000000002</v>
       </c>
       <c r="Z43" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F43,Y43,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="AA43" s="42"/>
       <c r="AB43" s="19"/>
@@ -11259,7 +11260,7 @@
       <c r="AE43" s="19"/>
       <c r="AF43" s="258">
         <f t="shared" si="1"/>
-        <v>7.0000000000021597E-4</v>
+        <v>6.999999999999318E-4</v>
       </c>
       <c r="AH43" s="141"/>
       <c r="AI43" s="140">
@@ -11277,7 +11278,7 @@
       </c>
       <c r="AM43" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL43,IborIndex,AK43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>USDFUT3MU1ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU1ConvAdj_Quote#1961</v>
       </c>
       <c r="AN43" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM43)</f>
@@ -11329,20 +11330,20 @@
         <v>44543</v>
       </c>
       <c r="Q44" s="221">
-        <v>95.58</v>
+        <v>95.605000000000004</v>
       </c>
       <c r="R44" s="221">
-        <v>95.62</v>
+        <v>95.685000000000002</v>
       </c>
       <c r="S44" s="221">
         <v>0</v>
       </c>
       <c r="T44" s="221">
-        <v>95.62</v>
+        <v>95.665000000000006</v>
       </c>
       <c r="U44" s="225">
         <f>_xll.qlMidSafe($Q44,$R44)</f>
-        <v>95.6</v>
+        <v>95.64500000000001</v>
       </c>
       <c r="V44" s="223"/>
       <c r="W44" s="297">
@@ -11350,11 +11351,11 @@
       </c>
       <c r="X44" s="223"/>
       <c r="Y44" s="296">
-        <v>95.6</v>
+        <v>95.64500000000001</v>
       </c>
       <c r="Z44" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F44,Y44,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="AA44" s="42"/>
       <c r="AB44" s="19"/>
@@ -11363,7 +11364,7 @@
       <c r="AE44" s="19"/>
       <c r="AF44" s="258">
         <f t="shared" si="1"/>
-        <v>4.0000000000020466E-4</v>
+        <v>7.9999999999984088E-4</v>
       </c>
       <c r="AH44" s="141"/>
       <c r="AI44" s="140">
@@ -11381,7 +11382,7 @@
       </c>
       <c r="AM44" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL44,IborIndex,AK44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>USDFUT3MZ1ConvAdj_Quote#0937</v>
+        <v>USDFUT3MZ1ConvAdj_Quote#1961</v>
       </c>
       <c r="AN44" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM44)</f>
@@ -11433,20 +11434,20 @@
         <v>44634</v>
       </c>
       <c r="Q45" s="221">
-        <v>95.525000000000006</v>
+        <v>95.575000000000003</v>
       </c>
       <c r="R45" s="221">
-        <v>95.61</v>
+        <v>95.665000000000006</v>
       </c>
       <c r="S45" s="221">
         <v>0</v>
       </c>
       <c r="T45" s="221">
-        <v>95.594999999999999</v>
+        <v>95.64</v>
       </c>
       <c r="U45" s="225">
         <f>_xll.qlMidSafe($Q45,$R45)</f>
-        <v>95.567499999999995</v>
+        <v>95.62</v>
       </c>
       <c r="V45" s="223"/>
       <c r="W45" s="297">
@@ -11454,7 +11455,7 @@
       </c>
       <c r="X45" s="223"/>
       <c r="Y45" s="296">
-        <v>95.567499999999995</v>
+        <v>95.62</v>
       </c>
       <c r="Z45" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F45,Y45,Trigger)</f>
@@ -11467,7 +11468,7 @@
       <c r="AE45" s="19"/>
       <c r="AF45" s="258">
         <f t="shared" si="1"/>
-        <v>8.5000000000007953E-4</v>
+        <v>9.0000000000003413E-4</v>
       </c>
       <c r="AH45" s="141"/>
       <c r="AI45" s="140">
@@ -11485,7 +11486,7 @@
       </c>
       <c r="AM45" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL45,IborIndex,AK45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>USDFUT3MH2ConvAdj_Quote#0937</v>
+        <v>USDFUT3MH2ConvAdj_Quote#1961</v>
       </c>
       <c r="AN45" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM45)</f>
@@ -11537,20 +11538,20 @@
         <v>44725</v>
       </c>
       <c r="Q46" s="221">
-        <v>95.5</v>
+        <v>95.55</v>
       </c>
       <c r="R46" s="221">
-        <v>95.594999999999999</v>
+        <v>95.644999999999996</v>
       </c>
       <c r="S46" s="221">
         <v>0</v>
       </c>
       <c r="T46" s="221">
-        <v>95.57</v>
+        <v>95.614999999999995</v>
       </c>
       <c r="U46" s="225">
         <f>_xll.qlMidSafe($Q46,$R46)</f>
-        <v>95.547499999999999</v>
+        <v>95.597499999999997</v>
       </c>
       <c r="V46" s="223"/>
       <c r="W46" s="297">
@@ -11558,7 +11559,7 @@
       </c>
       <c r="X46" s="223"/>
       <c r="Y46" s="296">
-        <v>95.547499999999999</v>
+        <v>95.597499999999997</v>
       </c>
       <c r="Z46" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F46,Y46,Trigger)</f>
@@ -11589,7 +11590,7 @@
       </c>
       <c r="AM46" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL46,IborIndex,AK46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>USDFUT3MM2ConvAdj_Quote#0937</v>
+        <v>USDFUT3MM2ConvAdj_Quote#1961</v>
       </c>
       <c r="AN46" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM46)</f>
@@ -11641,20 +11642,20 @@
         <v>44823</v>
       </c>
       <c r="Q47" s="234">
-        <v>95.48</v>
+        <v>95.525000000000006</v>
       </c>
       <c r="R47" s="234">
-        <v>95.57</v>
+        <v>95.625</v>
       </c>
       <c r="S47" s="234">
         <v>0</v>
       </c>
       <c r="T47" s="234">
-        <v>95.545000000000002</v>
+        <v>95.59</v>
       </c>
       <c r="U47" s="237">
         <f>_xll.qlMidSafe($Q47,$R47)</f>
-        <v>95.525000000000006</v>
+        <v>95.575000000000003</v>
       </c>
       <c r="V47" s="223"/>
       <c r="W47" s="290">
@@ -11662,11 +11663,11 @@
       </c>
       <c r="X47" s="223"/>
       <c r="Y47" s="289">
-        <v>95.525000000000006</v>
+        <v>95.575000000000003</v>
       </c>
       <c r="Z47" s="237">
         <f>_xll.qlSimpleQuoteSetValue(F47,Y47,Trigger)</f>
-        <v>5.0000000000096634E-3</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="42"/>
       <c r="AB47" s="19"/>
@@ -11675,7 +11676,7 @@
       <c r="AE47" s="19"/>
       <c r="AF47" s="258">
         <f t="shared" si="1"/>
-        <v>8.9999999999974985E-4</v>
+        <v>9.9999999999994321E-4</v>
       </c>
       <c r="AH47" s="141"/>
       <c r="AI47" s="140">
@@ -11693,7 +11694,7 @@
       </c>
       <c r="AM47" s="213" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AL47,IborIndex,AK47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>USDFUT3MU2ConvAdj_Quote#0937</v>
+        <v>USDFUT3MU2ConvAdj_Quote#1961</v>
       </c>
       <c r="AN47" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(AM47)</f>
@@ -14927,7 +14928,7 @@
       <c r="P3" s="131"/>
       <c r="Q3" s="253">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="R3" s="42"/>
       <c r="S3" s="19"/>
@@ -14955,7 +14956,7 @@
       <c r="G4" s="256"/>
       <c r="H4" s="309" t="str">
         <f>_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:39:39</v>
       </c>
       <c r="I4" s="336" t="s">
         <v>207</v>
@@ -15003,7 +15004,7 @@
         <v>US4Y3LATM=ICAP</v>
       </c>
       <c r="I5" s="334">
-        <v>52.37</v>
+        <v>52.52</v>
       </c>
       <c r="J5" s="327"/>
       <c r="K5" s="333" t="s">
@@ -15282,7 +15283,7 @@
       <c r="X3" s="131"/>
       <c r="Y3" s="253">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>803</v>
+        <v>1093</v>
       </c>
       <c r="Z3" s="189"/>
     </row>
@@ -15311,7 +15312,7 @@
       <c r="N4" s="129"/>
       <c r="O4" s="317" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:39:28</v>
       </c>
       <c r="P4" s="314" t="s">
         <v>207</v>
@@ -15380,10 +15381,10 @@
         <v>USDSWOIS=TTKL</v>
       </c>
       <c r="P5" s="241">
-        <v>7.1999999999999995E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="Q5" s="241">
-        <v>0.10199999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="R5" s="241">
         <v>0</v>
@@ -15393,7 +15394,7 @@
       </c>
       <c r="T5" s="243">
         <f>_xll.qlMidEquivalent($P5,$Q5,$R5,$S5)</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.106</v>
       </c>
       <c r="U5" s="223"/>
       <c r="V5" s="242">
@@ -15402,7 +15403,7 @@
       <c r="W5" s="223"/>
       <c r="X5" s="303">
         <f t="array" ref="X5:X58">QuoteLive</f>
-        <v>8.6999999999999994E-2</v>
+        <v>0.106</v>
       </c>
       <c r="Y5" s="240">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
@@ -15448,10 +15449,10 @@
         <v>USD2WOIS=TTKL</v>
       </c>
       <c r="P6" s="221">
-        <v>7.4999999999999997E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="Q6" s="221">
-        <v>0.105</v>
+        <v>0.114</v>
       </c>
       <c r="R6" s="221">
         <v>0</v>
@@ -15461,7 +15462,7 @@
       </c>
       <c r="T6" s="225">
         <f>_xll.qlMidEquivalent($P6,$Q6,$R6,$S6)</f>
-        <v>0.09</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="U6" s="223"/>
       <c r="V6" s="224">
@@ -15469,7 +15470,7 @@
       </c>
       <c r="W6" s="223"/>
       <c r="X6" s="296">
-        <v>0.09</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Y6" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
@@ -15515,10 +15516,10 @@
         <v>USD3WOIS=TTKL</v>
       </c>
       <c r="P7" s="221">
-        <v>7.5999999999999998E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q7" s="221">
-        <v>0.106</v>
+        <v>0.112</v>
       </c>
       <c r="R7" s="221">
         <v>0</v>
@@ -15528,7 +15529,7 @@
       </c>
       <c r="T7" s="225">
         <f>_xll.qlMidEquivalent($P7,$Q7,$R7,$S7)</f>
-        <v>9.0999999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="U7" s="223"/>
       <c r="V7" s="224">
@@ -15536,7 +15537,7 @@
       </c>
       <c r="W7" s="223"/>
       <c r="X7" s="296">
-        <v>9.0999999999999998E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="Y7" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
@@ -15582,10 +15583,10 @@
         <v>USD1MOIS=TTKL</v>
       </c>
       <c r="P8" s="221">
-        <v>7.5999999999999998E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q8" s="221">
-        <v>0.106</v>
+        <v>0.111</v>
       </c>
       <c r="R8" s="221">
         <v>0</v>
@@ -15595,7 +15596,7 @@
       </c>
       <c r="T8" s="225">
         <f>_xll.qlMidEquivalent($P8,$Q8,$R8,$S8)</f>
-        <v>9.0999999999999998E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="U8" s="223"/>
       <c r="V8" s="224">
@@ -15603,7 +15604,7 @@
       </c>
       <c r="W8" s="223"/>
       <c r="X8" s="296">
-        <v>9.0999999999999998E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Y8" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
@@ -15649,10 +15650,10 @@
         <v>USD2MOIS=TTKL</v>
       </c>
       <c r="P9" s="221">
-        <v>7.8E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q9" s="221">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
       <c r="R9" s="221">
         <v>0</v>
@@ -15662,7 +15663,7 @@
       </c>
       <c r="T9" s="225">
         <f>_xll.qlMidEquivalent($P9,$Q9,$R9,$S9)</f>
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U9" s="223"/>
       <c r="V9" s="224">
@@ -15670,7 +15671,7 @@
       </c>
       <c r="W9" s="223"/>
       <c r="X9" s="296">
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y9" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
@@ -15716,10 +15717,10 @@
         <v>USD3MOIS=TTKL</v>
       </c>
       <c r="P10" s="221">
-        <v>7.8E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q10" s="221">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
       <c r="R10" s="221">
         <v>0</v>
@@ -15729,7 +15730,7 @@
       </c>
       <c r="T10" s="225">
         <f>_xll.qlMidEquivalent($P10,$Q10,$R10,$S10)</f>
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U10" s="223"/>
       <c r="V10" s="224">
@@ -15737,7 +15738,7 @@
       </c>
       <c r="W10" s="223"/>
       <c r="X10" s="296">
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y10" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
@@ -15783,10 +15784,10 @@
         <v>USD4MOIS=TTKL</v>
       </c>
       <c r="P11" s="221">
-        <v>8.1000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Q11" s="221">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="R11" s="221">
         <v>0</v>
@@ -15796,7 +15797,7 @@
       </c>
       <c r="T11" s="225">
         <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
-        <v>9.6000000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="U11" s="223"/>
       <c r="V11" s="224">
@@ -15804,7 +15805,7 @@
       </c>
       <c r="W11" s="223"/>
       <c r="X11" s="296">
-        <v>9.6000000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="Y11" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
@@ -15850,10 +15851,10 @@
         <v>USD5MOIS=TTKL</v>
       </c>
       <c r="P12" s="221">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Q12" s="221">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="R12" s="221">
         <v>0</v>
@@ -15863,7 +15864,7 @@
       </c>
       <c r="T12" s="225">
         <f>_xll.qlMidEquivalent($P12,$Q12,$R12,$S12)</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="U12" s="223"/>
       <c r="V12" s="224">
@@ -15871,7 +15872,7 @@
       </c>
       <c r="W12" s="223"/>
       <c r="X12" s="296">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Y12" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
@@ -15917,10 +15918,10 @@
         <v>USD6MOIS=TTKL</v>
       </c>
       <c r="P13" s="221">
-        <v>8.5999999999999993E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q13" s="221">
-        <v>0.11600000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="R13" s="221">
         <v>0</v>
@@ -15930,7 +15931,7 @@
       </c>
       <c r="T13" s="225">
         <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
-        <v>0.10100000000000001</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="U13" s="223"/>
       <c r="V13" s="224">
@@ -15938,7 +15939,7 @@
       </c>
       <c r="W13" s="223"/>
       <c r="X13" s="296">
-        <v>0.10100000000000001</v>
+        <v>0.10200000000000001</v>
       </c>
       <c r="Y13" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
@@ -15984,10 +15985,10 @@
         <v>USD7MOIS=TTKL</v>
       </c>
       <c r="P14" s="221">
-        <v>8.8999999999999996E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Q14" s="221">
-        <v>0.11899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="R14" s="221">
         <v>0</v>
@@ -15997,7 +15998,7 @@
       </c>
       <c r="T14" s="225">
         <f>_xll.qlMidEquivalent($P14,$Q14,$R14,$S14)</f>
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="U14" s="223"/>
       <c r="V14" s="224">
@@ -16005,7 +16006,7 @@
       </c>
       <c r="W14" s="223"/>
       <c r="X14" s="296">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="Y14" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F14,X14/100,Trigger)</f>
@@ -16051,10 +16052,10 @@
         <v>USD8MOIS=TTKL</v>
       </c>
       <c r="P15" s="221">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Q15" s="221">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="R15" s="221">
         <v>0</v>
@@ -16064,7 +16065,7 @@
       </c>
       <c r="T15" s="225">
         <f>_xll.qlMidEquivalent($P15,$Q15,$R15,$S15)</f>
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="U15" s="223"/>
       <c r="V15" s="224">
@@ -16072,7 +16073,7 @@
       </c>
       <c r="W15" s="223"/>
       <c r="X15" s="296">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="Y15" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F15,X15/100,Trigger)</f>
@@ -16118,10 +16119,10 @@
         <v>USD9MOIS=TTKL</v>
       </c>
       <c r="P16" s="221">
-        <v>9.6000000000000002E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="Q16" s="221">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="R16" s="221">
         <v>0</v>
@@ -16131,7 +16132,7 @@
       </c>
       <c r="T16" s="225">
         <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="U16" s="223"/>
       <c r="V16" s="224">
@@ -16139,7 +16140,7 @@
       </c>
       <c r="W16" s="223"/>
       <c r="X16" s="296">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="Y16" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
@@ -16185,10 +16186,10 @@
         <v>USD10MOIS=TTKL</v>
       </c>
       <c r="P17" s="221">
-        <v>0.10100000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q17" s="221">
-        <v>0.13100000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="R17" s="221">
         <v>0</v>
@@ -16198,7 +16199,7 @@
       </c>
       <c r="T17" s="225">
         <f>_xll.qlMidEquivalent($P17,$Q17,$R17,$S17)</f>
-        <v>0.11600000000000001</v>
+        <v>0.11699999999999999</v>
       </c>
       <c r="U17" s="223"/>
       <c r="V17" s="224">
@@ -16206,7 +16207,7 @@
       </c>
       <c r="W17" s="223"/>
       <c r="X17" s="296">
-        <v>0.11600000000000001</v>
+        <v>0.11699999999999999</v>
       </c>
       <c r="Y17" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F17,X17/100,Trigger)</f>
@@ -16252,10 +16253,10 @@
         <v>USD11MOIS=TTKL</v>
       </c>
       <c r="P18" s="221">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="Q18" s="221">
-        <v>0.13700000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="R18" s="221">
         <v>0</v>
@@ -16265,7 +16266,7 @@
       </c>
       <c r="T18" s="225">
         <f>_xll.qlMidEquivalent($P18,$Q18,$R18,$S18)</f>
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="U18" s="223"/>
       <c r="V18" s="224">
@@ -16273,7 +16274,7 @@
       </c>
       <c r="W18" s="223"/>
       <c r="X18" s="296">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="Y18" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F18,X18/100,Trigger)</f>
@@ -16319,10 +16320,10 @@
         <v>USD1YOIS=TTKL</v>
       </c>
       <c r="P19" s="221">
-        <v>0.114</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="Q19" s="221">
-        <v>0.14399999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="R19" s="221">
         <v>0</v>
@@ -16332,7 +16333,7 @@
       </c>
       <c r="T19" s="225">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>0.129</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="U19" s="223"/>
       <c r="V19" s="224">
@@ -16340,7 +16341,7 @@
       </c>
       <c r="W19" s="223"/>
       <c r="X19" s="296">
-        <v>0.129</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="Y19" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
@@ -16386,10 +16387,10 @@
         <v>USD13MOIS=TTKL</v>
       </c>
       <c r="P20" s="221">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="Q20" s="221">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="R20" s="221">
         <v>0</v>
@@ -16399,7 +16400,7 @@
       </c>
       <c r="T20" s="225">
         <f>_xll.qlMidEquivalent($P20,$Q20,$R20,$S20)</f>
-        <v>0.13900000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U20" s="223"/>
       <c r="V20" s="224">
@@ -16407,7 +16408,7 @@
       </c>
       <c r="W20" s="223"/>
       <c r="X20" s="296">
-        <v>0.13900000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y20" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F20,X20/100,Trigger)</f>
@@ -16453,10 +16454,10 @@
         <v>USD14MOIS=TTKL</v>
       </c>
       <c r="P21" s="221">
-        <v>0.13600000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="Q21" s="221">
-        <v>0.16600000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="R21" s="221">
         <v>0</v>
@@ -16466,7 +16467,7 @@
       </c>
       <c r="T21" s="225">
         <f>_xll.qlMidEquivalent($P21,$Q21,$R21,$S21)</f>
-        <v>0.15100000000000002</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="U21" s="223"/>
       <c r="V21" s="224">
@@ -16474,7 +16475,7 @@
       </c>
       <c r="W21" s="223"/>
       <c r="X21" s="296">
-        <v>0.15100000000000002</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="Y21" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F21,X21/100,Trigger)</f>
@@ -16520,10 +16521,10 @@
         <v>USD15MOIS=TTKL</v>
       </c>
       <c r="P22" s="221">
-        <v>0.14899999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="Q22" s="221">
-        <v>0.17899999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="R22" s="221">
         <v>0</v>
@@ -16533,7 +16534,7 @@
       </c>
       <c r="T22" s="225">
         <f>_xll.qlMidEquivalent($P22,$Q22,$R22,$S22)</f>
-        <v>0.16399999999999998</v>
+        <v>0.16599999999999998</v>
       </c>
       <c r="U22" s="223"/>
       <c r="V22" s="224">
@@ -16541,7 +16542,7 @@
       </c>
       <c r="W22" s="223"/>
       <c r="X22" s="296">
-        <v>0.16399999999999998</v>
+        <v>0.16599999999999998</v>
       </c>
       <c r="Y22" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F22,X22/100,Trigger)</f>
@@ -16587,10 +16588,10 @@
         <v>USD16MOIS=TTKL</v>
       </c>
       <c r="P23" s="221">
-        <v>0.16700000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="Q23" s="221">
-        <v>0.19700000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="R23" s="221">
         <v>0</v>
@@ -16600,7 +16601,7 @@
       </c>
       <c r="T23" s="225">
         <f>_xll.qlMidEquivalent($P23,$Q23,$R23,$S23)</f>
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
       <c r="U23" s="223"/>
       <c r="V23" s="224">
@@ -16608,7 +16609,7 @@
       </c>
       <c r="W23" s="223"/>
       <c r="X23" s="296">
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
       <c r="Y23" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F23,X23/100,Trigger)</f>
@@ -16788,10 +16789,10 @@
         <v>USD19MOIS=TTKL</v>
       </c>
       <c r="P26" s="221">
-        <v>0.23300000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="Q26" s="221">
-        <v>0.26300000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="R26" s="221">
         <v>0</v>
@@ -16801,7 +16802,7 @@
       </c>
       <c r="T26" s="225">
         <f>_xll.qlMidEquivalent($P26,$Q26,$R26,$S26)</f>
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="U26" s="223"/>
       <c r="V26" s="224">
@@ -16809,7 +16810,7 @@
       </c>
       <c r="W26" s="223"/>
       <c r="X26" s="296">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="Y26" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F26,X26/100,Trigger)</f>
@@ -16855,10 +16856,10 @@
         <v>USD20MOIS=TTKL</v>
       </c>
       <c r="P27" s="221">
-        <v>0.255</v>
+        <v>0.254</v>
       </c>
       <c r="Q27" s="221">
-        <v>0.28499999999999998</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="R27" s="221">
         <v>0</v>
@@ -16868,7 +16869,7 @@
       </c>
       <c r="T27" s="225">
         <f>_xll.qlMidEquivalent($P27,$Q27,$R27,$S27)</f>
-        <v>0.27</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="U27" s="223"/>
       <c r="V27" s="224">
@@ -16876,7 +16877,7 @@
       </c>
       <c r="W27" s="223"/>
       <c r="X27" s="296">
-        <v>0.27</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="Y27" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F27,X27/100,Trigger)</f>
@@ -16922,10 +16923,10 @@
         <v>USD21MOIS=TTKL</v>
       </c>
       <c r="P28" s="221">
-        <v>0.28299999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q28" s="221">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="R28" s="221">
         <v>0</v>
@@ -16935,7 +16936,7 @@
       </c>
       <c r="T28" s="225">
         <f>_xll.qlMidEquivalent($P28,$Q28,$R28,$S28)</f>
-        <v>0.29799999999999999</v>
+        <v>0.29500000000000004</v>
       </c>
       <c r="U28" s="223"/>
       <c r="V28" s="224">
@@ -16943,7 +16944,7 @@
       </c>
       <c r="W28" s="223"/>
       <c r="X28" s="296">
-        <v>0.29799999999999999</v>
+        <v>0.29500000000000004</v>
       </c>
       <c r="Y28" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F28,X28/100,Trigger)</f>
@@ -16989,10 +16990,10 @@
         <v>USD22MOIS=TTKL</v>
       </c>
       <c r="P29" s="221">
-        <v>0.314</v>
+        <v>0.309</v>
       </c>
       <c r="Q29" s="221">
-        <v>0.34399999999999997</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="R29" s="221">
         <v>0</v>
@@ -17002,7 +17003,7 @@
       </c>
       <c r="T29" s="225">
         <f>_xll.qlMidEquivalent($P29,$Q29,$R29,$S29)</f>
-        <v>0.32899999999999996</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="U29" s="223"/>
       <c r="V29" s="224">
@@ -17010,7 +17011,7 @@
       </c>
       <c r="W29" s="223"/>
       <c r="X29" s="296">
-        <v>0.32899999999999996</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="Y29" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F29,X29/100,Trigger)</f>
@@ -17056,10 +17057,10 @@
         <v>USD23MOIS=TTKL</v>
       </c>
       <c r="P30" s="221">
-        <v>0.34300000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="Q30" s="221">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="R30" s="221">
         <v>0</v>
@@ -17069,7 +17070,7 @@
       </c>
       <c r="T30" s="225">
         <f>_xll.qlMidEquivalent($P30,$Q30,$R30,$S30)</f>
-        <v>0.35799999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="U30" s="223"/>
       <c r="V30" s="224">
@@ -17077,7 +17078,7 @@
       </c>
       <c r="W30" s="223"/>
       <c r="X30" s="296">
-        <v>0.35799999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="Y30" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F30,X30/100,Trigger)</f>
@@ -17123,10 +17124,10 @@
         <v>USD2YOIS=TTKL</v>
       </c>
       <c r="P31" s="221">
-        <v>0.376</v>
+        <v>0.37</v>
       </c>
       <c r="Q31" s="221">
-        <v>0.40600000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="R31" s="221">
         <v>0</v>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="T31" s="225">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>0.39100000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="U31" s="223"/>
       <c r="V31" s="224">
@@ -17144,7 +17145,7 @@
       </c>
       <c r="W31" s="223"/>
       <c r="X31" s="296">
-        <v>0.39100000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="Y31" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
@@ -17190,10 +17191,10 @@
         <v>USD27MOIS=TTKL</v>
       </c>
       <c r="P32" s="221">
-        <v>0.47099999999999997</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="Q32" s="221">
-        <v>0.52100000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="R32" s="221">
         <v>0</v>
@@ -17203,7 +17204,7 @@
       </c>
       <c r="T32" s="225">
         <f>_xll.qlMidEquivalent($P32,$Q32,$R32,$S32)</f>
-        <v>0.496</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="U32" s="223"/>
       <c r="V32" s="224">
@@ -17211,7 +17212,7 @@
       </c>
       <c r="W32" s="223"/>
       <c r="X32" s="296">
-        <v>0.496</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="Y32" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F32,X32/100,Trigger)</f>
@@ -17257,10 +17258,10 @@
         <v>USD30MOIS=TTKL</v>
       </c>
       <c r="P33" s="221">
-        <v>0.58299999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="Q33" s="221">
-        <v>0.63300000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="R33" s="221">
         <v>0</v>
@@ -17270,7 +17271,7 @@
       </c>
       <c r="T33" s="225">
         <f>_xll.qlMidEquivalent($P33,$Q33,$R33,$S33)</f>
-        <v>0.60799999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="U33" s="223"/>
       <c r="V33" s="224">
@@ -17278,7 +17279,7 @@
       </c>
       <c r="W33" s="223"/>
       <c r="X33" s="296">
-        <v>0.60799999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="Y33" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F33,X33/100,Trigger)</f>
@@ -17324,10 +17325,10 @@
         <v>USD33MOIS=TTKL</v>
       </c>
       <c r="P34" s="221">
-        <v>0.69899999999999995</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="Q34" s="221">
-        <v>0.749</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="R34" s="221">
         <v>0</v>
@@ -17337,7 +17338,7 @@
       </c>
       <c r="T34" s="225">
         <f>_xll.qlMidEquivalent($P34,$Q34,$R34,$S34)</f>
-        <v>0.72399999999999998</v>
+        <v>0.71100000000000008</v>
       </c>
       <c r="U34" s="223"/>
       <c r="V34" s="224">
@@ -17345,7 +17346,7 @@
       </c>
       <c r="W34" s="223"/>
       <c r="X34" s="296">
-        <v>0.72399999999999998</v>
+        <v>0.71100000000000008</v>
       </c>
       <c r="Y34" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F34,X34/100,Trigger)</f>
@@ -17391,10 +17392,10 @@
         <v>USD3YOIS=TTKL</v>
       </c>
       <c r="P35" s="221">
-        <v>0.80900000000000005</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="Q35" s="221">
-        <v>0.85899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="R35" s="221">
         <v>0</v>
@@ -17404,7 +17405,7 @@
       </c>
       <c r="T35" s="225">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>0.83400000000000007</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="U35" s="223"/>
       <c r="V35" s="224">
@@ -17412,11 +17413,11 @@
       </c>
       <c r="W35" s="223"/>
       <c r="X35" s="296">
-        <v>0.83400000000000007</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="Y35" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="Z35" s="189"/>
     </row>
@@ -17458,10 +17459,10 @@
         <v>USD39MOIS=TTKL</v>
       </c>
       <c r="P36" s="221">
-        <v>0.92</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="Q36" s="221">
-        <v>0.97</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="R36" s="221">
         <v>0</v>
@@ -17471,7 +17472,7 @@
       </c>
       <c r="T36" s="225">
         <f>_xll.qlMidEquivalent($P36,$Q36,$R36,$S36)</f>
-        <v>0.94500000000000006</v>
+        <v>0.93199999999999994</v>
       </c>
       <c r="U36" s="223"/>
       <c r="V36" s="224">
@@ -17479,7 +17480,7 @@
       </c>
       <c r="W36" s="223"/>
       <c r="X36" s="296">
-        <v>0.94500000000000006</v>
+        <v>0.93199999999999994</v>
       </c>
       <c r="Y36" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F36,X36/100,Trigger)</f>
@@ -17525,10 +17526,10 @@
         <v>USD42MOIS=TTKL</v>
       </c>
       <c r="P37" s="221">
-        <v>1.03</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="Q37" s="221">
-        <v>1.08</v>
+        <v>1.071</v>
       </c>
       <c r="R37" s="221">
         <v>0</v>
@@ -17538,7 +17539,7 @@
       </c>
       <c r="T37" s="225">
         <f>_xll.qlMidEquivalent($P37,$Q37,$R37,$S37)</f>
-        <v>1.0550000000000002</v>
+        <v>1.0459999999999998</v>
       </c>
       <c r="U37" s="223"/>
       <c r="V37" s="224">
@@ -17546,7 +17547,7 @@
       </c>
       <c r="W37" s="223"/>
       <c r="X37" s="296">
-        <v>1.0550000000000002</v>
+        <v>1.0459999999999998</v>
       </c>
       <c r="Y37" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F37,X37/100,Trigger)</f>
@@ -17592,10 +17593,10 @@
         <v>USD45MOIS=TTKL</v>
       </c>
       <c r="P38" s="221">
-        <v>1.133</v>
+        <v>1.119</v>
       </c>
       <c r="Q38" s="221">
-        <v>1.1830000000000001</v>
+        <v>1.169</v>
       </c>
       <c r="R38" s="221">
         <v>0</v>
@@ -17605,7 +17606,7 @@
       </c>
       <c r="T38" s="225">
         <f>_xll.qlMidEquivalent($P38,$Q38,$R38,$S38)</f>
-        <v>1.1579999999999999</v>
+        <v>1.1440000000000001</v>
       </c>
       <c r="U38" s="223"/>
       <c r="V38" s="224">
@@ -17613,7 +17614,7 @@
       </c>
       <c r="W38" s="223"/>
       <c r="X38" s="296">
-        <v>1.1579999999999999</v>
+        <v>1.1440000000000001</v>
       </c>
       <c r="Y38" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F38,X38/100,Trigger)</f>
@@ -17659,10 +17660,10 @@
         <v>USD4YOIS=TTKL</v>
       </c>
       <c r="P39" s="221">
-        <v>1.232</v>
+        <v>1.22</v>
       </c>
       <c r="Q39" s="221">
-        <v>1.282</v>
+        <v>1.27</v>
       </c>
       <c r="R39" s="221">
         <v>0</v>
@@ -17672,7 +17673,7 @@
       </c>
       <c r="T39" s="225">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>1.2570000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="U39" s="223"/>
       <c r="V39" s="224">
@@ -17680,11 +17681,11 @@
       </c>
       <c r="W39" s="223"/>
       <c r="X39" s="296">
-        <v>1.2570000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="Y39" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="189"/>
     </row>
@@ -17726,10 +17727,10 @@
         <v>USD51MOIS=TTKL</v>
       </c>
       <c r="P40" s="221">
-        <v>1.327</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="Q40" s="221">
-        <v>1.377</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="R40" s="221">
         <v>0</v>
@@ -17739,7 +17740,7 @@
       </c>
       <c r="T40" s="225">
         <f>_xll.qlMidEquivalent($P40,$Q40,$R40,$S40)</f>
-        <v>1.3519999999999999</v>
+        <v>1.339</v>
       </c>
       <c r="U40" s="223"/>
       <c r="V40" s="224">
@@ -17747,7 +17748,7 @@
       </c>
       <c r="W40" s="223"/>
       <c r="X40" s="296">
-        <v>1.3519999999999999</v>
+        <v>1.339</v>
       </c>
       <c r="Y40" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F40,X40/100,Trigger)</f>
@@ -17793,10 +17794,10 @@
         <v>USD54MOIS=TTKL</v>
       </c>
       <c r="P41" s="221">
-        <v>1.4159999999999999</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="Q41" s="221">
-        <v>1.466</v>
+        <v>1.456</v>
       </c>
       <c r="R41" s="221">
         <v>0</v>
@@ -17806,7 +17807,7 @@
       </c>
       <c r="T41" s="225">
         <f>_xll.qlMidEquivalent($P41,$Q41,$R41,$S41)</f>
-        <v>1.4409999999999998</v>
+        <v>1.431</v>
       </c>
       <c r="U41" s="223"/>
       <c r="V41" s="224">
@@ -17814,11 +17815,11 @@
       </c>
       <c r="W41" s="223"/>
       <c r="X41" s="296">
-        <v>1.4409999999999998</v>
+        <v>1.431</v>
       </c>
       <c r="Y41" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F41,X41/100,Trigger)</f>
-        <v>-2.000000000000092E-5</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="189"/>
     </row>
@@ -17860,10 +17861,10 @@
         <v>USD57MOIS=TTKL</v>
       </c>
       <c r="P42" s="221">
-        <v>1.5069999999999999</v>
+        <v>1.494</v>
       </c>
       <c r="Q42" s="221">
-        <v>1.5569999999999999</v>
+        <v>1.544</v>
       </c>
       <c r="R42" s="221">
         <v>0</v>
@@ -17873,7 +17874,7 @@
       </c>
       <c r="T42" s="225">
         <f>_xll.qlMidEquivalent($P42,$Q42,$R42,$S42)</f>
-        <v>1.532</v>
+        <v>1.5190000000000001</v>
       </c>
       <c r="U42" s="223"/>
       <c r="V42" s="224">
@@ -17881,7 +17882,7 @@
       </c>
       <c r="W42" s="223"/>
       <c r="X42" s="296">
-        <v>1.532</v>
+        <v>1.5190000000000001</v>
       </c>
       <c r="Y42" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F42,X42/100,Trigger)</f>
@@ -17927,10 +17928,10 @@
         <v>USD5YOIS=TTKL</v>
       </c>
       <c r="P43" s="221">
-        <v>1.5880000000000001</v>
+        <v>1.573</v>
       </c>
       <c r="Q43" s="221">
-        <v>1.6379999999999999</v>
+        <v>1.623</v>
       </c>
       <c r="R43" s="221">
         <v>0</v>
@@ -17940,7 +17941,7 @@
       </c>
       <c r="T43" s="225">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
-        <v>1.613</v>
+        <v>1.5979999999999999</v>
       </c>
       <c r="U43" s="223"/>
       <c r="V43" s="224">
@@ -17948,11 +17949,11 @@
       </c>
       <c r="W43" s="223"/>
       <c r="X43" s="296">
-        <v>1.613</v>
+        <v>1.5979999999999999</v>
       </c>
       <c r="Y43" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>-2.0000000000002655E-5</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="189"/>
     </row>
@@ -17994,10 +17995,10 @@
         <v>USD6YOIS=TTKL</v>
       </c>
       <c r="P44" s="221">
-        <v>1.869</v>
+        <v>1.855</v>
       </c>
       <c r="Q44" s="221">
-        <v>1.919</v>
+        <v>1.905</v>
       </c>
       <c r="R44" s="221">
         <v>0</v>
@@ -18007,7 +18008,7 @@
       </c>
       <c r="T44" s="225">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
-        <v>1.8940000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="U44" s="223"/>
       <c r="V44" s="224">
@@ -18015,11 +18016,11 @@
       </c>
       <c r="W44" s="223"/>
       <c r="X44" s="296">
-        <v>1.8940000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="Y44" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="189"/>
     </row>
@@ -18061,10 +18062,10 @@
         <v>USD7YOIS=TTKL</v>
       </c>
       <c r="P45" s="221">
-        <v>2.093</v>
+        <v>2.073</v>
       </c>
       <c r="Q45" s="221">
-        <v>2.1429999999999998</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="R45" s="221">
         <v>0</v>
@@ -18074,7 +18075,7 @@
       </c>
       <c r="T45" s="225">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
-        <v>2.1179999999999999</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="U45" s="223"/>
       <c r="V45" s="224">
@@ -18082,7 +18083,7 @@
       </c>
       <c r="W45" s="223"/>
       <c r="X45" s="296">
-        <v>2.1179999999999999</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="Y45" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
@@ -18128,10 +18129,10 @@
         <v>USD8YOIS=TTKL</v>
       </c>
       <c r="P46" s="221">
-        <v>2.2669999999999999</v>
+        <v>2.2490000000000001</v>
       </c>
       <c r="Q46" s="221">
-        <v>2.3170000000000002</v>
+        <v>2.2989999999999999</v>
       </c>
       <c r="R46" s="221">
         <v>0</v>
@@ -18141,7 +18142,7 @@
       </c>
       <c r="T46" s="225">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
-        <v>2.2919999999999998</v>
+        <v>2.274</v>
       </c>
       <c r="U46" s="223"/>
       <c r="V46" s="224">
@@ -18149,7 +18150,7 @@
       </c>
       <c r="W46" s="223"/>
       <c r="X46" s="296">
-        <v>2.2919999999999998</v>
+        <v>2.274</v>
       </c>
       <c r="Y46" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
@@ -18195,10 +18196,10 @@
         <v>USD9YOIS=TTKL</v>
       </c>
       <c r="P47" s="221">
-        <v>2.4089999999999998</v>
+        <v>2.39</v>
       </c>
       <c r="Q47" s="221">
-        <v>2.4590000000000001</v>
+        <v>2.44</v>
       </c>
       <c r="R47" s="221">
         <v>0</v>
@@ -18208,7 +18209,7 @@
       </c>
       <c r="T47" s="225">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
-        <v>2.4340000000000002</v>
+        <v>2.415</v>
       </c>
       <c r="U47" s="223"/>
       <c r="V47" s="224">
@@ -18216,11 +18217,11 @@
       </c>
       <c r="W47" s="223"/>
       <c r="X47" s="296">
-        <v>2.4340000000000002</v>
+        <v>2.415</v>
       </c>
       <c r="Y47" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>-1.9999999999999185E-5</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="189"/>
     </row>
@@ -18262,10 +18263,10 @@
         <v>USD10YOIS=TTKL</v>
       </c>
       <c r="P48" s="221">
-        <v>2.532</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="Q48" s="221">
-        <v>2.5819999999999999</v>
+        <v>2.5569999999999999</v>
       </c>
       <c r="R48" s="221">
         <v>0</v>
@@ -18275,7 +18276,7 @@
       </c>
       <c r="T48" s="225">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
-        <v>2.5569999999999999</v>
+        <v>2.532</v>
       </c>
       <c r="U48" s="223"/>
       <c r="V48" s="224">
@@ -18283,11 +18284,11 @@
       </c>
       <c r="W48" s="223"/>
       <c r="X48" s="296">
-        <v>2.5569999999999999</v>
+        <v>2.532</v>
       </c>
       <c r="Y48" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>-2.0000000000002655E-5</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="189"/>
     </row>
@@ -18329,10 +18330,10 @@
         <v>USD12YOIS=TTKL</v>
       </c>
       <c r="P49" s="221">
-        <v>2.72</v>
+        <v>2.698</v>
       </c>
       <c r="Q49" s="221">
-        <v>2.77</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="R49" s="221">
         <v>0</v>
@@ -18342,7 +18343,7 @@
       </c>
       <c r="T49" s="225">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>2.7450000000000001</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="U49" s="223"/>
       <c r="V49" s="224">
@@ -18350,11 +18351,11 @@
       </c>
       <c r="W49" s="223"/>
       <c r="X49" s="296">
-        <v>2.7450000000000001</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="Y49" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>-1.9999999999995716E-5</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="189"/>
     </row>
@@ -18396,10 +18397,10 @@
         <v>USD15YOIS=TTKL</v>
       </c>
       <c r="P50" s="221">
-        <v>2.9180000000000001</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="Q50" s="221">
-        <v>2.968</v>
+        <v>2.944</v>
       </c>
       <c r="R50" s="221">
         <v>0</v>
@@ -18409,7 +18410,7 @@
       </c>
       <c r="T50" s="225">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>2.9430000000000001</v>
+        <v>2.919</v>
       </c>
       <c r="U50" s="223"/>
       <c r="V50" s="224">
@@ -18417,11 +18418,11 @@
       </c>
       <c r="W50" s="223"/>
       <c r="X50" s="296">
-        <v>2.9430000000000001</v>
+        <v>2.919</v>
       </c>
       <c r="Y50" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>-2.0000000000002655E-5</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="189"/>
     </row>
@@ -18463,10 +18464,10 @@
         <v>USD20YOIS=TTKL</v>
       </c>
       <c r="P51" s="221">
-        <v>3.085</v>
+        <v>3.0609999999999999</v>
       </c>
       <c r="Q51" s="221">
-        <v>3.1349999999999998</v>
+        <v>3.1110000000000002</v>
       </c>
       <c r="R51" s="221">
         <v>0</v>
@@ -18476,7 +18477,7 @@
       </c>
       <c r="T51" s="225">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>3.11</v>
+        <v>3.0860000000000003</v>
       </c>
       <c r="U51" s="223"/>
       <c r="V51" s="224">
@@ -18484,11 +18485,11 @@
       </c>
       <c r="W51" s="223"/>
       <c r="X51" s="296">
-        <v>3.11</v>
+        <v>3.0860000000000003</v>
       </c>
       <c r="Y51" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="189"/>
     </row>
@@ -18530,10 +18531,10 @@
         <v>USD25YOIS=TTKL</v>
       </c>
       <c r="P52" s="221">
-        <v>3.1579999999999999</v>
+        <v>3.133</v>
       </c>
       <c r="Q52" s="221">
-        <v>3.2080000000000002</v>
+        <v>3.1829999999999998</v>
       </c>
       <c r="R52" s="221">
         <v>0</v>
@@ -18543,7 +18544,7 @@
       </c>
       <c r="T52" s="225">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>3.1829999999999998</v>
+        <v>3.1579999999999999</v>
       </c>
       <c r="U52" s="223"/>
       <c r="V52" s="224">
@@ -18551,7 +18552,7 @@
       </c>
       <c r="W52" s="223"/>
       <c r="X52" s="296">
-        <v>3.1829999999999998</v>
+        <v>3.1579999999999999</v>
       </c>
       <c r="Y52" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
@@ -18664,10 +18665,10 @@
         <v>USD30YOIS=TTKL</v>
       </c>
       <c r="P54" s="221">
-        <v>3.1890000000000001</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="Q54" s="221">
-        <v>3.2389999999999999</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="R54" s="221">
         <v>0</v>
@@ -18677,7 +18678,7 @@
       </c>
       <c r="T54" s="225">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>3.214</v>
+        <v>3.1879999999999997</v>
       </c>
       <c r="U54" s="223"/>
       <c r="V54" s="224">
@@ -18685,7 +18686,7 @@
       </c>
       <c r="W54" s="223"/>
       <c r="X54" s="296">
-        <v>3.214</v>
+        <v>3.1879999999999997</v>
       </c>
       <c r="Y54" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
@@ -18731,10 +18732,10 @@
         <v>USD35YOIS=TTKL</v>
       </c>
       <c r="P55" s="221">
-        <v>3.1960000000000002</v>
+        <v>3.1680000000000001</v>
       </c>
       <c r="Q55" s="221">
-        <v>3.246</v>
+        <v>3.218</v>
       </c>
       <c r="R55" s="221">
         <v>0</v>
@@ -18744,7 +18745,7 @@
       </c>
       <c r="T55" s="225">
         <f>_xll.qlMidEquivalent($P55,$Q55,$R55,$S55)</f>
-        <v>3.2210000000000001</v>
+        <v>3.1930000000000001</v>
       </c>
       <c r="U55" s="223"/>
       <c r="V55" s="224">
@@ -18752,7 +18753,7 @@
       </c>
       <c r="W55" s="223"/>
       <c r="X55" s="296">
-        <v>3.2210000000000001</v>
+        <v>3.1930000000000001</v>
       </c>
       <c r="Y55" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F55,X55/100,Trigger)</f>
@@ -18798,10 +18799,10 @@
         <v>USD40YOIS=TTKL</v>
       </c>
       <c r="P56" s="221">
-        <v>3.2</v>
+        <v>3.1720000000000002</v>
       </c>
       <c r="Q56" s="221">
-        <v>3.25</v>
+        <v>3.222</v>
       </c>
       <c r="R56" s="221">
         <v>0</v>
@@ -18811,7 +18812,7 @@
       </c>
       <c r="T56" s="225">
         <f>_xll.qlMidEquivalent($P56,$Q56,$R56,$S56)</f>
-        <v>3.2250000000000001</v>
+        <v>3.1970000000000001</v>
       </c>
       <c r="U56" s="223"/>
       <c r="V56" s="224">
@@ -18819,7 +18820,7 @@
       </c>
       <c r="W56" s="223"/>
       <c r="X56" s="296">
-        <v>3.2250000000000001</v>
+        <v>3.1970000000000001</v>
       </c>
       <c r="Y56" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F56,X56/100,Trigger)</f>
@@ -18865,10 +18866,10 @@
         <v>USD45YOIS=TTKL</v>
       </c>
       <c r="P57" s="221">
-        <v>3.1909999999999998</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="Q57" s="221">
-        <v>3.2410000000000001</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="R57" s="221">
         <v>0</v>
@@ -18878,7 +18879,7 @@
       </c>
       <c r="T57" s="225">
         <f>_xll.qlMidEquivalent($P57,$Q57,$R57,$S57)</f>
-        <v>3.2160000000000002</v>
+        <v>3.1879999999999997</v>
       </c>
       <c r="U57" s="223"/>
       <c r="V57" s="224">
@@ -18886,7 +18887,7 @@
       </c>
       <c r="W57" s="223"/>
       <c r="X57" s="296">
-        <v>3.2160000000000002</v>
+        <v>3.1879999999999997</v>
       </c>
       <c r="Y57" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F57,X57/100,Trigger)</f>
@@ -18932,10 +18933,10 @@
         <v>USD50YOIS=TTKL</v>
       </c>
       <c r="P58" s="234">
-        <v>3.1829999999999998</v>
+        <v>3.153</v>
       </c>
       <c r="Q58" s="234">
-        <v>3.2330000000000001</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="R58" s="234">
         <v>0</v>
@@ -18945,7 +18946,7 @@
       </c>
       <c r="T58" s="237">
         <f>_xll.qlMidEquivalent($P58,$Q58,$R58,$S58)</f>
-        <v>3.2080000000000002</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="U58" s="223"/>
       <c r="V58" s="224">
@@ -18953,11 +18954,11 @@
       </c>
       <c r="W58" s="223"/>
       <c r="X58" s="289">
-        <v>3.2080000000000002</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="Y58" s="233">
         <f>_xll.qlSimpleQuoteSetValue(F58,X58/100,Trigger)</f>
-        <v>1.0000000000003062E-5</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="189"/>
     </row>
@@ -20056,7 +20057,7 @@
       <c r="X3" s="131"/>
       <c r="Y3" s="253">
         <f>_xll.ohTrigger(Y5:Y15)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="189"/>
     </row>
@@ -20085,7 +20086,7 @@
       <c r="N4" s="165"/>
       <c r="O4" s="218" t="str">
         <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:22:28</v>
       </c>
       <c r="P4" s="284" t="s">
         <v>207</v>
@@ -20157,10 +20158,10 @@
         <v>USD2X1S=ICAP</v>
       </c>
       <c r="P5" s="221">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="Q5" s="221">
-        <v>0.17599999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="R5" s="221">
         <v>0</v>
@@ -20170,7 +20171,7 @@
       </c>
       <c r="T5" s="225">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>0.151</v>
+        <v>0.152</v>
       </c>
       <c r="U5" s="223"/>
       <c r="V5" s="224">
@@ -20179,7 +20180,7 @@
       <c r="W5" s="223"/>
       <c r="X5" s="296">
         <f t="array" ref="X5:X18">QuoteLive</f>
-        <v>0.151</v>
+        <v>0.152</v>
       </c>
       <c r="Y5" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
@@ -20229,10 +20230,10 @@
         <v>USD3X1S=ICAP</v>
       </c>
       <c r="P6" s="221">
-        <v>0.127</v>
+        <v>0.128</v>
       </c>
       <c r="Q6" s="221">
-        <v>0.17699999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="R6" s="221">
         <v>0</v>
@@ -20242,7 +20243,7 @@
       </c>
       <c r="T6" s="225">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="U6" s="223"/>
       <c r="V6" s="224">
@@ -20250,7 +20251,7 @@
       </c>
       <c r="W6" s="223"/>
       <c r="X6" s="296">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="Y6" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
@@ -20300,10 +20301,10 @@
         <v>USD4X1S=ICAP</v>
       </c>
       <c r="P7" s="221">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="Q7" s="221">
-        <v>0.17899999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="R7" s="221">
         <v>0</v>
@@ -20313,7 +20314,7 @@
       </c>
       <c r="T7" s="225">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="U7" s="223"/>
       <c r="V7" s="224">
@@ -20321,7 +20322,7 @@
       </c>
       <c r="W7" s="223"/>
       <c r="X7" s="296">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="Y7" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
@@ -20371,10 +20372,10 @@
         <v>USD5X1S=ICAP</v>
       </c>
       <c r="P8" s="221">
-        <v>0.13100000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="Q8" s="221">
-        <v>0.18099999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="R8" s="221">
         <v>0</v>
@@ -20384,7 +20385,7 @@
       </c>
       <c r="T8" s="225">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>0.156</v>
+        <v>0.157</v>
       </c>
       <c r="U8" s="223"/>
       <c r="V8" s="224">
@@ -20392,7 +20393,7 @@
       </c>
       <c r="W8" s="223"/>
       <c r="X8" s="296">
-        <v>0.156</v>
+        <v>0.157</v>
       </c>
       <c r="Y8" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
@@ -20442,10 +20443,10 @@
         <v>USD6X1S=ICAP</v>
       </c>
       <c r="P9" s="221">
-        <v>0.13300000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Q9" s="221">
-        <v>0.183</v>
+        <v>0.184</v>
       </c>
       <c r="R9" s="221">
         <v>0</v>
@@ -20455,7 +20456,7 @@
       </c>
       <c r="T9" s="225">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
-        <v>0.158</v>
+        <v>0.159</v>
       </c>
       <c r="U9" s="223"/>
       <c r="V9" s="224">
@@ -20463,7 +20464,7 @@
       </c>
       <c r="W9" s="223"/>
       <c r="X9" s="296">
-        <v>0.158</v>
+        <v>0.159</v>
       </c>
       <c r="Y9" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
@@ -20513,10 +20514,10 @@
         <v>USD7X1S=ICAP</v>
       </c>
       <c r="P10" s="221">
-        <v>0.13500000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="Q10" s="221">
-        <v>0.185</v>
+        <v>0.186</v>
       </c>
       <c r="R10" s="221">
         <v>0</v>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="T10" s="225">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="U10" s="223"/>
       <c r="V10" s="224">
@@ -20534,7 +20535,7 @@
       </c>
       <c r="W10" s="223"/>
       <c r="X10" s="296">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="Y10" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
@@ -20584,10 +20585,10 @@
         <v>USD8X1S=ICAP</v>
       </c>
       <c r="P11" s="221">
-        <v>0.13800000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="Q11" s="221">
-        <v>0.188</v>
+        <v>0.189</v>
       </c>
       <c r="R11" s="221">
         <v>0</v>
@@ -20597,7 +20598,7 @@
       </c>
       <c r="T11" s="225">
         <f>_xll.qlMidSafe($P11,$Q11)</f>
-        <v>0.16300000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="U11" s="223"/>
       <c r="V11" s="224">
@@ -20605,7 +20606,7 @@
       </c>
       <c r="W11" s="223"/>
       <c r="X11" s="296">
-        <v>0.16300000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="Y11" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
@@ -20655,10 +20656,10 @@
         <v>USD9X1S=ICAP</v>
       </c>
       <c r="P12" s="221">
-        <v>0.14199999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q12" s="221">
-        <v>0.192</v>
+        <v>0.193</v>
       </c>
       <c r="R12" s="221">
         <v>0</v>
@@ -20668,7 +20669,7 @@
       </c>
       <c r="T12" s="225">
         <f>_xll.qlMidSafe($P12,$Q12)</f>
-        <v>0.16699999999999998</v>
+        <v>0.16799999999999998</v>
       </c>
       <c r="U12" s="223"/>
       <c r="V12" s="224">
@@ -20676,7 +20677,7 @@
       </c>
       <c r="W12" s="223"/>
       <c r="X12" s="296">
-        <v>0.16699999999999998</v>
+        <v>0.16799999999999998</v>
       </c>
       <c r="Y12" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
@@ -20726,10 +20727,10 @@
         <v>USD10X1S=ICAP</v>
       </c>
       <c r="P13" s="221">
-        <v>0.14699999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="Q13" s="221">
-        <v>0.19700000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="R13" s="221">
         <v>0</v>
@@ -20739,7 +20740,7 @@
       </c>
       <c r="T13" s="225">
         <f>_xll.qlMidSafe($P13,$Q13)</f>
-        <v>0.17199999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="U13" s="223"/>
       <c r="V13" s="224">
@@ -20747,7 +20748,7 @@
       </c>
       <c r="W13" s="223"/>
       <c r="X13" s="296">
-        <v>0.17199999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="Y13" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
@@ -20797,10 +20798,10 @@
         <v>USD11X1S=ICAP</v>
       </c>
       <c r="P14" s="221">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="Q14" s="221">
-        <v>0.20300000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="R14" s="221">
         <v>0</v>
@@ -20810,7 +20811,7 @@
       </c>
       <c r="T14" s="225">
         <f>_xll.qlMidSafe($P14,$Q14)</f>
-        <v>0.17799999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="U14" s="223"/>
       <c r="V14" s="224">
@@ -20818,7 +20819,7 @@
       </c>
       <c r="W14" s="223"/>
       <c r="X14" s="296">
-        <v>0.17799999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="Y14" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F14,X14/100,Trigger)</f>
@@ -20827,7 +20828,7 @@
       <c r="Z14" s="189"/>
       <c r="AB14" s="258">
         <f t="shared" si="2"/>
-        <v>5.0000000000000044E-4</v>
+        <v>4.999999999999999E-4</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -20868,10 +20869,10 @@
         <v>USD12X1S=ICAP</v>
       </c>
       <c r="P15" s="221">
-        <v>0.161</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="Q15" s="221">
-        <v>0.21099999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="R15" s="221">
         <v>0</v>
@@ -20881,7 +20882,7 @@
       </c>
       <c r="T15" s="225">
         <f>_xll.qlMidSafe($P15,$Q15)</f>
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="U15" s="223"/>
       <c r="V15" s="224">
@@ -20889,7 +20890,7 @@
       </c>
       <c r="W15" s="223"/>
       <c r="X15" s="296">
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="Y15" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F15,X15/100,Trigger)</f>
@@ -20926,10 +20927,10 @@
         <v>USD15X1S=ICAP</v>
       </c>
       <c r="P16" s="221">
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="Q16" s="221">
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="R16" s="221">
         <v>0</v>
@@ -20939,7 +20940,7 @@
       </c>
       <c r="T16" s="225">
         <f>_xll.qlMidSafe($P16,$Q16)</f>
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="U16" s="223"/>
       <c r="V16" s="224">
@@ -20947,7 +20948,7 @@
       </c>
       <c r="W16" s="223"/>
       <c r="X16" s="296">
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="Y16" s="220" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
@@ -21018,10 +21019,10 @@
         <v>USD24X1S=ICAP</v>
       </c>
       <c r="P18" s="221">
-        <v>0.443</v>
+        <v>0.436</v>
       </c>
       <c r="Q18" s="221">
-        <v>0.49299999999999999</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="R18" s="221">
         <v>0</v>
@@ -21031,7 +21032,7 @@
       </c>
       <c r="T18" s="225">
         <f>_xll.qlMidSafe($P18,$Q18)</f>
-        <v>0.46799999999999997</v>
+        <v>0.46099999999999997</v>
       </c>
       <c r="U18" s="223"/>
       <c r="V18" s="236">
@@ -21039,7 +21040,7 @@
       </c>
       <c r="W18" s="223"/>
       <c r="X18" s="289">
-        <v>0.46799999999999997</v>
+        <v>0.46099999999999997</v>
       </c>
       <c r="Y18" s="233" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,X18/100,Trigger)</f>
@@ -21182,7 +21183,7 @@
       <c r="X3" s="131"/>
       <c r="Y3" s="253">
         <f>_xll.ohTrigger(Y5:Y11)</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="189"/>
     </row>
@@ -21211,7 +21212,7 @@
       <c r="N4" s="165"/>
       <c r="O4" s="218" t="str">
         <f>_xll.RData(O5:O11,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:22:30</v>
       </c>
       <c r="P4" s="284" t="s">
         <v>207</v>
@@ -21355,10 +21356,10 @@
         <v>USD2S12=ICAP</v>
       </c>
       <c r="P6" s="221">
-        <v>0.34599999999999997</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="Q6" s="221">
-        <v>0.39600000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="R6" s="221">
         <v>0</v>
@@ -21368,7 +21369,7 @@
       </c>
       <c r="T6" s="225">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>0.371</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="U6" s="223"/>
       <c r="V6" s="224">
@@ -21376,11 +21377,11 @@
       </c>
       <c r="W6" s="223"/>
       <c r="X6" s="296">
-        <v>0.371</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="Y6" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
-        <v>-1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="189"/>
       <c r="AB6" s="258">
@@ -21426,10 +21427,10 @@
         <v>USD3S12=ICAP</v>
       </c>
       <c r="P7" s="221">
-        <v>0.48599999999999999</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="Q7" s="221">
-        <v>0.53600000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="R7" s="221">
         <v>0</v>
@@ -21439,7 +21440,7 @@
       </c>
       <c r="T7" s="225">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>0.51100000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="U7" s="223"/>
       <c r="V7" s="224">
@@ -21447,11 +21448,11 @@
       </c>
       <c r="W7" s="223"/>
       <c r="X7" s="296">
-        <v>0.51100000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="Y7" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
-        <v>-3.0000000000000512E-5</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="189"/>
       <c r="AB7" s="258">
@@ -21497,10 +21498,10 @@
         <v>USD4S12=ICAP</v>
       </c>
       <c r="P8" s="221">
-        <v>0.69</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="Q8" s="221">
-        <v>0.74</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="R8" s="221">
         <v>0</v>
@@ -21510,7 +21511,7 @@
       </c>
       <c r="T8" s="225">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>0.71499999999999997</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="U8" s="223"/>
       <c r="V8" s="224">
@@ -21518,11 +21519,11 @@
       </c>
       <c r="W8" s="223"/>
       <c r="X8" s="296">
-        <v>0.71499999999999997</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="Y8" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>-2.9999999999999645E-5</v>
+        <v>9.9999999999987252E-6</v>
       </c>
       <c r="Z8" s="189"/>
       <c r="AB8" s="258">
@@ -21899,7 +21900,7 @@
       <c r="AB3" s="131"/>
       <c r="AC3" s="253">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="AD3" s="189"/>
       <c r="AE3" s="19"/>
@@ -21927,7 +21928,7 @@
       <c r="R4" s="165"/>
       <c r="S4" s="218" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:39:22</v>
       </c>
       <c r="T4" s="284" t="s">
         <v>207</v>
@@ -22493,10 +22494,10 @@
         <v>USDAM3L2Y=ICAP</v>
       </c>
       <c r="T10" s="221">
-        <v>0.52900000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="U10" s="221">
-        <v>0.55900000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="V10" s="221">
         <v>0</v>
@@ -22506,7 +22507,7 @@
       </c>
       <c r="X10" s="225">
         <f>_xll.qlMidSafe($T10,$U10)</f>
-        <v>0.54400000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="Y10" s="223"/>
       <c r="Z10" s="224">
@@ -22514,7 +22515,7 @@
       </c>
       <c r="AA10" s="223"/>
       <c r="AB10" s="296">
-        <v>0.54400000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="AC10" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/100,Trigger)</f>
@@ -22573,10 +22574,10 @@
         <v>USDAM3L3Y=ICAP</v>
       </c>
       <c r="T11" s="221">
-        <v>0.99299999999999999</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="U11" s="221">
-        <v>1.0229999999999999</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="V11" s="221">
         <v>0</v>
@@ -22586,7 +22587,7 @@
       </c>
       <c r="X11" s="225">
         <f>_xll.qlMidSafe($T11,$U11)</f>
-        <v>1.008</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="Y11" s="223"/>
       <c r="Z11" s="224">
@@ -22594,7 +22595,7 @@
       </c>
       <c r="AA11" s="223"/>
       <c r="AB11" s="296">
-        <v>1.008</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="AC11" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -22653,10 +22654,10 @@
         <v>USDAM3L4Y=ICAP</v>
       </c>
       <c r="T12" s="221">
-        <v>1.4350000000000001</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="U12" s="221">
-        <v>1.4650000000000001</v>
+        <v>1.446</v>
       </c>
       <c r="V12" s="221">
         <v>0</v>
@@ -22666,7 +22667,7 @@
       </c>
       <c r="X12" s="225">
         <f>_xll.qlMidSafe($T12,$U12)</f>
-        <v>1.4500000000000002</v>
+        <v>1.431</v>
       </c>
       <c r="Y12" s="223"/>
       <c r="Z12" s="224">
@@ -22674,11 +22675,11 @@
       </c>
       <c r="AA12" s="223"/>
       <c r="AB12" s="296">
-        <v>1.4500000000000002</v>
+        <v>1.431</v>
       </c>
       <c r="AC12" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
-        <v>-9.9999999999978578E-6</v>
+        <v>9.9999999999978578E-6</v>
       </c>
       <c r="AD12" s="189"/>
       <c r="AE12" s="19"/>
@@ -22733,10 +22734,10 @@
         <v>USDAM3L5Y=ICAP</v>
       </c>
       <c r="T13" s="221">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U13" s="221">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V13" s="221">
         <v>0</v>
@@ -22746,7 +22747,7 @@
       </c>
       <c r="X13" s="225">
         <f>_xll.qlMidSafe($T13,$U13)</f>
-        <v>1.8149999999999999</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="Y13" s="223"/>
       <c r="Z13" s="224">
@@ -22754,11 +22755,11 @@
       </c>
       <c r="AA13" s="223"/>
       <c r="AB13" s="296">
-        <v>1.8149999999999999</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="AC13" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
-        <v>-2.0000000000002655E-5</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD13" s="189"/>
       <c r="AE13" s="19"/>
@@ -22813,10 +22814,10 @@
         <v>USDAM3L6Y=ICAP</v>
       </c>
       <c r="T14" s="221">
-        <v>2.0910000000000002</v>
+        <v>2.069</v>
       </c>
       <c r="U14" s="221">
-        <v>2.121</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="V14" s="221">
         <v>0</v>
@@ -22826,7 +22827,7 @@
       </c>
       <c r="X14" s="225">
         <f>_xll.qlMidSafe($T14,$U14)</f>
-        <v>2.1059999999999999</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="Y14" s="223"/>
       <c r="Z14" s="224">
@@ -22834,11 +22835,11 @@
       </c>
       <c r="AA14" s="223"/>
       <c r="AB14" s="296">
-        <v>2.1059999999999999</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="AC14" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
-        <v>-2.0000000000002655E-5</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD14" s="189"/>
       <c r="AE14" s="19"/>
@@ -22893,10 +22894,10 @@
         <v>USDAM3L7Y=ICAP</v>
       </c>
       <c r="T15" s="221">
-        <v>2.3220000000000001</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="U15" s="221">
-        <v>2.3519999999999999</v>
+        <v>2.3260000000000001</v>
       </c>
       <c r="V15" s="221">
         <v>0</v>
@@ -22906,7 +22907,7 @@
       </c>
       <c r="X15" s="225">
         <f>_xll.qlMidSafe($T15,$U15)</f>
-        <v>2.3369999999999997</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="Y15" s="223"/>
       <c r="Z15" s="224">
@@ -22914,11 +22915,11 @@
       </c>
       <c r="AA15" s="223"/>
       <c r="AB15" s="296">
-        <v>2.3369999999999997</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="AC15" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>-1.0000000000003062E-5</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="AD15" s="189"/>
       <c r="AE15" s="19"/>
@@ -22973,10 +22974,10 @@
         <v>USDAM3L8Y=ICAP</v>
       </c>
       <c r="T16" s="221">
-        <v>2.5059999999999998</v>
+        <v>2.4769999999999999</v>
       </c>
       <c r="U16" s="221">
-        <v>2.536</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="V16" s="221">
         <v>0</v>
@@ -22986,7 +22987,7 @@
       </c>
       <c r="X16" s="225">
         <f>_xll.qlMidSafe($T16,$U16)</f>
-        <v>2.5209999999999999</v>
+        <v>2.492</v>
       </c>
       <c r="Y16" s="223"/>
       <c r="Z16" s="224">
@@ -22994,11 +22995,11 @@
       </c>
       <c r="AA16" s="223"/>
       <c r="AB16" s="296">
-        <v>2.5209999999999999</v>
+        <v>2.492</v>
       </c>
       <c r="AC16" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>-1.0000000000003062E-5</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="189"/>
       <c r="AE16" s="19"/>
@@ -23053,10 +23054,10 @@
         <v>USDAM3L9Y=ICAP</v>
       </c>
       <c r="T17" s="221">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="U17" s="221">
         <v>2.6560000000000001</v>
-      </c>
-      <c r="U17" s="221">
-        <v>2.6859999999999999</v>
       </c>
       <c r="V17" s="221">
         <v>0</v>
@@ -23066,7 +23067,7 @@
       </c>
       <c r="X17" s="225">
         <f>_xll.qlMidSafe($T17,$U17)</f>
-        <v>2.6710000000000003</v>
+        <v>2.641</v>
       </c>
       <c r="Y17" s="223"/>
       <c r="Z17" s="224">
@@ -23074,11 +23075,11 @@
       </c>
       <c r="AA17" s="223"/>
       <c r="AB17" s="296">
-        <v>2.6710000000000003</v>
+        <v>2.641</v>
       </c>
       <c r="AC17" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>-9.9999999999961231E-6</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="189"/>
       <c r="AE17" s="19"/>
@@ -23088,7 +23089,7 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="258">
         <f t="shared" si="1"/>
-        <v>2.9999999999999363E-4</v>
+        <v>3.0000000000000247E-4</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -23133,10 +23134,10 @@
         <v>USDAM3L10Y=ICAP</v>
       </c>
       <c r="T18" s="221">
-        <v>2.782</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="U18" s="221">
-        <v>2.8119999999999998</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="V18" s="221">
         <v>0</v>
@@ -23146,7 +23147,7 @@
       </c>
       <c r="X18" s="225">
         <f>_xll.qlMidSafe($T18,$U18)</f>
-        <v>2.7969999999999997</v>
+        <v>2.766</v>
       </c>
       <c r="Y18" s="223"/>
       <c r="Z18" s="224">
@@ -23154,11 +23155,11 @@
       </c>
       <c r="AA18" s="223"/>
       <c r="AB18" s="296">
-        <v>2.7969999999999997</v>
+        <v>2.766</v>
       </c>
       <c r="AC18" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>-1.0000000000003062E-5</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="189"/>
       <c r="AE18" s="19"/>
@@ -23293,10 +23294,10 @@
         <v>USDAM3L12Y=ICAP</v>
       </c>
       <c r="T20" s="221">
+        <v>2.95</v>
+      </c>
+      <c r="U20" s="221">
         <v>2.98</v>
-      </c>
-      <c r="U20" s="221">
-        <v>3.01</v>
       </c>
       <c r="V20" s="221">
         <v>0</v>
@@ -23306,7 +23307,7 @@
       </c>
       <c r="X20" s="225">
         <f>_xll.qlMidSafe($T20,$U20)</f>
-        <v>2.9950000000000001</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="Y20" s="223"/>
       <c r="Z20" s="224">
@@ -23314,11 +23315,11 @@
       </c>
       <c r="AA20" s="223"/>
       <c r="AB20" s="296">
-        <v>2.9950000000000001</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="AC20" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="189"/>
       <c r="AE20" s="19"/>
@@ -23328,7 +23329,7 @@
       <c r="AI20" s="19"/>
       <c r="AJ20" s="258">
         <f t="shared" si="1"/>
-        <v>2.9999999999999363E-4</v>
+        <v>3.0000000000000247E-4</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -23533,10 +23534,10 @@
         <v>USDAM3L15Y=ICAP</v>
       </c>
       <c r="T23" s="221">
-        <v>3.1739999999999999</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="U23" s="221">
-        <v>3.2040000000000002</v>
+        <v>3.169</v>
       </c>
       <c r="V23" s="221">
         <v>0</v>
@@ -23546,7 +23547,7 @@
       </c>
       <c r="X23" s="225">
         <f>_xll.qlMidSafe($T23,$U23)</f>
-        <v>3.1890000000000001</v>
+        <v>3.1539999999999999</v>
       </c>
       <c r="Y23" s="223"/>
       <c r="Z23" s="224">
@@ -23554,11 +23555,11 @@
       </c>
       <c r="AA23" s="223"/>
       <c r="AB23" s="296">
-        <v>3.1890000000000001</v>
+        <v>3.1539999999999999</v>
       </c>
       <c r="AC23" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
-        <v>-9.9999999999961231E-6</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="189"/>
       <c r="AE23" s="19"/>
@@ -23933,10 +23934,10 @@
         <v>USDAM3L20Y=ICAP</v>
       </c>
       <c r="T28" s="221">
-        <v>3.3410000000000002</v>
+        <v>3.3050000000000002</v>
       </c>
       <c r="U28" s="221">
-        <v>3.371</v>
+        <v>3.335</v>
       </c>
       <c r="V28" s="221">
         <v>0</v>
@@ -23946,7 +23947,7 @@
       </c>
       <c r="X28" s="225">
         <f>_xll.qlMidSafe($T28,$U28)</f>
-        <v>3.3559999999999999</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="Y28" s="223"/>
       <c r="Z28" s="224">
@@ -23954,11 +23955,11 @@
       </c>
       <c r="AA28" s="223"/>
       <c r="AB28" s="296">
-        <v>3.3559999999999999</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="AC28" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
-        <v>-1.0000000000003062E-5</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="189"/>
       <c r="AE28" s="19"/>
@@ -23968,7 +23969,7 @@
       <c r="AI28" s="19"/>
       <c r="AJ28" s="258">
         <f t="shared" si="1"/>
-        <v>3.0000000000000247E-4</v>
+        <v>2.9999999999999363E-4</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
@@ -24333,10 +24334,10 @@
         <v>USDAM3L25Y=ICAP</v>
       </c>
       <c r="T33" s="221">
-        <v>3.4140000000000001</v>
+        <v>3.3769999999999998</v>
       </c>
       <c r="U33" s="221">
-        <v>3.444</v>
+        <v>3.407</v>
       </c>
       <c r="V33" s="221">
         <v>0</v>
@@ -24346,7 +24347,7 @@
       </c>
       <c r="X33" s="225">
         <f>_xll.qlMidSafe($T33,$U33)</f>
-        <v>3.4290000000000003</v>
+        <v>3.3919999999999999</v>
       </c>
       <c r="Y33" s="223"/>
       <c r="Z33" s="224">
@@ -24354,11 +24355,11 @@
       </c>
       <c r="AA33" s="223"/>
       <c r="AB33" s="296">
-        <v>3.4290000000000003</v>
+        <v>3.3919999999999999</v>
       </c>
       <c r="AC33" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
-        <v>-9.9999999999961231E-6</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="189"/>
       <c r="AE33" s="19"/>
@@ -24368,7 +24369,7 @@
       <c r="AI33" s="19"/>
       <c r="AJ33" s="258">
         <f t="shared" si="1"/>
-        <v>2.9999999999999363E-4</v>
+        <v>3.0000000000000247E-4</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -24733,10 +24734,10 @@
         <v>USDAM3L30Y=ICAP</v>
       </c>
       <c r="T38" s="221">
-        <v>3.4449999999999998</v>
+        <v>3.407</v>
       </c>
       <c r="U38" s="221">
-        <v>3.4750000000000001</v>
+        <v>3.4369999999999998</v>
       </c>
       <c r="V38" s="221">
         <v>0</v>
@@ -24746,7 +24747,7 @@
       </c>
       <c r="X38" s="225">
         <f>_xll.qlMidSafe($T38,$U38)</f>
-        <v>3.46</v>
+        <v>3.4219999999999997</v>
       </c>
       <c r="Y38" s="223"/>
       <c r="Z38" s="224">
@@ -24754,7 +24755,7 @@
       </c>
       <c r="AA38" s="223"/>
       <c r="AB38" s="296">
-        <v>3.46</v>
+        <v>3.4219999999999997</v>
       </c>
       <c r="AC38" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
@@ -24893,10 +24894,10 @@
         <v>USDAM3L40Y=ICAP</v>
       </c>
       <c r="T40" s="221">
-        <v>3.4630000000000001</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="U40" s="221">
-        <v>3.4929999999999999</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="V40" s="221">
         <v>0</v>
@@ -24906,7 +24907,7 @@
       </c>
       <c r="X40" s="225">
         <f>_xll.qlMidSafe($T40,$U40)</f>
-        <v>3.4779999999999998</v>
+        <v>3.4390000000000001</v>
       </c>
       <c r="Y40" s="223"/>
       <c r="Z40" s="224">
@@ -24914,7 +24915,7 @@
       </c>
       <c r="AA40" s="223"/>
       <c r="AB40" s="296">
-        <v>3.4779999999999998</v>
+        <v>3.4390000000000001</v>
       </c>
       <c r="AC40" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/100,Trigger)</f>
@@ -24973,10 +24974,10 @@
         <v>USDAM3L50Y=ICAP</v>
       </c>
       <c r="T41" s="221">
-        <v>3.4449999999999998</v>
+        <v>3.407</v>
       </c>
       <c r="U41" s="221">
-        <v>3.4750000000000001</v>
+        <v>3.4369999999999998</v>
       </c>
       <c r="V41" s="221">
         <v>0</v>
@@ -24986,7 +24987,7 @@
       </c>
       <c r="X41" s="225">
         <f>_xll.qlMidSafe($T41,$U41)</f>
-        <v>3.46</v>
+        <v>3.4219999999999997</v>
       </c>
       <c r="Y41" s="223"/>
       <c r="Z41" s="224">
@@ -24994,7 +24995,7 @@
       </c>
       <c r="AA41" s="223"/>
       <c r="AB41" s="296">
-        <v>3.46</v>
+        <v>3.4219999999999997</v>
       </c>
       <c r="AC41" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/100,Trigger)</f>
@@ -25308,7 +25309,7 @@
       <c r="R4" s="165"/>
       <c r="S4" s="218" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="T4" s="284" t="s">
         <v>207</v>
@@ -28503,8 +28504,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AE24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28705,7 +28706,7 @@
       </c>
       <c r="R5" s="422" t="str">
         <f>_xll.RData(R6:R12,S5:T5,"RTFEED:IDN",,,S6)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:08:18</v>
       </c>
       <c r="S5" s="422" t="s">
         <v>295</v>
@@ -28768,7 +28769,7 @@
       <c r="M6" s="27"/>
       <c r="O6" s="374"/>
       <c r="P6" s="403"/>
-      <c r="Q6" s="419" t="s">
+      <c r="Q6" s="498" t="s">
         <v>194</v>
       </c>
       <c r="R6" s="414" t="str">
@@ -28776,10 +28777,10 @@
         <v>USDONFSR=</v>
       </c>
       <c r="S6" s="418">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="T6" s="417">
-        <v>8.8900000000000007E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="U6" s="417" t="b">
         <f t="shared" ref="U6:U12" si="1">IF(AND(ISNUMBER($T6),$T6&lt;&gt;0%),TRUE,FALSE)</f>
@@ -28796,23 +28797,23 @@
       </c>
       <c r="Y6" s="414">
         <f>_xll.qlIndexFixing($X6,$S6,TRUE,$U6)</f>
-        <v>1.4000000000091717E-3</v>
+        <v>8.9700000000000001E-4</v>
       </c>
       <c r="Z6" s="414">
         <f>IF($V6,_xll.qlIndexFixing($X6,$S6,FALSE,$U6),"-")</f>
-        <v>8.8900000000000003E-4</v>
+        <v>8.9700000000000001E-4</v>
       </c>
       <c r="AA6" s="414">
         <f t="shared" ref="AA6:AA12" si="2">Y6-Z6</f>
-        <v>5.1100000000917165E-4</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="413">
         <f>_xll.qlIndexFixing($X6,$S6,TRUE,$Z6)</f>
-        <v>1.4000000000091717E-3</v>
+        <v>8.9700000000000001E-4</v>
       </c>
       <c r="AC6" s="412">
         <f>IF(ISERROR(AA6),0,ABS(AA6))</f>
-        <v>5.1100000000917165E-4</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="393"/>
       <c r="AE6" s="374"/>
@@ -28851,7 +28852,7 @@
       <c r="M7" s="5"/>
       <c r="O7" s="374"/>
       <c r="P7" s="403"/>
-      <c r="Q7" s="411" t="s">
+      <c r="Q7" s="499" t="s">
         <v>23</v>
       </c>
       <c r="R7" s="406" t="str">
@@ -28859,10 +28860,10 @@
         <v>USDSWFSR=</v>
       </c>
       <c r="S7" s="410">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="T7" s="409">
-        <v>0.11924999999999999</v>
+        <v>0.11975</v>
       </c>
       <c r="U7" s="409" t="b">
         <f t="shared" si="1"/>
@@ -28879,23 +28880,23 @@
       </c>
       <c r="Y7" s="406">
         <f>_xll.qlIndexFixing($X7,$S7,TRUE,$U7)</f>
-        <v>8.6468532205397075E-4</v>
+        <v>1.1975E-3</v>
       </c>
       <c r="Z7" s="406">
         <f>IF($V7,_xll.qlIndexFixing($X7,$S7,FALSE,$U7),"-")</f>
-        <v>1.1925E-3</v>
+        <v>1.1975E-3</v>
       </c>
       <c r="AA7" s="406">
         <f t="shared" si="2"/>
-        <v>-3.2781467794602923E-4</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="405">
         <f>_xll.qlIndexFixing($X7,$S7,TRUE,$Z7)</f>
-        <v>8.6468532205397075E-4</v>
+        <v>1.1975E-3</v>
       </c>
       <c r="AC7" s="404">
         <f t="shared" ref="AC7:AC12" si="4">IF(ISERROR(AA7),0,ABS(AA7))</f>
-        <v>3.2781467794602923E-4</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="393"/>
       <c r="AE7" s="374"/>
@@ -28943,7 +28944,7 @@
       <c r="M8" s="5"/>
       <c r="O8" s="374"/>
       <c r="P8" s="403"/>
-      <c r="Q8" s="411" t="s">
+      <c r="Q8" s="499" t="s">
         <v>20</v>
       </c>
       <c r="R8" s="406" t="str">
@@ -28951,10 +28952,10 @@
         <v>USD1MFSR=</v>
       </c>
       <c r="S8" s="410">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="T8" s="409">
-        <v>0.15179999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="U8" s="409" t="b">
         <f t="shared" si="1"/>
@@ -28971,23 +28972,23 @@
       </c>
       <c r="Y8" s="406">
         <f>_xll.qlIndexFixing($X8,$S8,TRUE,$U8)</f>
-        <v>1.509492645980437E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="Z8" s="406">
         <f>IF($V8,_xll.qlIndexFixing($X8,$S8,FALSE,$U8),"-")</f>
-        <v>1.5179999999999998E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="AA8" s="406">
         <f>Y8-Z8</f>
-        <v>-8.5073540195628426E-6</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="405">
         <f>_xll.qlIndexFixing($X8,$S8,TRUE,$Z8)</f>
-        <v>1.509492645980437E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="AC8" s="404">
         <f t="shared" si="4"/>
-        <v>8.5073540195628426E-6</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="393"/>
       <c r="AE8" s="374"/>
@@ -29035,7 +29036,7 @@
       <c r="M9" s="5"/>
       <c r="O9" s="374"/>
       <c r="P9" s="403"/>
-      <c r="Q9" s="411" t="s">
+      <c r="Q9" s="499" t="s">
         <v>19</v>
       </c>
       <c r="R9" s="406" t="str">
@@ -29043,10 +29044,10 @@
         <v>USD2MFSR=</v>
       </c>
       <c r="S9" s="410">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="T9" s="409">
-        <v>0.19209999999999999</v>
+        <v>0.1925</v>
       </c>
       <c r="U9" s="409" t="b">
         <f t="shared" si="1"/>
@@ -29063,23 +29064,23 @@
       </c>
       <c r="Y9" s="406">
         <f>_xll.qlIndexFixing($X9,$S9,TRUE,$U9)</f>
-        <v>1.509606141142531E-3</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="Z9" s="406">
         <f>IF($V9,_xll.qlIndexFixing($X9,$S9,FALSE,$U9),"-")</f>
-        <v>1.921E-3</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="AA9" s="406">
         <f t="shared" si="2"/>
-        <v>-4.11393858857469E-4</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="405">
         <f>_xll.qlIndexFixing($X9,$S9,TRUE,$Z9)</f>
-        <v>1.509606141142531E-3</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="AC9" s="404">
         <f t="shared" si="4"/>
-        <v>4.11393858857469E-4</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="393"/>
       <c r="AE9" s="374"/>
@@ -29127,7 +29128,7 @@
       <c r="M10" s="5"/>
       <c r="O10" s="374"/>
       <c r="P10" s="403"/>
-      <c r="Q10" s="411" t="s">
+      <c r="Q10" s="499" t="s">
         <v>18</v>
       </c>
       <c r="R10" s="406" t="str">
@@ -29135,10 +29136,10 @@
         <v>USD3MFSR=</v>
       </c>
       <c r="S10" s="410">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="T10" s="409">
-        <v>0.22785</v>
+        <v>0.2266</v>
       </c>
       <c r="U10" s="409" t="b">
         <f t="shared" si="1"/>
@@ -29155,23 +29156,23 @@
       </c>
       <c r="Y10" s="406">
         <f>_xll.qlIndexFixing($X10,$S10,TRUE,$U10)</f>
-        <v>2.2880000002717333E-3</v>
+        <v>2.2659999999999998E-3</v>
       </c>
       <c r="Z10" s="406">
         <f>IF($V10,_xll.qlIndexFixing($X10,$S10,FALSE,$U10),"-")</f>
-        <v>2.2785000000000001E-3</v>
+        <v>2.2659999999999998E-3</v>
       </c>
       <c r="AA10" s="406">
         <f t="shared" si="2"/>
-        <v>9.5000002717331167E-6</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="405">
         <f>_xll.qlIndexFixing($X10,$S10,TRUE,$Z10)</f>
-        <v>2.2880000002717333E-3</v>
+        <v>2.2659999999999998E-3</v>
       </c>
       <c r="AC10" s="404">
         <f t="shared" si="4"/>
-        <v>9.5000002717331167E-6</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="393"/>
       <c r="AE10" s="374"/>
@@ -29219,7 +29220,7 @@
       <c r="M11" s="5"/>
       <c r="O11" s="374"/>
       <c r="P11" s="403"/>
-      <c r="Q11" s="411" t="s">
+      <c r="Q11" s="499" t="s">
         <v>15</v>
       </c>
       <c r="R11" s="406" t="str">
@@ -29227,10 +29228,10 @@
         <v>USD6MFSR=</v>
       </c>
       <c r="S11" s="410">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="T11" s="409">
-        <v>0.32350000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="U11" s="409" t="b">
         <f t="shared" si="1"/>
@@ -29247,23 +29248,23 @@
       </c>
       <c r="Y11" s="406">
         <f>_xll.qlIndexFixing($X11,$S11,TRUE,$U11)</f>
-        <v>3.2209999999999184E-3</v>
+        <v>3.2300000000000002E-3</v>
       </c>
       <c r="Z11" s="406">
         <f>IF($V11,_xll.qlIndexFixing($X11,$S11,FALSE,$U11),"-")</f>
-        <v>3.235E-3</v>
+        <v>3.2300000000000002E-3</v>
       </c>
       <c r="AA11" s="406">
         <f t="shared" si="2"/>
-        <v>-1.4000000000081655E-5</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="405">
         <f>_xll.qlIndexFixing($X11,$S11,TRUE,$Z11)</f>
-        <v>3.2209999999999184E-3</v>
+        <v>3.2300000000000002E-3</v>
       </c>
       <c r="AC11" s="404">
         <f t="shared" si="4"/>
-        <v>1.4000000000081655E-5</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="393"/>
       <c r="AE11" s="374"/>
@@ -29311,7 +29312,7 @@
       <c r="M12" s="5"/>
       <c r="O12" s="374"/>
       <c r="P12" s="403"/>
-      <c r="Q12" s="402" t="s">
+      <c r="Q12" s="500" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="396" t="str">
@@ -29319,7 +29320,7 @@
         <v>USD1YFSR=</v>
       </c>
       <c r="S12" s="401">
-        <v>41753</v>
+        <v>41754</v>
       </c>
       <c r="T12" s="400">
         <v>0.54949999999999999</v>
@@ -29337,21 +29338,21 @@
         <f t="shared" si="3"/>
         <v>UsdLibor1Y#0000</v>
       </c>
-      <c r="Y12" s="396" t="e">
+      <c r="Y12" s="396">
         <f>_xll.qlIndexFixing($X12,$S12,TRUE,$U12)</f>
-        <v>#NUM!</v>
+        <v>5.4949999999999999E-3</v>
       </c>
       <c r="Z12" s="396">
         <f>IF($V12,_xll.qlIndexFixing($X12,$S12,FALSE,$U12),"-")</f>
         <v>5.4949999999999999E-3</v>
       </c>
-      <c r="AA12" s="396" t="e">
+      <c r="AA12" s="396">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB12" s="395" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="395">
         <f>_xll.qlIndexFixing($X12,$S12,TRUE,$Z12)</f>
-        <v>#NUM!</v>
+        <v>5.4949999999999999E-3</v>
       </c>
       <c r="AC12" s="394">
         <f t="shared" si="4"/>
@@ -36928,7 +36929,7 @@
       <c r="E4" s="165"/>
       <c r="F4" s="218" t="str">
         <f>_xll.RData(F5:F10,G4:J4,"RTFEED:IDN",ReutersRtMode,,G5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="G4" s="284" t="s">
         <v>207</v>
@@ -37411,7 +37412,7 @@
       </c>
       <c r="D3" s="422" t="str">
         <f>_xll.RData(D4:D18,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="E3" s="422" t="s">
         <v>295</v>
@@ -38715,7 +38716,7 @@
       </c>
       <c r="D3" s="422" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="E3" s="422" t="s">
         <v>295</v>
@@ -40213,7 +40214,7 @@
       </c>
       <c r="D3" s="422" t="str">
         <f>_xll.RData(D4:D21,E3:F3,"RTFEED:IDN",,,E4)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="E3" s="422" t="s">
         <v>295</v>
@@ -40515,7 +40516,7 @@
       </c>
       <c r="S7" s="445">
         <f>_xll.qlQuoteValue(R7,ISERROR(H7))</f>
-        <v>1.2130000000000001E-3</v>
+        <v>1.1925E-3</v>
       </c>
       <c r="T7" s="444" t="e">
         <f t="shared" ref="T7:T21" si="6">IF(E7=EvaluationDate,S7-F7/100,NA())</f>
@@ -40737,7 +40738,7 @@
       </c>
       <c r="S10" s="445">
         <f>_xll.qlQuoteValue(R10,ISERROR(H10))</f>
-        <v>1.5229999999999998E-3</v>
+        <v>1.5179999999999998E-3</v>
       </c>
       <c r="T10" s="444" t="e">
         <f t="shared" si="6"/>
@@ -40811,7 +40812,7 @@
       </c>
       <c r="S11" s="445">
         <f>_xll.qlQuoteValue(R11,ISERROR(H11))</f>
-        <v>1.9300000000000001E-3</v>
+        <v>1.921E-3</v>
       </c>
       <c r="T11" s="444" t="e">
         <f t="shared" si="6"/>
@@ -40885,7 +40886,7 @@
       </c>
       <c r="S12" s="445">
         <f>_xll.qlQuoteValue(R12,ISERROR(H12))</f>
-        <v>2.2875E-3</v>
+        <v>2.2785000000000001E-3</v>
       </c>
       <c r="T12" s="444" t="e">
         <f t="shared" si="6"/>
@@ -41107,7 +41108,7 @@
       </c>
       <c r="S15" s="445">
         <f>_xll.qlQuoteValue(R15,ISERROR(H15))</f>
-        <v>3.228E-3</v>
+        <v>3.235E-3</v>
       </c>
       <c r="T15" s="444" t="e">
         <f t="shared" si="6"/>
@@ -41551,7 +41552,7 @@
       </c>
       <c r="S21" s="445">
         <f>_xll.qlQuoteValue(R21,ISERROR(H21))</f>
-        <v>5.483E-3</v>
+        <v>5.4949999999999999E-3</v>
       </c>
       <c r="T21" s="444" t="e">
         <f t="shared" si="6"/>
@@ -41933,7 +41934,7 @@
       </c>
       <c r="M6" s="422" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="N6" s="422" t="s">
         <v>295</v>
@@ -41997,7 +41998,7 @@
         <v>USDSFIX1Y=</v>
       </c>
       <c r="N7" s="418">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O7" s="417">
         <v>0.26300000000000001</v>
@@ -42006,9 +42007,9 @@
         <f t="shared" ref="P7:P21" si="2">IF(AND(ISNUMBER($O7),$O7&lt;&gt;0%),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="416" t="e">
+      <c r="Q7" s="416" t="b">
         <f>IF($P7,_xll.qlIndexAddFixings($S7,$N7,$O7/100,TRUE,ISERROR($T7)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R7" s="398"/>
       <c r="S7" s="415" t="str">
@@ -42019,17 +42020,17 @@
         <f>_xll.qlIndexFixing($S7,$N7,TRUE,$P7)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U7" s="414" t="e">
+      <c r="U7" s="414">
         <f>IF($Q7,_xll.qlIndexFixing($S7,$N7,FALSE,$P7),"-")</f>
-        <v>#NUM!</v>
+        <v>2.63E-3</v>
       </c>
       <c r="V7" s="414" t="e">
         <f t="shared" ref="V7:V21" si="4">T7-U7</f>
         <v>#NUM!</v>
       </c>
-      <c r="W7" s="413" t="e">
+      <c r="W7" s="413">
         <f>_xll.qlIndexFixing($S7,$N7,TRUE,$U7)</f>
-        <v>#NUM!</v>
+        <v>2.63E-3</v>
       </c>
       <c r="X7" s="437">
         <f t="shared" ref="X7:X21" si="5">IF(ISERROR(V7),0,ABS(V7))</f>
@@ -42051,7 +42052,7 @@
       </c>
       <c r="F8" s="44" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm2Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm2Y#0000</v>
       </c>
       <c r="G8" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -42068,7 +42069,7 @@
         <v>USDSFIX2Y=</v>
       </c>
       <c r="N8" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O8" s="409">
         <v>0.53600000000000003</v>
@@ -42077,9 +42078,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="408" t="e">
+      <c r="Q8" s="408" t="b">
         <f>IF($P8,_xll.qlIndexAddFixings($S8,$N8,$O8/100,TRUE,ISERROR($T8)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R8" s="398"/>
       <c r="S8" s="407" t="str">
@@ -42090,17 +42091,17 @@
         <f>_xll.qlIndexFixing($S8,$N8,TRUE,$P8)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U8" s="406" t="e">
+      <c r="U8" s="406">
         <f>IF($Q8,_xll.qlIndexFixing($S8,$N8,FALSE,$P8),"-")</f>
-        <v>#NUM!</v>
+        <v>5.3600000000000002E-3</v>
       </c>
       <c r="V8" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W8" s="405" t="e">
+      <c r="W8" s="405">
         <f>_xll.qlIndexFixing($S8,$N8,TRUE,$U8)</f>
-        <v>#NUM!</v>
+        <v>5.3600000000000002E-3</v>
       </c>
       <c r="X8" s="437">
         <f t="shared" si="5"/>
@@ -42122,7 +42123,7 @@
       </c>
       <c r="F9" s="44" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm3Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm3Y#0000</v>
       </c>
       <c r="G9" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -42139,18 +42140,18 @@
         <v>USDSFIX3Y=</v>
       </c>
       <c r="N9" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O9" s="409">
-        <v>0.995</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="P9" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="408" t="e">
+      <c r="Q9" s="408" t="b">
         <f>IF($P9,_xll.qlIndexAddFixings($S9,$N9,$O9/100,TRUE,ISERROR($T9)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R9" s="398"/>
       <c r="S9" s="407" t="str">
@@ -42161,17 +42162,17 @@
         <f>_xll.qlIndexFixing($S9,$N9,TRUE,$P9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U9" s="406" t="e">
+      <c r="U9" s="406">
         <f>IF($Q9,_xll.qlIndexFixing($S9,$N9,FALSE,$P9),"-")</f>
-        <v>#NUM!</v>
+        <v>9.8399999999999998E-3</v>
       </c>
       <c r="V9" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W9" s="405" t="e">
+      <c r="W9" s="405">
         <f>_xll.qlIndexFixing($S9,$N9,TRUE,$U9)</f>
-        <v>#NUM!</v>
+        <v>9.8399999999999998E-3</v>
       </c>
       <c r="X9" s="437">
         <f t="shared" si="5"/>
@@ -42193,7 +42194,7 @@
       </c>
       <c r="F10" s="44" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm4Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm4Y#0000</v>
       </c>
       <c r="G10" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -42210,18 +42211,18 @@
         <v>USDSFIX4Y=</v>
       </c>
       <c r="N10" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O10" s="409">
-        <v>1.4330000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="P10" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="408" t="e">
+      <c r="Q10" s="408" t="b">
         <f>IF($P10,_xll.qlIndexAddFixings($S10,$N10,$O10/100,TRUE,ISERROR($T10)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R10" s="398"/>
       <c r="S10" s="407" t="str">
@@ -42232,17 +42233,17 @@
         <f>_xll.qlIndexFixing($S10,$N10,TRUE,$P10)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U10" s="406" t="e">
+      <c r="U10" s="406">
         <f>IF($Q10,_xll.qlIndexFixing($S10,$N10,FALSE,$P10),"-")</f>
-        <v>#NUM!</v>
+        <v>1.4199999999999999E-2</v>
       </c>
       <c r="V10" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W10" s="405" t="e">
+      <c r="W10" s="405">
         <f>_xll.qlIndexFixing($S10,$N10,TRUE,$U10)</f>
-        <v>#NUM!</v>
+        <v>1.4199999999999999E-2</v>
       </c>
       <c r="X10" s="437">
         <f t="shared" si="5"/>
@@ -42264,7 +42265,7 @@
       </c>
       <c r="F11" s="44" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm5Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm5Y#0000</v>
       </c>
       <c r="G11" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -42281,18 +42282,18 @@
         <v>USDSFIX5Y=</v>
       </c>
       <c r="N11" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O11" s="409">
-        <v>1.7989999999999999</v>
+        <v>1.782</v>
       </c>
       <c r="P11" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="408" t="e">
+      <c r="Q11" s="408" t="b">
         <f>IF($P11,_xll.qlIndexAddFixings($S11,$N11,$O11/100,TRUE,ISERROR($T11)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R11" s="398"/>
       <c r="S11" s="407" t="str">
@@ -42303,17 +42304,17 @@
         <f>_xll.qlIndexFixing($S11,$N11,TRUE,$P11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U11" s="406" t="e">
+      <c r="U11" s="406">
         <f>IF($Q11,_xll.qlIndexFixing($S11,$N11,FALSE,$P11),"-")</f>
-        <v>#NUM!</v>
+        <v>1.7819999999999999E-2</v>
       </c>
       <c r="V11" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W11" s="405" t="e">
+      <c r="W11" s="405">
         <f>_xll.qlIndexFixing($S11,$N11,TRUE,$U11)</f>
-        <v>#NUM!</v>
+        <v>1.7819999999999999E-2</v>
       </c>
       <c r="X11" s="437">
         <f t="shared" si="5"/>
@@ -42335,7 +42336,7 @@
       </c>
       <c r="F12" s="44" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm6Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm6Y#0000</v>
       </c>
       <c r="G12" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -42352,18 +42353,18 @@
         <v>USDSFIX6Y=</v>
       </c>
       <c r="N12" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O12" s="409">
-        <v>2.0960000000000001</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="P12" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="408" t="e">
+      <c r="Q12" s="408" t="b">
         <f>IF($P12,_xll.qlIndexAddFixings($S12,$N12,$O12/100,TRUE,ISERROR($T12)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R12" s="398"/>
       <c r="S12" s="407" t="str">
@@ -42374,17 +42375,17 @@
         <f>_xll.qlIndexFixing($S12,$N12,TRUE,$P12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U12" s="406" t="e">
+      <c r="U12" s="406">
         <f>IF($Q12,_xll.qlIndexFixing($S12,$N12,FALSE,$P12),"-")</f>
-        <v>#NUM!</v>
+        <v>2.0739999999999998E-2</v>
       </c>
       <c r="V12" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W12" s="405" t="e">
+      <c r="W12" s="405">
         <f>_xll.qlIndexFixing($S12,$N12,TRUE,$U12)</f>
-        <v>#NUM!</v>
+        <v>2.0739999999999998E-2</v>
       </c>
       <c r="X12" s="437">
         <f t="shared" si="5"/>
@@ -42406,7 +42407,7 @@
       </c>
       <c r="F13" s="44" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm7Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm7Y#0000</v>
       </c>
       <c r="G13" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -42423,18 +42424,18 @@
         <v>USDSFIX7Y=</v>
       </c>
       <c r="N13" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O13" s="409">
-        <v>2.3290000000000002</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="P13" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="408" t="e">
+      <c r="Q13" s="408" t="b">
         <f>IF($P13,_xll.qlIndexAddFixings($S13,$N13,$O13/100,TRUE,ISERROR($T13)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R13" s="398"/>
       <c r="S13" s="407" t="str">
@@ -42445,17 +42446,17 @@
         <f>_xll.qlIndexFixing($S13,$N13,TRUE,$P13)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U13" s="406" t="e">
+      <c r="U13" s="406">
         <f>IF($Q13,_xll.qlIndexFixing($S13,$N13,FALSE,$P13),"-")</f>
-        <v>#NUM!</v>
+        <v>2.3050000000000001E-2</v>
       </c>
       <c r="V13" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W13" s="405" t="e">
+      <c r="W13" s="405">
         <f>_xll.qlIndexFixing($S13,$N13,TRUE,$U13)</f>
-        <v>#NUM!</v>
+        <v>2.3050000000000001E-2</v>
       </c>
       <c r="X13" s="437">
         <f t="shared" si="5"/>
@@ -42477,7 +42478,7 @@
       </c>
       <c r="F14" s="44" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm8Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm8Y#0000</v>
       </c>
       <c r="G14" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -42494,18 +42495,18 @@
         <v>USDSFIX8Y=</v>
       </c>
       <c r="N14" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O14" s="409">
-        <v>2.5150000000000001</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="P14" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="408" t="e">
+      <c r="Q14" s="408" t="b">
         <f>IF($P14,_xll.qlIndexAddFixings($S14,$N14,$O14/100,TRUE,ISERROR($T14)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R14" s="398"/>
       <c r="S14" s="407" t="str">
@@ -42516,17 +42517,17 @@
         <f>_xll.qlIndexFixing($S14,$N14,TRUE,$P14)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U14" s="406" t="e">
+      <c r="U14" s="406">
         <f>IF($Q14,_xll.qlIndexFixing($S14,$N14,FALSE,$P14),"-")</f>
-        <v>#NUM!</v>
+        <v>2.4889999999999999E-2</v>
       </c>
       <c r="V14" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W14" s="405" t="e">
+      <c r="W14" s="405">
         <f>_xll.qlIndexFixing($S14,$N14,TRUE,$U14)</f>
-        <v>#NUM!</v>
+        <v>2.4889999999999999E-2</v>
       </c>
       <c r="X14" s="437">
         <f t="shared" si="5"/>
@@ -42548,7 +42549,7 @@
       </c>
       <c r="F15" s="44" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm9Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm9Y#0000</v>
       </c>
       <c r="G15" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -42565,18 +42566,18 @@
         <v>USDSFIX9Y=</v>
       </c>
       <c r="N15" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O15" s="409">
-        <v>2.6680000000000001</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="P15" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="408" t="e">
+      <c r="Q15" s="408" t="b">
         <f>IF($P15,_xll.qlIndexAddFixings($S15,$N15,$O15/100,TRUE,ISERROR($T15)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R15" s="398"/>
       <c r="S15" s="407" t="str">
@@ -42587,17 +42588,17 @@
         <f>_xll.qlIndexFixing($S15,$N15,TRUE,$P15)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U15" s="406" t="e">
+      <c r="U15" s="406">
         <f>IF($Q15,_xll.qlIndexFixing($S15,$N15,FALSE,$P15),"-")</f>
-        <v>#NUM!</v>
+        <v>2.6380000000000001E-2</v>
       </c>
       <c r="V15" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W15" s="405" t="e">
+      <c r="W15" s="405">
         <f>_xll.qlIndexFixing($S15,$N15,TRUE,$U15)</f>
-        <v>#NUM!</v>
+        <v>2.6380000000000001E-2</v>
       </c>
       <c r="X15" s="437">
         <f t="shared" si="5"/>
@@ -42619,7 +42620,7 @@
       </c>
       <c r="F16" s="44" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm10Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm10Y#0000</v>
       </c>
       <c r="G16" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -42636,18 +42637,18 @@
         <v>USDSFIX10Y=</v>
       </c>
       <c r="N16" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O16" s="409">
-        <v>2.7959999999999998</v>
+        <v>2.7639999999999998</v>
       </c>
       <c r="P16" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="408" t="e">
+      <c r="Q16" s="408" t="b">
         <f>IF($P16,_xll.qlIndexAddFixings($S16,$N16,$O16/100,TRUE,ISERROR($T16)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R16" s="398"/>
       <c r="S16" s="407" t="str">
@@ -42658,17 +42659,17 @@
         <f>_xll.qlIndexFixing($S16,$N16,TRUE,$P16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U16" s="406" t="e">
+      <c r="U16" s="406">
         <f>IF($Q16,_xll.qlIndexFixing($S16,$N16,FALSE,$P16),"-")</f>
-        <v>#NUM!</v>
+        <v>2.7639999999999998E-2</v>
       </c>
       <c r="V16" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W16" s="405" t="e">
+      <c r="W16" s="405">
         <f>_xll.qlIndexFixing($S16,$N16,TRUE,$U16)</f>
-        <v>#NUM!</v>
+        <v>2.7639999999999998E-2</v>
       </c>
       <c r="X16" s="437">
         <f t="shared" si="5"/>
@@ -42690,7 +42691,7 @@
       </c>
       <c r="F17" s="44" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm11Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm11Y#0000</v>
       </c>
       <c r="G17" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -42761,7 +42762,7 @@
       </c>
       <c r="F18" s="44" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm12Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm12Y#0000</v>
       </c>
       <c r="G18" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -42778,18 +42779,18 @@
         <v>USDSFIX15Y=</v>
       </c>
       <c r="N18" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O18" s="409">
-        <v>3.1960000000000002</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="P18" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="408" t="e">
+      <c r="Q18" s="408" t="b">
         <f>IF($P18,_xll.qlIndexAddFixings($S18,$N18,$O18/100,TRUE,ISERROR($T18)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R18" s="398"/>
       <c r="S18" s="407" t="str">
@@ -42800,17 +42801,17 @@
         <f>_xll.qlIndexFixing($S18,$N18,TRUE,$P18)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U18" s="406" t="e">
+      <c r="U18" s="406">
         <f>IF($Q18,_xll.qlIndexFixing($S18,$N18,FALSE,$P18),"-")</f>
-        <v>#NUM!</v>
+        <v>3.1549999999999995E-2</v>
       </c>
       <c r="V18" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W18" s="405" t="e">
+      <c r="W18" s="405">
         <f>_xll.qlIndexFixing($S18,$N18,TRUE,$U18)</f>
-        <v>#NUM!</v>
+        <v>3.1549999999999995E-2</v>
       </c>
       <c r="X18" s="437">
         <f t="shared" si="5"/>
@@ -42832,7 +42833,7 @@
       </c>
       <c r="F19" s="44" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm13Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm13Y#0000</v>
       </c>
       <c r="G19" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -42849,18 +42850,18 @@
         <v>USDSFIX20Y=</v>
       </c>
       <c r="N19" s="410">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O19" s="409">
-        <v>3.3660000000000001</v>
+        <v>3.3210000000000002</v>
       </c>
       <c r="P19" s="409" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="408" t="e">
+      <c r="Q19" s="408" t="b">
         <f>IF($P19,_xll.qlIndexAddFixings($S19,$N19,$O19/100,TRUE,ISERROR($T19)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R19" s="398"/>
       <c r="S19" s="407" t="str">
@@ -42871,17 +42872,17 @@
         <f>_xll.qlIndexFixing($S19,$N19,TRUE,$P19)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U19" s="406" t="e">
+      <c r="U19" s="406">
         <f>IF($Q19,_xll.qlIndexFixing($S19,$N19,FALSE,$P19),"-")</f>
-        <v>#NUM!</v>
+        <v>3.3210000000000003E-2</v>
       </c>
       <c r="V19" s="406" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W19" s="405" t="e">
+      <c r="W19" s="405">
         <f>_xll.qlIndexFixing($S19,$N19,TRUE,$U19)</f>
-        <v>#NUM!</v>
+        <v>3.3210000000000003E-2</v>
       </c>
       <c r="X19" s="437">
         <f t="shared" si="5"/>
@@ -42903,7 +42904,7 @@
       </c>
       <c r="F20" s="44" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm14Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm14Y#0000</v>
       </c>
       <c r="G20" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -42974,7 +42975,7 @@
       </c>
       <c r="F21" s="44" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm15Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm15Y#0000</v>
       </c>
       <c r="G21" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -42991,18 +42992,18 @@
         <v>USDSFIX30Y=</v>
       </c>
       <c r="N21" s="401">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O21" s="400">
-        <v>3.472</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="P21" s="400" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="399" t="e">
+      <c r="Q21" s="399" t="b">
         <f>IF($P21,_xll.qlIndexAddFixings($S21,$N21,$O21/100,TRUE,ISERROR($T21)),NA())</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="R21" s="398"/>
       <c r="S21" s="397" t="str">
@@ -43013,17 +43014,17 @@
         <f>_xll.qlIndexFixing($S21,$N21,TRUE,$P21)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U21" s="396" t="e">
+      <c r="U21" s="396">
         <f>IF($Q21,_xll.qlIndexFixing($S21,$N21,FALSE,$P21),"-")</f>
-        <v>#NUM!</v>
+        <v>3.424E-2</v>
       </c>
       <c r="V21" s="396" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W21" s="395" t="e">
+      <c r="W21" s="395">
         <f>_xll.qlIndexFixing($S21,$N21,TRUE,$U21)</f>
-        <v>#NUM!</v>
+        <v>3.424E-2</v>
       </c>
       <c r="X21" s="436">
         <f t="shared" si="5"/>
@@ -43045,7 +43046,7 @@
       </c>
       <c r="F22" s="44" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm16Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm16Y#0000</v>
       </c>
       <c r="G22" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -43083,7 +43084,7 @@
       </c>
       <c r="F23" s="44" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm17Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm17Y#0000</v>
       </c>
       <c r="G23" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -43121,7 +43122,7 @@
       </c>
       <c r="F24" s="44" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm18Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm18Y#0000</v>
       </c>
       <c r="G24" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -43165,7 +43166,7 @@
       </c>
       <c r="F25" s="44" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm19Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm19Y#0000</v>
       </c>
       <c r="G25" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -43209,7 +43210,7 @@
       </c>
       <c r="F26" s="44" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm20Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm20Y#0000</v>
       </c>
       <c r="G26" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -43253,7 +43254,7 @@
       </c>
       <c r="F27" s="44" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm21Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm21Y#0000</v>
       </c>
       <c r="G27" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -43297,7 +43298,7 @@
       </c>
       <c r="F28" s="44" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm22Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm22Y#0000</v>
       </c>
       <c r="G28" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -43341,7 +43342,7 @@
       </c>
       <c r="F29" s="44" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm23Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm23Y#0000</v>
       </c>
       <c r="G29" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -43385,7 +43386,7 @@
       </c>
       <c r="F30" s="44" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm24Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm24Y#0000</v>
       </c>
       <c r="G30" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -43429,7 +43430,7 @@
       </c>
       <c r="F31" s="44" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm25Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm25Y#0000</v>
       </c>
       <c r="G31" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -43451,7 +43452,7 @@
       </c>
       <c r="F32" s="44" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm26Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm26Y#0000</v>
       </c>
       <c r="G32" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -43473,7 +43474,7 @@
       </c>
       <c r="F33" s="44" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm27Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm27Y#0000</v>
       </c>
       <c r="G33" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -43495,7 +43496,7 @@
       </c>
       <c r="F34" s="44" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm28Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm28Y#0000</v>
       </c>
       <c r="G34" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -43517,7 +43518,7 @@
       </c>
       <c r="F35" s="44" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm29Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm29Y#0000</v>
       </c>
       <c r="G35" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -43539,7 +43540,7 @@
       </c>
       <c r="F36" s="44" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm30Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm30Y#0000</v>
       </c>
       <c r="G36" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -43561,7 +43562,7 @@
       </c>
       <c r="F37" s="44" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm31Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm31Y#0000</v>
       </c>
       <c r="G37" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -43583,7 +43584,7 @@
       </c>
       <c r="F38" s="44" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm32Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm32Y#0000</v>
       </c>
       <c r="G38" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -43605,7 +43606,7 @@
       </c>
       <c r="F39" s="44" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm33Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm33Y#0000</v>
       </c>
       <c r="G39" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -43627,7 +43628,7 @@
       </c>
       <c r="F40" s="44" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm34Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm34Y#0000</v>
       </c>
       <c r="G40" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -43649,7 +43650,7 @@
       </c>
       <c r="F41" s="44" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm35Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm35Y#0000</v>
       </c>
       <c r="G41" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -43671,7 +43672,7 @@
       </c>
       <c r="F42" s="44" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm36Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm36Y#0000</v>
       </c>
       <c r="G42" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -43693,7 +43694,7 @@
       </c>
       <c r="F43" s="44" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm37Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm37Y#0000</v>
       </c>
       <c r="G43" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -43715,7 +43716,7 @@
       </c>
       <c r="F44" s="44" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm38Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm38Y#0000</v>
       </c>
       <c r="G44" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -43737,7 +43738,7 @@
       </c>
       <c r="F45" s="44" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm39Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm39Y#0000</v>
       </c>
       <c r="G45" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -43759,7 +43760,7 @@
       </c>
       <c r="F46" s="44" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm40Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm40Y#0000</v>
       </c>
       <c r="G46" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -43781,7 +43782,7 @@
       </c>
       <c r="F47" s="44" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm41Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm41Y#0000</v>
       </c>
       <c r="G47" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -43803,7 +43804,7 @@
       </c>
       <c r="F48" s="44" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm42Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm42Y#0000</v>
       </c>
       <c r="G48" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -43825,7 +43826,7 @@
       </c>
       <c r="F49" s="44" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm43Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm43Y#0000</v>
       </c>
       <c r="G49" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -43847,7 +43848,7 @@
       </c>
       <c r="F50" s="44" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm44Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm44Y#0000</v>
       </c>
       <c r="G50" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -43869,7 +43870,7 @@
       </c>
       <c r="F51" s="44" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm45Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm45Y#0000</v>
       </c>
       <c r="G51" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -43891,7 +43892,7 @@
       </c>
       <c r="F52" s="44" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm46Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm46Y#0000</v>
       </c>
       <c r="G52" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -43913,7 +43914,7 @@
       </c>
       <c r="F53" s="44" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm47Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm47Y#0000</v>
       </c>
       <c r="G53" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -43935,7 +43936,7 @@
       </c>
       <c r="F54" s="44" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm48Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm48Y#0000</v>
       </c>
       <c r="G54" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -43957,7 +43958,7 @@
       </c>
       <c r="F55" s="44" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm49Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm49Y#0000</v>
       </c>
       <c r="G55" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -43979,7 +43980,7 @@
       </c>
       <c r="F56" s="44" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm50Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm50Y#0000</v>
       </c>
       <c r="G56" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -44001,7 +44002,7 @@
       </c>
       <c r="F57" s="44" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm51Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm51Y#0000</v>
       </c>
       <c r="G57" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -44023,7 +44024,7 @@
       </c>
       <c r="F58" s="44" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm52Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm52Y#0000</v>
       </c>
       <c r="G58" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -44045,7 +44046,7 @@
       </c>
       <c r="F59" s="44" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm53Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm53Y#0000</v>
       </c>
       <c r="G59" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -44067,7 +44068,7 @@
       </c>
       <c r="F60" s="44" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm54Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm54Y#0000</v>
       </c>
       <c r="G60" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -44089,7 +44090,7 @@
       </c>
       <c r="F61" s="44" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm55Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm55Y#0000</v>
       </c>
       <c r="G61" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -44111,7 +44112,7 @@
       </c>
       <c r="F62" s="44" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm56Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm56Y#0000</v>
       </c>
       <c r="G62" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -44133,7 +44134,7 @@
       </c>
       <c r="F63" s="44" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm57Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm57Y#0000</v>
       </c>
       <c r="G63" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -44155,7 +44156,7 @@
       </c>
       <c r="F64" s="44" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm58Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm58Y#0000</v>
       </c>
       <c r="G64" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -44177,7 +44178,7 @@
       </c>
       <c r="F65" s="44" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm59Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm59Y#0000</v>
       </c>
       <c r="G65" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -44199,7 +44200,7 @@
       </c>
       <c r="F66" s="44" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm60Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm60Y#0000</v>
       </c>
       <c r="G66" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -44480,7 +44481,7 @@
       </c>
       <c r="M6" s="422" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="N6" s="422" t="s">
         <v>295</v>
@@ -44544,18 +44545,18 @@
         <v>USDSFIXP1Y=</v>
       </c>
       <c r="N7" s="418">
-        <v>41752</v>
+        <v>41754</v>
       </c>
       <c r="O7" s="417">
-        <v>0</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="P7" s="417" t="b">
         <f t="shared" ref="P7:P21" si="2">IF(AND(ISNUMBER($O7),$O7&lt;&gt;0%),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="416" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="416" t="b">
         <f>IF($P7,_xll.qlIndexAddFixings($S7,$N7,$O7/100,TRUE,ISERROR($T7)),NA())</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="R7" s="398"/>
       <c r="S7" s="415" t="str">
@@ -44566,17 +44567,17 @@
         <f>_xll.qlIndexFixing($S7,$N7,TRUE,$P7)</f>
         <v>#NUM!</v>
       </c>
-      <c r="U7" s="414" t="e">
+      <c r="U7" s="414">
         <f>IF($Q7,_xll.qlIndexFixing($S7,$N7,FALSE,$P7),"-")</f>
-        <v>#N/A</v>
+        <v>2.65E-3</v>
       </c>
       <c r="V7" s="414" t="e">
         <f t="shared" ref="V7:V21" si="4">T7-U7</f>
         <v>#NUM!</v>
       </c>
-      <c r="W7" s="413" t="e">
+      <c r="W7" s="413">
         <f>_xll.qlIndexFixing($S7,$N7,TRUE,$U7)</f>
-        <v>#NUM!</v>
+        <v>2.65E-3</v>
       </c>
       <c r="X7" s="437">
         <f t="shared" ref="X7:X21" si="5">IF(ISERROR(V7),0,ABS(V7))</f>
@@ -48396,7 +48397,7 @@
       <c r="R3" s="131"/>
       <c r="S3" s="131" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_00425#0002</v>
+        <v>obj_0049d#0007</v>
       </c>
       <c r="T3" s="131"/>
       <c r="U3" s="131"/>
@@ -48409,7 +48410,7 @@
       <c r="AB3" s="131"/>
       <c r="AC3" s="253">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="189"/>
     </row>
@@ -48440,7 +48441,7 @@
       <c r="R4" s="165"/>
       <c r="S4" s="218" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:18:16</v>
       </c>
       <c r="T4" s="284" t="s">
         <v>207</v>
@@ -48521,14 +48522,14 @@
         <v>USD3L1L6M=ICAP</v>
       </c>
       <c r="T5" s="346">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="U5" s="346">
         <v>0</v>
       </c>
       <c r="V5" s="346">
         <f>_xll.qlMidEquivalent(T5,U5)</f>
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="W5" s="221" t="b">
         <f t="shared" ref="W5:W42" si="2">IF(ISNUMBER(V5),TRUE,FALSE)</f>
@@ -48536,7 +48537,7 @@
       </c>
       <c r="X5" s="347">
         <f t="array" ref="X5:X38">_xll.qlInterpolationInterpolate(S3,N5:N42)</f>
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y5" s="223"/>
       <c r="Z5" s="344">
@@ -48545,7 +48546,7 @@
       <c r="AA5" s="223"/>
       <c r="AB5" s="456">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AC5" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
@@ -48713,7 +48714,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="347">
-        <v>7.5</v>
+        <v>7.5729686115362487</v>
       </c>
       <c r="Y7" s="223"/>
       <c r="Z7" s="344">
@@ -48721,11 +48722,11 @@
       </c>
       <c r="AA7" s="223"/>
       <c r="AB7" s="456">
-        <v>7.5</v>
+        <v>7.5729686115362487</v>
       </c>
       <c r="AC7" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.3629647548983673E-6</v>
       </c>
       <c r="AD7" s="189"/>
       <c r="AE7" s="19"/>
@@ -48803,7 +48804,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="347">
-        <v>7.5</v>
+        <v>7.6271872230724966</v>
       </c>
       <c r="Y8" s="223"/>
       <c r="Z8" s="344">
@@ -48811,11 +48812,11 @@
       </c>
       <c r="AA8" s="223"/>
       <c r="AB8" s="456">
-        <v>7.5</v>
+        <v>7.6271872230724966</v>
       </c>
       <c r="AC8" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>0</v>
+        <v>5.6634295097966964E-6</v>
       </c>
       <c r="AD8" s="189"/>
       <c r="AF8" s="79" t="s">
@@ -48892,7 +48893,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="347">
-        <v>7.5</v>
+        <v>7.667812223072497</v>
       </c>
       <c r="Y9" s="223"/>
       <c r="Z9" s="344">
@@ -48900,11 +48901,11 @@
       </c>
       <c r="AA9" s="223"/>
       <c r="AB9" s="456">
-        <v>7.5</v>
+        <v>7.667812223072497</v>
       </c>
       <c r="AC9" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>0</v>
+        <v>8.6321795097967381E-6</v>
       </c>
       <c r="AD9" s="189"/>
       <c r="AF9" s="76" t="s">
@@ -48972,21 +48973,21 @@
         <v>USD3L1L2Y=ICAP</v>
       </c>
       <c r="T10" s="346">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U10" s="346">
         <v>0</v>
       </c>
       <c r="V10" s="346">
         <f>_xll.qlMidEquivalent(T10,U10)</f>
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="W10" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X10" s="347">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y10" s="223"/>
       <c r="Z10" s="344">
@@ -48994,11 +48995,11 @@
       </c>
       <c r="AA10" s="223"/>
       <c r="AB10" s="456">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AC10" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000000135E-5</v>
       </c>
       <c r="AD10" s="189"/>
     </row>
@@ -49057,21 +49058,21 @@
         <v>USD3L1L3Y=ICAP</v>
       </c>
       <c r="T11" s="346">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U11" s="346">
         <v>0</v>
       </c>
       <c r="V11" s="346">
         <f>_xll.qlMidEquivalent(T11,U11)</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="W11" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X11" s="347">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y11" s="223"/>
       <c r="Z11" s="344">
@@ -49079,11 +49080,11 @@
       </c>
       <c r="AA11" s="223"/>
       <c r="AB11" s="456">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/10000,Trigger)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="189"/>
     </row>
@@ -49142,21 +49143,21 @@
         <v>USD3L1L4Y=ICAP</v>
       </c>
       <c r="T12" s="346">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U12" s="346">
         <v>0</v>
       </c>
       <c r="V12" s="346">
         <f>_xll.qlMidEquivalent(T12,U12)</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="W12" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X12" s="347">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y12" s="223"/>
       <c r="Z12" s="344">
@@ -49164,7 +49165,7 @@
       </c>
       <c r="AA12" s="223"/>
       <c r="AB12" s="456">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC12" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/10000,Trigger)</f>
@@ -49227,21 +49228,21 @@
         <v>USD3L1L5Y=ICAP</v>
       </c>
       <c r="T13" s="346">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U13" s="346">
         <v>0</v>
       </c>
       <c r="V13" s="346">
         <f>_xll.qlMidEquivalent(T13,U13)</f>
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W13" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="347">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y13" s="223"/>
       <c r="Z13" s="344">
@@ -49249,7 +49250,7 @@
       </c>
       <c r="AA13" s="223"/>
       <c r="AB13" s="456">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC13" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
@@ -49312,21 +49313,21 @@
         <v>USD3L1L6Y=ICAP</v>
       </c>
       <c r="T14" s="346">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U14" s="346">
         <v>0</v>
       </c>
       <c r="V14" s="346">
         <f>_xll.qlMidEquivalent(T14,U14)</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="W14" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X14" s="347">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y14" s="223"/>
       <c r="Z14" s="344">
@@ -49334,7 +49335,7 @@
       </c>
       <c r="AA14" s="223"/>
       <c r="AB14" s="456">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC14" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/10000,Trigger)</f>
@@ -49388,21 +49389,21 @@
         <v>USD3L1L7Y=ICAP</v>
       </c>
       <c r="T15" s="346">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U15" s="346">
         <v>0</v>
       </c>
       <c r="V15" s="346">
         <f>_xll.qlMidEquivalent(T15,U15)</f>
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="W15" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X15" s="347">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y15" s="223"/>
       <c r="Z15" s="344">
@@ -49410,7 +49411,7 @@
       </c>
       <c r="AA15" s="223"/>
       <c r="AB15" s="456">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AC15" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/10000,Trigger)</f>
@@ -49464,21 +49465,21 @@
         <v>USD3L1L8Y=ICAP</v>
       </c>
       <c r="T16" s="346">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U16" s="346">
         <v>0</v>
       </c>
       <c r="V16" s="346">
         <f>_xll.qlMidEquivalent(T16,U16)</f>
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="W16" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X16" s="347">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y16" s="223"/>
       <c r="Z16" s="344">
@@ -49486,7 +49487,7 @@
       </c>
       <c r="AA16" s="223"/>
       <c r="AB16" s="456">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AC16" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/10000,Trigger)</f>
@@ -49706,7 +49707,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="347">
-        <v>6.2859130011339159</v>
+        <v>6.2954201605593125</v>
       </c>
       <c r="Y19" s="223"/>
       <c r="Z19" s="344">
@@ -49714,11 +49715,11 @@
       </c>
       <c r="AA19" s="223"/>
       <c r="AB19" s="456">
-        <v>6.2859130011339159</v>
+        <v>6.2954201605593125</v>
       </c>
       <c r="AC19" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>1.3255109217267386E-10</v>
+        <v>3.6150297891886923E-10</v>
       </c>
       <c r="AD19" s="189"/>
     </row>
@@ -49858,7 +49859,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="347">
-        <v>5.7867501067797864</v>
+        <v>5.7577263328740829</v>
       </c>
       <c r="Y21" s="223"/>
       <c r="Z21" s="344">
@@ -49866,11 +49867,11 @@
       </c>
       <c r="AA21" s="223"/>
       <c r="AB21" s="456">
-        <v>5.7867501067797864</v>
+        <v>5.7577263328740829</v>
       </c>
       <c r="AC21" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>-6.6706053875043025E-11</v>
+        <v>-1.8192560164494859E-10</v>
       </c>
       <c r="AD21" s="189"/>
     </row>
@@ -49934,7 +49935,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="347">
-        <v>5.6303709999356091</v>
+        <v>5.5635116826440481</v>
       </c>
       <c r="Y22" s="223"/>
       <c r="Z22" s="344">
@@ -49942,11 +49943,11 @@
       </c>
       <c r="AA22" s="223"/>
       <c r="AB22" s="456">
-        <v>5.6303709999356091</v>
+        <v>5.5635116826440481</v>
       </c>
       <c r="AC22" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>-4.7491810072249063E-11</v>
+        <v>-1.2952311868440897E-10</v>
       </c>
       <c r="AD22" s="189"/>
     </row>
@@ -49996,21 +49997,21 @@
         <v>USD3L1L15Y=ICAP</v>
       </c>
       <c r="T23" s="346">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U23" s="346">
         <v>0</v>
       </c>
       <c r="V23" s="346">
         <f>_xll.qlMidEquivalent(T23,U23)</f>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="W23" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X23" s="347">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" s="223"/>
       <c r="Z23" s="344">
@@ -50018,7 +50019,7 @@
       </c>
       <c r="AA23" s="223"/>
       <c r="AB23" s="456">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC23" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/10000,Trigger)</f>
@@ -50086,7 +50087,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="347">
-        <v>5.3707098449247797</v>
+        <v>5.2527510406342577</v>
       </c>
       <c r="Y24" s="223"/>
       <c r="Z24" s="344">
@@ -50094,11 +50095,11 @@
       </c>
       <c r="AA24" s="223"/>
       <c r="AB24" s="456">
-        <v>5.3707098449247797</v>
+        <v>5.2527510406342577</v>
       </c>
       <c r="AC24" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>2.8973629485201657E-11</v>
+        <v>7.901898959380288E-11</v>
       </c>
       <c r="AD24" s="189"/>
     </row>
@@ -50162,7 +50163,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="347">
-        <v>5.2413149423389154</v>
+        <v>5.1189877802479957</v>
       </c>
       <c r="Y25" s="223"/>
       <c r="Z25" s="344">
@@ -50170,11 +50171,11 @@
       </c>
       <c r="AA25" s="223"/>
       <c r="AB25" s="456">
-        <v>5.2413149423389154</v>
+        <v>5.1189877802479957</v>
       </c>
       <c r="AC25" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>3.6021269083849616E-11</v>
+        <v>9.8239824803704467E-11</v>
       </c>
       <c r="AD25" s="189"/>
     </row>
@@ -50238,7 +50239,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="347">
-        <v>5.1165651172906612</v>
+        <v>4.998848999544605</v>
       </c>
       <c r="Y26" s="223"/>
       <c r="Z26" s="344">
@@ -50246,11 +50247,11 @@
       </c>
       <c r="AA26" s="223"/>
       <c r="AB26" s="456">
-        <v>5.1165651172906612</v>
+        <v>4.998848999544605</v>
       </c>
       <c r="AC26" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>2.8582093939896747E-11</v>
+        <v>7.7951165379334941E-11</v>
       </c>
       <c r="AD26" s="189"/>
     </row>
@@ -50314,7 +50315,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="347">
-        <v>5.0012101948282712</v>
+        <v>4.8924734792274762</v>
       </c>
       <c r="Y27" s="223"/>
       <c r="Z27" s="344">
@@ -50322,11 +50323,11 @@
       </c>
       <c r="AA27" s="223"/>
       <c r="AB27" s="456">
-        <v>5.0012101948282712</v>
+        <v>4.8924734792274762</v>
       </c>
       <c r="AC27" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>1.4095279088875701E-11</v>
+        <v>3.8441670528223393E-11</v>
       </c>
       <c r="AD27" s="189"/>
     </row>
@@ -50376,21 +50377,21 @@
         <v>USD3L1L20Y=ICAP</v>
       </c>
       <c r="T28" s="346">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="U28" s="346">
         <v>0</v>
       </c>
       <c r="V28" s="346">
         <f>_xll.qlMidEquivalent(T28,U28)</f>
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="W28" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X28" s="347">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" s="223"/>
       <c r="Z28" s="344">
@@ -50398,7 +50399,7 @@
       </c>
       <c r="AA28" s="223"/>
       <c r="AB28" s="456">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="AC28" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/10000,Trigger)</f>
@@ -50466,7 +50467,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="347">
-        <v>4.8163054473176272</v>
+        <v>4.7211591782069577</v>
       </c>
       <c r="Y29" s="223"/>
       <c r="Z29" s="344">
@@ -50474,11 +50475,11 @@
       </c>
       <c r="AA29" s="223"/>
       <c r="AB29" s="456">
-        <v>4.8163054473176272</v>
+        <v>4.7211591782069577</v>
       </c>
       <c r="AC29" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
-        <v>-7.8307106892577805E-12</v>
+        <v>-2.1356483638837465E-11</v>
       </c>
       <c r="AD29" s="189"/>
     </row>
@@ -50542,7 +50543,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="347">
-        <v>4.747981809147034</v>
+        <v>4.6540489727586971</v>
       </c>
       <c r="Y30" s="223"/>
       <c r="Z30" s="344">
@@ -50550,11 +50551,11 @@
       </c>
       <c r="AA30" s="223"/>
       <c r="AB30" s="456">
-        <v>4.747981809147034</v>
+        <v>4.6540489727586971</v>
       </c>
       <c r="AC30" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
-        <v>-9.788388307362117E-12</v>
+        <v>-2.6695604602756939E-11</v>
       </c>
       <c r="AD30" s="189"/>
     </row>
@@ -50618,7 +50619,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="347">
-        <v>4.6915054473176268</v>
+        <v>4.5963591782069573</v>
       </c>
       <c r="Y31" s="223"/>
       <c r="Z31" s="344">
@@ -50626,11 +50627,11 @@
       </c>
       <c r="AA31" s="223"/>
       <c r="AB31" s="456">
-        <v>4.6915054473176268</v>
+        <v>4.5963591782069573</v>
       </c>
       <c r="AC31" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
-        <v>-7.8307107434678891E-12</v>
+        <v>-2.1356483693047573E-11</v>
       </c>
       <c r="AD31" s="189"/>
     </row>
@@ -50694,7 +50695,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="347">
-        <v>4.643352723658813</v>
+        <v>4.5457795891034785</v>
       </c>
       <c r="Y32" s="223"/>
       <c r="Z32" s="344">
@@ -50702,11 +50703,11 @@
       </c>
       <c r="AA32" s="223"/>
       <c r="AB32" s="456">
-        <v>4.643352723658813</v>
+        <v>4.5457795891034785</v>
       </c>
       <c r="AC32" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
-        <v>-3.9153553446288902E-12</v>
+        <v>-1.0678241873628841E-11</v>
       </c>
       <c r="AD32" s="189"/>
     </row>
@@ -50756,21 +50757,21 @@
         <v>USD3L1L25Y=ICAP</v>
       </c>
       <c r="T33" s="346">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="U33" s="346">
         <v>0</v>
       </c>
       <c r="V33" s="346">
         <f>_xll.qlMidEquivalent(T33,U33)</f>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W33" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X33" s="347">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="Y33" s="223"/>
       <c r="Z33" s="344">
@@ -50778,7 +50779,7 @@
       </c>
       <c r="AA33" s="223"/>
       <c r="AB33" s="456">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="AC33" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/10000,Trigger)</f>
@@ -50846,7 +50847,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="347">
-        <v>4.5584683658047114</v>
+        <v>4.4570122465379125</v>
       </c>
       <c r="Y34" s="223"/>
       <c r="Z34" s="344">
@@ -50854,11 +50855,11 @@
       </c>
       <c r="AA34" s="223"/>
       <c r="AB34" s="456">
-        <v>4.5584683658047114</v>
+        <v>4.4570122465379125</v>
       </c>
       <c r="AC34" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>2.3492131634092472E-12</v>
+        <v>6.4069450699671959E-12</v>
       </c>
       <c r="AD34" s="189"/>
     </row>
@@ -50922,7 +50923,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="347">
-        <v>4.5179578210729492</v>
+        <v>4.4160163287172169</v>
       </c>
       <c r="Y35" s="223"/>
       <c r="Z35" s="344">
@@ -50930,11 +50931,11 @@
       </c>
       <c r="AA35" s="223"/>
       <c r="AB35" s="456">
-        <v>4.5179578210729492</v>
+        <v>4.4160163287172169</v>
       </c>
       <c r="AC35" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>3.1322842540190687E-12</v>
+        <v>8.5425934446929641E-12</v>
       </c>
       <c r="AD35" s="189"/>
     </row>
@@ -50998,7 +50999,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="347">
-        <v>4.4782130934388302</v>
+        <v>4.3765142876275647</v>
       </c>
       <c r="Y36" s="223"/>
       <c r="Z36" s="344">
@@ -51006,11 +51007,11 @@
       </c>
       <c r="AA36" s="223"/>
       <c r="AB36" s="456">
-        <v>4.4782130934388302</v>
+        <v>4.3765142876275647</v>
       </c>
       <c r="AC36" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>2.740748708714158E-12</v>
+        <v>7.4747692302250257E-12</v>
       </c>
       <c r="AD36" s="189"/>
     </row>
@@ -51074,7 +51075,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="347">
-        <v>4.4389789105364743</v>
+        <v>4.3380081643586088</v>
       </c>
       <c r="Y37" s="223"/>
       <c r="Z37" s="344">
@@ -51082,11 +51083,11 @@
       </c>
       <c r="AA37" s="223"/>
       <c r="AB37" s="456">
-        <v>4.4389789105364743</v>
+        <v>4.3380081643586088</v>
       </c>
       <c r="AC37" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>1.5661420727994257E-12</v>
+        <v>4.2712967494515364E-12</v>
       </c>
       <c r="AD37" s="189"/>
     </row>
@@ -51136,21 +51137,21 @@
         <v>USD3L1L30Y=ICAP</v>
       </c>
       <c r="T38" s="346">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="U38" s="346">
         <v>0</v>
       </c>
       <c r="V38" s="346">
         <f>_xll.qlMidEquivalent(T38,U38)</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W38" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X38" s="347">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="Y38" s="223"/>
       <c r="Z38" s="344">
@@ -51158,7 +51159,7 @@
       </c>
       <c r="AA38" s="223"/>
       <c r="AB38" s="456">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AC38" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/10000,Trigger)</f>
@@ -51227,7 +51228,7 @@
       </c>
       <c r="X39" s="345">
         <f>X38</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="Y39" s="223"/>
       <c r="Z39" s="344">
@@ -51235,7 +51236,7 @@
       </c>
       <c r="AA39" s="223"/>
       <c r="AB39" s="456">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AC39" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/10000,Trigger)</f>
@@ -51304,7 +51305,7 @@
       </c>
       <c r="X40" s="345">
         <f>X39</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="Y40" s="223"/>
       <c r="Z40" s="344">
@@ -51312,7 +51313,7 @@
       </c>
       <c r="AA40" s="223"/>
       <c r="AB40" s="456">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AC40" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/10000,Trigger)</f>
@@ -51381,7 +51382,7 @@
       </c>
       <c r="X41" s="345">
         <f>X40</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="Y41" s="223"/>
       <c r="Z41" s="344">
@@ -51389,7 +51390,7 @@
       </c>
       <c r="AA41" s="223"/>
       <c r="AB41" s="456">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AC41" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/10000,Trigger)</f>
@@ -51458,7 +51459,7 @@
       </c>
       <c r="X42" s="342">
         <f>X41</f>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="Y42" s="223"/>
       <c r="Z42" s="341">
@@ -51466,7 +51467,7 @@
       </c>
       <c r="AA42" s="223"/>
       <c r="AB42" s="457">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AC42" s="233">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/10000,Trigger)</f>
@@ -51628,7 +51629,7 @@
       <c r="R3" s="131"/>
       <c r="S3" s="131" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_00424#0000</v>
+        <v>obj_0049c#0002</v>
       </c>
       <c r="T3" s="131"/>
       <c r="U3" s="131"/>
@@ -51641,7 +51642,7 @@
       <c r="AB3" s="131"/>
       <c r="AC3" s="253">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD3" s="189"/>
       <c r="AE3" s="19"/>
@@ -51678,7 +51679,7 @@
       <c r="R4" s="165"/>
       <c r="S4" s="218" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:00:48</v>
       </c>
       <c r="T4" s="284" t="s">
         <v>207</v>
@@ -51763,14 +51764,14 @@
         <v>USD6L3L6M=ICAP</v>
       </c>
       <c r="T5" s="346">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="U5" s="346">
         <v>0</v>
       </c>
       <c r="V5" s="346">
         <f>_xll.qlMidEquivalent(T5,U5)</f>
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="W5" s="221" t="b">
         <f t="shared" ref="W5:W42" si="2">IF(ISNUMBER(V5),TRUE,FALSE)</f>
@@ -51778,7 +51779,7 @@
       </c>
       <c r="X5" s="347">
         <f t="array" ref="X5:X38">_xll.qlInterpolationInterpolate(S3,N5:N42)</f>
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="Y5" s="223"/>
       <c r="Z5" s="344">
@@ -51787,11 +51788,11 @@
       <c r="AA5" s="223"/>
       <c r="AB5" s="456">
         <f t="array" ref="AB5:AB42">QuoteLive</f>
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AC5" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F5,AB5/10000,Trigger)</f>
-        <v>9.9999999999999178E-6</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="189"/>
       <c r="AE5" s="19"/>
@@ -51859,21 +51860,21 @@
         <v>USD6L3L1Y=ICAP</v>
       </c>
       <c r="T6" s="346">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="U6" s="346">
         <v>0</v>
       </c>
       <c r="V6" s="346">
         <f>_xll.qlMidEquivalent(T6,U6)</f>
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="W6" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="347">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="Y6" s="223"/>
       <c r="Z6" s="344">
@@ -51881,11 +51882,11 @@
       </c>
       <c r="AA6" s="223"/>
       <c r="AB6" s="456">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AC6" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/10000,Trigger)</f>
-        <v>9.9999999999999178E-6</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="189"/>
       <c r="AE6" s="19"/>
@@ -51967,7 +51968,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="347">
-        <v>8.984375</v>
+        <v>8.9</v>
       </c>
       <c r="Y7" s="223"/>
       <c r="Z7" s="344">
@@ -51975,11 +51976,11 @@
       </c>
       <c r="AA7" s="223"/>
       <c r="AB7" s="456">
-        <v>8.984375</v>
+        <v>8.9</v>
       </c>
       <c r="AC7" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>8.4374999999999815E-6</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="189"/>
       <c r="AE7" s="19"/>
@@ -52061,7 +52062,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="347">
-        <v>8.9499999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="Y8" s="223"/>
       <c r="Z8" s="344">
@@ -52069,11 +52070,11 @@
       </c>
       <c r="AA8" s="223"/>
       <c r="AB8" s="456">
-        <v>8.9499999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="AC8" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>4.9999999999999047E-6</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="189"/>
       <c r="AE8" s="19"/>
@@ -52155,7 +52156,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="347">
-        <v>8.9156250000000004</v>
+        <v>8.9</v>
       </c>
       <c r="Y9" s="223"/>
       <c r="Z9" s="344">
@@ -52163,11 +52164,11 @@
       </c>
       <c r="AA9" s="223"/>
       <c r="AB9" s="456">
-        <v>8.9156250000000004</v>
+        <v>8.9</v>
       </c>
       <c r="AC9" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>1.5624999999999363E-6</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="189"/>
       <c r="AE9" s="19"/>
@@ -52341,21 +52342,21 @@
         <v>USD6L3L3Y=ICAP</v>
       </c>
       <c r="T11" s="346">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="U11" s="346">
         <v>0</v>
       </c>
       <c r="V11" s="346">
         <f>_xll.qlMidEquivalent(T11,U11)</f>
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="W11" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X11" s="347">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Y11" s="223"/>
       <c r="Z11" s="344">
@@ -52363,11 +52364,11 @@
       </c>
       <c r="AA11" s="223"/>
       <c r="AB11" s="456">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AC11" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-5</v>
       </c>
       <c r="AD11" s="189"/>
       <c r="AE11" s="19"/>
@@ -52535,21 +52536,21 @@
         <v>USD6L3L5Y=ICAP</v>
       </c>
       <c r="T13" s="346">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="U13" s="346">
         <v>0</v>
       </c>
       <c r="V13" s="346">
         <f>_xll.qlMidEquivalent(T13,U13)</f>
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="W13" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="347">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="Y13" s="223"/>
       <c r="Z13" s="344">
@@ -52557,11 +52558,11 @@
       </c>
       <c r="AA13" s="223"/>
       <c r="AB13" s="456">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AC13" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
-        <v>9.9999999999999178E-6</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="189"/>
       <c r="AE13" s="19"/>
@@ -52632,21 +52633,21 @@
         <v>USD6L3L6Y=ICAP</v>
       </c>
       <c r="T14" s="346">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="U14" s="346">
         <v>0</v>
       </c>
       <c r="V14" s="346">
         <f>_xll.qlMidEquivalent(T14,U14)</f>
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="W14" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X14" s="347">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="Y14" s="223"/>
       <c r="Z14" s="344">
@@ -52654,7 +52655,7 @@
       </c>
       <c r="AA14" s="223"/>
       <c r="AB14" s="456">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AC14" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/10000,Trigger)</f>
@@ -53086,7 +53087,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="347">
-        <v>9.9013782561474493</v>
+        <v>9.895609835301757</v>
       </c>
       <c r="Y19" s="223"/>
       <c r="Z19" s="344">
@@ -53094,11 +53095,11 @@
       </c>
       <c r="AA19" s="223"/>
       <c r="AB19" s="456">
-        <v>9.9013782561474493</v>
+        <v>9.895609835301757</v>
       </c>
       <c r="AC19" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>-1.8516985917033449E-8</v>
+        <v>1.3255109225941003E-9</v>
       </c>
       <c r="AD19" s="189"/>
       <c r="AE19" s="19"/>
@@ -53262,7 +53263,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="347">
-        <v>10.057941609214001</v>
+        <v>10.09585589795279</v>
       </c>
       <c r="Y21" s="223"/>
       <c r="Z21" s="344">
@@ -53270,11 +53271,11 @@
       </c>
       <c r="AA21" s="223"/>
       <c r="AB21" s="456">
-        <v>10.057941609214001</v>
+        <v>10.09585589795279</v>
       </c>
       <c r="AC21" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>9.3186335965375622E-9</v>
+        <v>-5.7280198509715441E-10</v>
       </c>
       <c r="AD21" s="189"/>
       <c r="AE21" s="19"/>
@@ -53350,7 +53351,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="347">
-        <v>10.084317123951273</v>
+        <v>10.170150171198618</v>
       </c>
       <c r="Y22" s="223"/>
       <c r="Z22" s="344">
@@ -53358,11 +53359,11 @@
       </c>
       <c r="AA22" s="223"/>
       <c r="AB22" s="456">
-        <v>10.084317123951273</v>
+        <v>10.170150171198618</v>
       </c>
       <c r="AC22" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>6.6344619626627216E-9</v>
+        <v>-2.8640099233173677E-10</v>
       </c>
       <c r="AD22" s="189"/>
       <c r="AE22" s="19"/>
@@ -53424,21 +53425,21 @@
         <v>USD6L3L15Y=ICAP</v>
       </c>
       <c r="T23" s="346">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="U23" s="346">
         <v>0</v>
       </c>
       <c r="V23" s="346">
         <f>_xll.qlMidEquivalent(T23,U23)</f>
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="W23" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X23" s="347">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y23" s="223"/>
       <c r="Z23" s="344">
@@ -53446,7 +53447,7 @@
       </c>
       <c r="AA23" s="223"/>
       <c r="AB23" s="456">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC23" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/10000,Trigger)</f>
@@ -53526,7 +53527,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="347">
-        <v>10.121468400192331</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y24" s="223"/>
       <c r="Z24" s="344">
@@ -53534,11 +53535,11 @@
       </c>
       <c r="AA24" s="223"/>
       <c r="AB24" s="456">
-        <v>10.121468400192331</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC24" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>-3.792278715879227E-9</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="189"/>
       <c r="AE24" s="19"/>
@@ -53614,7 +53615,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="347">
-        <v>10.147651950216371</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y25" s="223"/>
       <c r="Z25" s="344">
@@ -53622,11 +53623,11 @@
       </c>
       <c r="AA25" s="223"/>
       <c r="AB25" s="456">
-        <v>10.147651950216371</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC25" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>-4.2663135552557102E-9</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="189"/>
       <c r="AE25" s="19"/>
@@ -53702,7 +53703,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="347">
-        <v>10.173101300144248</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y26" s="223"/>
       <c r="Z26" s="344">
@@ -53710,11 +53711,11 @@
       </c>
       <c r="AA26" s="223"/>
       <c r="AB26" s="456">
-        <v>10.173101300144248</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC26" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>-2.8442090369094203E-9</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="189"/>
       <c r="AE26" s="19"/>
@@ -53790,7 +53791,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="347">
-        <v>10.192367100048083</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y27" s="223"/>
       <c r="Z27" s="344">
@@ -53798,11 +53799,11 @@
       </c>
       <c r="AA27" s="223"/>
       <c r="AB27" s="456">
-        <v>10.192367100048083</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC27" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>-9.4806967896980676E-10</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="189"/>
       <c r="AE27" s="19"/>
@@ -53966,7 +53967,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="347">
-        <v>10.189599999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y29" s="223"/>
       <c r="Z29" s="344">
@@ -53974,7 +53975,7 @@
       </c>
       <c r="AA29" s="223"/>
       <c r="AB29" s="456">
-        <v>10.189599999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC29" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
@@ -54054,7 +54055,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="347">
-        <v>10.1648</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y30" s="223"/>
       <c r="Z30" s="344">
@@ -54062,7 +54063,7 @@
       </c>
       <c r="AA30" s="223"/>
       <c r="AB30" s="456">
-        <v>10.1648</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC30" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
@@ -54142,7 +54143,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="347">
-        <v>10.135199999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y31" s="223"/>
       <c r="Z31" s="344">
@@ -54150,7 +54151,7 @@
       </c>
       <c r="AA31" s="223"/>
       <c r="AB31" s="456">
-        <v>10.135199999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC31" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
@@ -54230,7 +54231,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="347">
-        <v>10.1104</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y32" s="223"/>
       <c r="Z32" s="344">
@@ -54238,7 +54239,7 @@
       </c>
       <c r="AA32" s="223"/>
       <c r="AB32" s="456">
-        <v>10.1104</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC32" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
@@ -54304,21 +54305,21 @@
         <v>USD6L3L25Y=ICAP</v>
       </c>
       <c r="T33" s="346">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="U33" s="346">
         <v>0</v>
       </c>
       <c r="V33" s="346">
         <f>_xll.qlMidEquivalent(T33,U33)</f>
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="W33" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X33" s="347">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Y33" s="223"/>
       <c r="Z33" s="344">
@@ -54326,7 +54327,7 @@
       </c>
       <c r="AA33" s="223"/>
       <c r="AB33" s="456">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC33" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/10000,Trigger)</f>
@@ -54406,7 +54407,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="347">
-        <v>10.1</v>
+        <v>10.193863272701311</v>
       </c>
       <c r="Y34" s="223"/>
       <c r="Z34" s="344">
@@ -54414,11 +54415,11 @@
       </c>
       <c r="AA34" s="223"/>
       <c r="AB34" s="456">
-        <v>10.1</v>
+        <v>10.193863272701311</v>
       </c>
       <c r="AC34" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.6102368964192602E-12</v>
       </c>
       <c r="AD34" s="189"/>
       <c r="AE34" s="19"/>
@@ -54494,7 +54495,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="347">
-        <v>10.1</v>
+        <v>10.177589818103936</v>
       </c>
       <c r="Y35" s="223"/>
       <c r="Z35" s="344">
@@ -54502,11 +54503,11 @@
       </c>
       <c r="AA35" s="223"/>
       <c r="AB35" s="456">
-        <v>10.1</v>
+        <v>10.177589818103936</v>
       </c>
       <c r="AC35" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>0</v>
+        <v>7.8307106892577805E-12</v>
       </c>
       <c r="AD35" s="189"/>
       <c r="AE35" s="19"/>
@@ -54582,7 +54583,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="347">
-        <v>10.1</v>
+        <v>10.154384727155904</v>
       </c>
       <c r="Y36" s="223"/>
       <c r="Z36" s="344">
@@ -54590,11 +54591,11 @@
       </c>
       <c r="AA36" s="223"/>
       <c r="AB36" s="456">
-        <v>10.1</v>
+        <v>10.154384727155904</v>
       </c>
       <c r="AC36" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.1746066142306888E-11</v>
       </c>
       <c r="AD36" s="189"/>
       <c r="AE36" s="19"/>
@@ -54670,7 +54671,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="347">
-        <v>10.1</v>
+        <v>10.127453090805249</v>
       </c>
       <c r="Y37" s="223"/>
       <c r="Z37" s="344">
@@ -54678,11 +54679,11 @@
       </c>
       <c r="AA37" s="223"/>
       <c r="AB37" s="456">
-        <v>10.1</v>
+        <v>10.127453090805249</v>
       </c>
       <c r="AC37" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.0440947585677041E-11</v>
       </c>
       <c r="AD37" s="189"/>
       <c r="AE37" s="19"/>
@@ -55295,7 +55296,7 @@
       <c r="R3" s="131"/>
       <c r="S3" s="131" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,_xll.ohFilter(N5:N42,W5:W42),_xll.ohFilter(V5:V42,W5:W42))</f>
-        <v>obj_00423#0016</v>
+        <v>obj_0049b#0003</v>
       </c>
       <c r="T3" s="131"/>
       <c r="U3" s="131"/>
@@ -55308,7 +55309,7 @@
       <c r="AB3" s="131"/>
       <c r="AC3" s="253">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="189"/>
       <c r="AE3" s="19"/>
@@ -55343,7 +55344,7 @@
       <c r="R4" s="165"/>
       <c r="S4" s="218" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:00:42</v>
       </c>
       <c r="T4" s="284" t="s">
         <v>207</v>
@@ -55512,21 +55513,21 @@
         <v>USD12L3L1Y=ICAP</v>
       </c>
       <c r="T6" s="346">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="U6" s="346">
         <v>0</v>
       </c>
       <c r="V6" s="346">
         <f>_xll.qlMidEquivalent(T6,U6)</f>
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="W6" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="347">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="Y6" s="223"/>
       <c r="Z6" s="344">
@@ -55534,7 +55535,7 @@
       </c>
       <c r="AA6" s="223"/>
       <c r="AB6" s="456">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="AC6" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/10000,Trigger)</f>
@@ -55612,7 +55613,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="347">
-        <v>28.847713123044564</v>
+        <v>28.740475216598881</v>
       </c>
       <c r="Y7" s="223"/>
       <c r="Z7" s="344">
@@ -55620,11 +55621,11 @@
       </c>
       <c r="AA7" s="223"/>
       <c r="AB7" s="456">
-        <v>28.847713123044564</v>
+        <v>28.740475216598881</v>
       </c>
       <c r="AC7" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/10000,Trigger)</f>
-        <v>-2.7053276558178241E-7</v>
+        <v>-3.8517965261991929E-6</v>
       </c>
       <c r="AD7" s="189"/>
       <c r="AE7" s="19"/>
@@ -55698,7 +55699,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="347">
-        <v>28.886340996871297</v>
+        <v>28.77476034655821</v>
       </c>
       <c r="Y8" s="223"/>
       <c r="Z8" s="344">
@@ -55706,11 +55707,11 @@
       </c>
       <c r="AA8" s="223"/>
       <c r="AB8" s="456">
-        <v>28.886340996871297</v>
+        <v>28.77476034655821</v>
       </c>
       <c r="AC8" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/10000,Trigger)</f>
-        <v>-4.3285242493128553E-7</v>
+        <v>-7.1628744419184077E-6</v>
       </c>
       <c r="AD8" s="189"/>
       <c r="AE8" s="19"/>
@@ -55784,7 +55785,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="347">
-        <v>28.906798372262386</v>
+        <v>28.796665303238434</v>
       </c>
       <c r="Y9" s="223"/>
       <c r="Z9" s="344">
@@ -55792,11 +55793,11 @@
       </c>
       <c r="AA9" s="223"/>
       <c r="AB9" s="456">
-        <v>28.906798372262386</v>
+        <v>28.796665303238434</v>
       </c>
       <c r="AC9" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/10000,Trigger)</f>
-        <v>-3.7874587181492905E-7</v>
+        <v>-9.3925151366789673E-6</v>
       </c>
       <c r="AD9" s="189"/>
       <c r="AE9" s="19"/>
@@ -55865,21 +55866,21 @@
         <v>USD12L3L2Y=ICAP</v>
       </c>
       <c r="T10" s="346">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="U10" s="346">
         <v>0</v>
       </c>
       <c r="V10" s="346">
         <f>_xll.qlMidEquivalent(T10,U10)</f>
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="W10" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X10" s="347">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="Y10" s="223"/>
       <c r="Z10" s="344">
@@ -55887,11 +55888,11 @@
       </c>
       <c r="AA10" s="223"/>
       <c r="AB10" s="456">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="AC10" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/10000,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD10" s="189"/>
       <c r="AE10" s="19"/>
@@ -56069,7 +56070,7 @@
       </c>
       <c r="AC12" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/10000,Trigger)</f>
-        <v>-1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="189"/>
       <c r="AE12" s="19"/>
@@ -56132,21 +56133,21 @@
         <v>USD12L3L5Y=ICAP</v>
       </c>
       <c r="T13" s="346">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="U13" s="346">
         <v>0</v>
       </c>
       <c r="V13" s="346">
         <f>_xll.qlMidEquivalent(T13,U13)</f>
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="W13" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X13" s="347">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="Y13" s="223"/>
       <c r="Z13" s="344">
@@ -56154,11 +56155,11 @@
       </c>
       <c r="AA13" s="223"/>
       <c r="AB13" s="456">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="AC13" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-5</v>
       </c>
       <c r="AD13" s="189"/>
       <c r="AE13" s="19"/>
@@ -56635,7 +56636,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="347">
-        <v>25.676434844804973</v>
+        <v>25.676800395706103</v>
       </c>
       <c r="Y19" s="223"/>
       <c r="Z19" s="344">
@@ -56643,11 +56644,11 @@
       </c>
       <c r="AA19" s="223"/>
       <c r="AB19" s="456">
-        <v>25.676434844804973</v>
+        <v>25.676800395706103</v>
       </c>
       <c r="AC19" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/10000,Trigger)</f>
-        <v>-4.9382225266424162E-9</v>
+        <v>1.8106815931600434E-8</v>
       </c>
       <c r="AD19" s="189"/>
       <c r="AE19" s="19"/>
@@ -56795,7 +56796,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="347">
-        <v>25.351550054169941</v>
+        <v>25.350529168383119</v>
       </c>
       <c r="Y21" s="223"/>
       <c r="Z21" s="344">
@@ -56803,11 +56804,11 @@
       </c>
       <c r="AA21" s="223"/>
       <c r="AB21" s="456">
-        <v>25.351550054169941</v>
+        <v>25.350529168383119</v>
       </c>
       <c r="AC21" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/10000,Trigger)</f>
-        <v>2.4851499347972039E-9</v>
+        <v>-9.1122164275897477E-9</v>
       </c>
       <c r="AD21" s="189"/>
       <c r="AE21" s="19"/>
@@ -56875,7 +56876,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="347">
-        <v>25.220875310305775</v>
+        <v>25.219365875316242</v>
       </c>
       <c r="Y22" s="223"/>
       <c r="Z22" s="344">
@@ -56883,11 +56884,11 @@
       </c>
       <c r="AA22" s="223"/>
       <c r="AB22" s="456">
-        <v>25.220875310305775</v>
+        <v>25.219365875316242</v>
       </c>
       <c r="AC22" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/10000,Trigger)</f>
-        <v>1.7693187037010061E-9</v>
+        <v>-6.4875019128475542E-9</v>
       </c>
       <c r="AD22" s="189"/>
       <c r="AE22" s="19"/>
@@ -57035,7 +57036,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="347">
-        <v>24.98284065038445</v>
+        <v>24.987103200341423</v>
       </c>
       <c r="Y24" s="223"/>
       <c r="Z24" s="344">
@@ -57043,11 +57044,11 @@
       </c>
       <c r="AA24" s="223"/>
       <c r="AB24" s="456">
-        <v>24.98284065038445</v>
+        <v>24.987103200341423</v>
       </c>
       <c r="AC24" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/10000,Trigger)</f>
-        <v>-1.0794194713406591E-9</v>
+        <v>3.9578713965059131E-9</v>
       </c>
       <c r="AD24" s="189"/>
       <c r="AE24" s="19"/>
@@ -57115,7 +57116,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="347">
-        <v>24.870882970748234</v>
+        <v>24.880074249073118</v>
       </c>
       <c r="Y25" s="223"/>
       <c r="Z25" s="344">
@@ -57123,11 +57124,11 @@
       </c>
       <c r="AA25" s="223"/>
       <c r="AB25" s="456">
-        <v>24.870882970748234</v>
+        <v>24.880074249073118</v>
       </c>
       <c r="AC25" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/10000,Trigger)</f>
-        <v>-1.3419809647211012E-9</v>
+        <v>4.9205968709331582E-9</v>
       </c>
       <c r="AD25" s="189"/>
       <c r="AE25" s="19"/>
@@ -57195,7 +57196,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="347">
-        <v>24.767504965919795</v>
+        <v>24.779493697634106</v>
       </c>
       <c r="Y26" s="223"/>
       <c r="Z26" s="344">
@@ -57203,11 +57204,11 @@
       </c>
       <c r="AA26" s="223"/>
       <c r="AB26" s="456">
-        <v>24.767504965919795</v>
+        <v>24.779493697634106</v>
       </c>
       <c r="AC26" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/10000,Trigger)</f>
-        <v>-1.0648327219975329E-9</v>
+        <v>3.9043866477579681E-9</v>
       </c>
       <c r="AD26" s="189"/>
       <c r="AE26" s="19"/>
@@ -57275,7 +57276,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="347">
-        <v>24.67608464072757</v>
+        <v>24.685942097463396</v>
       </c>
       <c r="Y27" s="223"/>
       <c r="Z27" s="344">
@@ -57283,11 +57284,11 @@
       </c>
       <c r="AA27" s="223"/>
       <c r="AB27" s="456">
-        <v>24.67608464072757</v>
+        <v>24.685942097463396</v>
       </c>
       <c r="AC27" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/10000,Trigger)</f>
-        <v>-5.2512298632720333E-10</v>
+        <v>1.9254509497218519E-9</v>
       </c>
       <c r="AD27" s="189"/>
       <c r="AE27" s="19"/>
@@ -57435,7 +57436,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="347">
-        <v>24.541286310706909</v>
+        <v>24.522209945853671</v>
       </c>
       <c r="Y29" s="223"/>
       <c r="Z29" s="344">
@@ -57443,11 +57444,11 @@
       </c>
       <c r="AA29" s="223"/>
       <c r="AB29" s="456">
-        <v>24.541286310706909</v>
+        <v>24.522209945853671</v>
       </c>
       <c r="AC29" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/10000,Trigger)</f>
-        <v>2.9173499250037538E-10</v>
+        <v>-1.0696949719231352E-9</v>
       </c>
       <c r="AD29" s="189"/>
       <c r="AE29" s="19"/>
@@ -57515,7 +57516,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="347">
-        <v>24.496607888383632</v>
+        <v>24.45296243231709</v>
       </c>
       <c r="Y30" s="223"/>
       <c r="Z30" s="344">
@@ -57523,11 +57524,11 @@
       </c>
       <c r="AA30" s="223"/>
       <c r="AB30" s="456">
-        <v>24.496607888383632</v>
+        <v>24.45296243231709</v>
       </c>
       <c r="AC30" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/10000,Trigger)</f>
-        <v>3.6466874051704901E-10</v>
+        <v>-1.3371187147954988E-9</v>
       </c>
       <c r="AD30" s="189"/>
       <c r="AE30" s="19"/>
@@ -57595,7 +57596,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="347">
-        <v>24.461286310706907</v>
+        <v>24.392609945853671</v>
       </c>
       <c r="Y31" s="223"/>
       <c r="Z31" s="344">
@@ -57603,11 +57604,11 @@
       </c>
       <c r="AA31" s="223"/>
       <c r="AB31" s="456">
-        <v>24.461286310706907</v>
+        <v>24.392609945853671</v>
       </c>
       <c r="AC31" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/10000,Trigger)</f>
-        <v>2.9173499250037538E-10</v>
+        <v>-1.0696949719231352E-9</v>
       </c>
       <c r="AD31" s="189"/>
       <c r="AE31" s="19"/>
@@ -57675,7 +57676,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="347">
-        <v>24.430643155353451</v>
+        <v>24.341504972926835</v>
       </c>
       <c r="Y32" s="223"/>
       <c r="Z32" s="344">
@@ -57683,11 +57684,11 @@
       </c>
       <c r="AA32" s="223"/>
       <c r="AB32" s="456">
-        <v>24.430643155353451</v>
+        <v>24.341504972926835</v>
       </c>
       <c r="AC32" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/10000,Trigger)</f>
-        <v>1.4586749646702812E-10</v>
+        <v>-5.3484748617840805E-10</v>
       </c>
       <c r="AD32" s="189"/>
       <c r="AE32" s="19"/>
@@ -57741,21 +57742,21 @@
         <v>USD12L3L25Y=ICAP</v>
       </c>
       <c r="T33" s="346">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="U33" s="346">
         <v>0</v>
       </c>
       <c r="V33" s="346">
         <f>_xll.qlMidEquivalent(T33,U33)</f>
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="W33" s="221" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X33" s="347">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Y33" s="223"/>
       <c r="Z33" s="344">
@@ -57763,7 +57764,7 @@
       </c>
       <c r="AA33" s="223"/>
       <c r="AB33" s="456">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="AC33" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/10000,Trigger)</f>
@@ -57835,7 +57836,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="347">
-        <v>24.365614106787927</v>
+        <v>24.268057016243901</v>
       </c>
       <c r="Y34" s="223"/>
       <c r="Z34" s="344">
@@ -57843,11 +57844,11 @@
       </c>
       <c r="AA34" s="223"/>
       <c r="AB34" s="456">
-        <v>24.365614106787927</v>
+        <v>24.268057016243901</v>
       </c>
       <c r="AC34" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/10000,Trigger)</f>
-        <v>-8.75204977934807E-11</v>
+        <v>3.2090849162030866E-10</v>
       </c>
       <c r="AD34" s="189"/>
       <c r="AE34" s="19"/>
@@ -57915,7 +57916,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="347">
-        <v>24.327485475717236</v>
+        <v>24.244076021658532</v>
       </c>
       <c r="Y35" s="223"/>
       <c r="Z35" s="344">
@@ -57923,11 +57924,11 @@
       </c>
       <c r="AA35" s="223"/>
       <c r="AB35" s="456">
-        <v>24.327485475717236</v>
+        <v>24.244076021658532</v>
       </c>
       <c r="AC35" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/10000,Trigger)</f>
-        <v>-1.1669399734709485E-10</v>
+        <v>4.2787798868251792E-10</v>
       </c>
       <c r="AD35" s="189"/>
       <c r="AE35" s="19"/>
@@ -57995,7 +57996,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="347">
-        <v>24.286549791252583</v>
+        <v>24.226066518951214</v>
       </c>
       <c r="Y36" s="223"/>
       <c r="Z36" s="344">
@@ -58003,11 +58004,11 @@
       </c>
       <c r="AA36" s="223"/>
       <c r="AB36" s="456">
-        <v>24.286549791252583</v>
+        <v>24.226066518951214</v>
       </c>
       <c r="AC36" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/10000,Trigger)</f>
-        <v>-1.0210724670292604E-10</v>
+        <v>3.7439323993457285E-10</v>
       </c>
       <c r="AD36" s="189"/>
       <c r="AE36" s="19"/>
@@ -58075,7 +58076,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="347">
-        <v>24.243742737858618</v>
+        <v>24.212038010829264</v>
       </c>
       <c r="Y37" s="223"/>
       <c r="Z37" s="344">
@@ -58083,11 +58084,11 @@
       </c>
       <c r="AA37" s="223"/>
       <c r="AB37" s="456">
-        <v>24.243742737858618</v>
+        <v>24.212038010829264</v>
       </c>
       <c r="AC37" s="220">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/10000,Trigger)</f>
-        <v>-5.8346998673547423E-11</v>
+        <v>2.1393899412441852E-10</v>
       </c>
       <c r="AD37" s="189"/>
       <c r="AE37" s="19"/>
@@ -58643,7 +58644,7 @@
       <c r="O3" s="254"/>
       <c r="P3" s="253">
         <f>_xll.ohTrigger(P5:P18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="189"/>
       <c r="R3" s="19"/>
@@ -58673,7 +58674,7 @@
       <c r="I4" s="250"/>
       <c r="J4" s="218" t="str">
         <f>_xll.RData(J8:J22,K4,,ReutersRtMode,,K8)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 11:13:10</v>
       </c>
       <c r="K4" s="252" t="str">
         <f>VLOOKUP(Contributor,ContributorTable,5,FALSE)</f>
@@ -58736,7 +58737,7 @@
       </c>
       <c r="K5" s="243">
         <f>X28</f>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L5" s="223"/>
       <c r="M5" s="242">
@@ -58745,7 +58746,7 @@
       <c r="N5" s="223"/>
       <c r="O5" s="303">
         <f t="array" ref="O5:O22">QuoteLive</f>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="P5" s="240">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
@@ -58797,7 +58798,7 @@
       </c>
       <c r="K6" s="225">
         <f>X29</f>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L6" s="223"/>
       <c r="M6" s="224">
@@ -58805,11 +58806,11 @@
       </c>
       <c r="N6" s="223"/>
       <c r="O6" s="296">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="P6" s="220">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-4</v>
       </c>
       <c r="Q6" s="189"/>
       <c r="R6" s="19"/>
@@ -58852,7 +58853,7 @@
       </c>
       <c r="K7" s="237">
         <f>X30</f>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L7" s="223"/>
       <c r="M7" s="236">
@@ -58860,7 +58861,7 @@
       </c>
       <c r="N7" s="223"/>
       <c r="O7" s="289">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="P7" s="233">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
@@ -58907,7 +58908,7 @@
         <v>USDSWFSR=</v>
       </c>
       <c r="K8" s="225">
-        <v>0.11924999999999999</v>
+        <v>0.11975</v>
       </c>
       <c r="L8" s="223"/>
       <c r="M8" s="224">
@@ -58915,11 +58916,11 @@
       </c>
       <c r="N8" s="223"/>
       <c r="O8" s="296">
-        <v>0.11924999999999999</v>
+        <v>0.11975</v>
       </c>
       <c r="P8" s="220">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
-        <v>-2.0500000000000119E-5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="189"/>
       <c r="R8" s="19"/>
@@ -59075,7 +59076,7 @@
         <v>USD1MFSR=</v>
       </c>
       <c r="K11" s="225">
-        <v>0.15179999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="L11" s="223"/>
       <c r="M11" s="224">
@@ -59083,11 +59084,11 @@
       </c>
       <c r="N11" s="223"/>
       <c r="O11" s="296">
-        <v>0.15179999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="P11" s="220">
         <f>_xll.qlSimpleQuoteSetValue(D11,O11/100,Trigger)</f>
-        <v>-5.0000000000000131E-6</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="189"/>
       <c r="R11" s="19"/>
@@ -59131,7 +59132,7 @@
         <v>USD2MFSR=</v>
       </c>
       <c r="K12" s="225">
-        <v>0.19209999999999999</v>
+        <v>0.1925</v>
       </c>
       <c r="L12" s="223"/>
       <c r="M12" s="224">
@@ -59139,11 +59140,11 @@
       </c>
       <c r="N12" s="223"/>
       <c r="O12" s="296">
-        <v>0.19209999999999999</v>
+        <v>0.1925</v>
       </c>
       <c r="P12" s="220">
         <f>_xll.qlSimpleQuoteSetValue(D12,O12/100,Trigger)</f>
-        <v>-9.0000000000001103E-6</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="189"/>
       <c r="R12" s="19"/>
@@ -59187,7 +59188,7 @@
         <v>USD3MFSR=</v>
       </c>
       <c r="K13" s="225">
-        <v>0.22785</v>
+        <v>0.2266</v>
       </c>
       <c r="L13" s="223"/>
       <c r="M13" s="224">
@@ -59195,11 +59196,11 @@
       </c>
       <c r="N13" s="223"/>
       <c r="O13" s="296">
-        <v>0.22785</v>
+        <v>0.2266</v>
       </c>
       <c r="P13" s="220">
         <f>_xll.qlSimpleQuoteSetValue(D13,O13/100,Trigger)</f>
-        <v>-8.9999999999998935E-6</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="189"/>
       <c r="R13" s="19"/>
@@ -59339,7 +59340,7 @@
         <v>USD6MFSR=</v>
       </c>
       <c r="K16" s="225">
-        <v>0.32350000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="L16" s="223"/>
       <c r="M16" s="224">
@@ -59347,11 +59348,11 @@
       </c>
       <c r="N16" s="223"/>
       <c r="O16" s="296">
-        <v>0.32350000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="P16" s="220">
         <f>_xll.qlSimpleQuoteSetValue(D16,O16/100,Trigger)</f>
-        <v>7.0000000000000617E-6</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="189"/>
       <c r="R16" s="19"/>
@@ -59639,7 +59640,7 @@
       </c>
       <c r="P22" s="233">
         <f>_xll.qlSimpleQuoteSetValue(D22,O22/100,Trigger)</f>
-        <v>1.1999999999999858E-5</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="189"/>
       <c r="R22" s="19"/>
@@ -59731,7 +59732,7 @@
       <c r="T27" s="19"/>
       <c r="U27" s="471" t="str">
         <f>_xll.RData(J5:J7,V27:W27,"RTFEED:IDN",ReutersRtMode,,V28)</f>
-        <v>Paused at 15:28:02</v>
+        <v>Updated at 12:22:07</v>
       </c>
       <c r="V27" s="472" t="s">
         <v>207</v>
@@ -59753,14 +59754,14 @@
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="473">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="W28" s="473">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="X28" s="473">
         <f>(V28+W28)/2</f>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -59773,14 +59774,14 @@
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="474">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="W29" s="474">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="X29" s="474">
         <f>(V29+W29)/2</f>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -59793,14 +59794,14 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="475">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="W30" s="475">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="X30" s="475">
         <f>(V30+W30)/2</f>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
